--- a/BackTest/2020-01-15 BackTest ENJ.xlsx
+++ b/BackTest/2020-01-15 BackTest ENJ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M238"/>
+  <dimension ref="A1:M239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>79</v>
+        <v>79.47</v>
       </c>
       <c r="C2" t="n">
         <v>79</v>
       </c>
       <c r="D2" t="n">
-        <v>79</v>
+        <v>79.48</v>
       </c>
       <c r="E2" t="n">
         <v>79</v>
       </c>
       <c r="F2" t="n">
-        <v>5000</v>
+        <v>17217.78</v>
       </c>
       <c r="G2" t="n">
-        <v>79.866</v>
+        <v>79.89933333333333</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>79</v>
       </c>
       <c r="F3" t="n">
-        <v>110419.1113</v>
+        <v>5000</v>
       </c>
       <c r="G3" t="n">
-        <v>79.836</v>
+        <v>79.866</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>79.01000000000001</v>
+        <v>79</v>
       </c>
       <c r="C4" t="n">
         <v>79</v>
       </c>
       <c r="D4" t="n">
-        <v>79.01000000000001</v>
+        <v>79</v>
       </c>
       <c r="E4" t="n">
         <v>79</v>
       </c>
       <c r="F4" t="n">
-        <v>45355.0728</v>
+        <v>110419.1113</v>
       </c>
       <c r="G4" t="n">
-        <v>79.806</v>
+        <v>79.836</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>79</v>
+        <v>79.01000000000001</v>
       </c>
       <c r="C5" t="n">
         <v>79</v>
       </c>
       <c r="D5" t="n">
-        <v>79</v>
+        <v>79.01000000000001</v>
       </c>
       <c r="E5" t="n">
         <v>79</v>
       </c>
       <c r="F5" t="n">
-        <v>2126.3778</v>
+        <v>45355.0728</v>
       </c>
       <c r="G5" t="n">
-        <v>79.78099999999999</v>
+        <v>79.806</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>78.98999999999999</v>
+        <v>79</v>
       </c>
       <c r="C6" t="n">
-        <v>78.8</v>
+        <v>79</v>
       </c>
       <c r="D6" t="n">
-        <v>78.98999999999999</v>
+        <v>79</v>
       </c>
       <c r="E6" t="n">
-        <v>78.8</v>
+        <v>79</v>
       </c>
       <c r="F6" t="n">
-        <v>14705.6658</v>
+        <v>2126.3778</v>
       </c>
       <c r="G6" t="n">
-        <v>79.74600000000001</v>
+        <v>79.78099999999999</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>78.81</v>
+        <v>78.98999999999999</v>
       </c>
       <c r="C7" t="n">
         <v>78.8</v>
       </c>
       <c r="D7" t="n">
-        <v>78.81</v>
+        <v>78.98999999999999</v>
       </c>
       <c r="E7" t="n">
         <v>78.8</v>
       </c>
       <c r="F7" t="n">
-        <v>2596.0999</v>
+        <v>14705.6658</v>
       </c>
       <c r="G7" t="n">
-        <v>79.71133333333334</v>
+        <v>79.74600000000001</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>78.98</v>
+        <v>78.81</v>
       </c>
       <c r="C8" t="n">
-        <v>78.98</v>
+        <v>78.8</v>
       </c>
       <c r="D8" t="n">
-        <v>78.98</v>
+        <v>78.81</v>
       </c>
       <c r="E8" t="n">
-        <v>78.98</v>
+        <v>78.8</v>
       </c>
       <c r="F8" t="n">
-        <v>4000</v>
+        <v>2596.0999</v>
       </c>
       <c r="G8" t="n">
-        <v>79.67966666666666</v>
+        <v>79.71133333333334</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>79</v>
+        <v>78.98</v>
       </c>
       <c r="C9" t="n">
-        <v>79</v>
+        <v>78.98</v>
       </c>
       <c r="D9" t="n">
-        <v>79</v>
+        <v>78.98</v>
       </c>
       <c r="E9" t="n">
-        <v>79</v>
+        <v>78.98</v>
       </c>
       <c r="F9" t="n">
-        <v>67518.91409999999</v>
+        <v>4000</v>
       </c>
       <c r="G9" t="n">
-        <v>79.648</v>
+        <v>79.67966666666666</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>79</v>
       </c>
       <c r="F10" t="n">
-        <v>6895.7895</v>
+        <v>67518.91409999999</v>
       </c>
       <c r="G10" t="n">
-        <v>79.61666666666666</v>
+        <v>79.648</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,1407 +748,1263 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>79.19</v>
+        <v>79</v>
       </c>
       <c r="C11" t="n">
-        <v>79.18000000000001</v>
+        <v>79</v>
       </c>
       <c r="D11" t="n">
-        <v>79.19</v>
+        <v>79</v>
       </c>
       <c r="E11" t="n">
         <v>79</v>
       </c>
       <c r="F11" t="n">
+        <v>6895.7895</v>
+      </c>
+      <c r="G11" t="n">
+        <v>79.61666666666666</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>79.19</v>
+      </c>
+      <c r="C12" t="n">
+        <v>79.18000000000001</v>
+      </c>
+      <c r="D12" t="n">
+        <v>79.19</v>
+      </c>
+      <c r="E12" t="n">
+        <v>79</v>
+      </c>
+      <c r="F12" t="n">
         <v>10000</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G12" t="n">
         <v>79.58683333333333</v>
       </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>79</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>79.3</v>
+      </c>
+      <c r="C13" t="n">
+        <v>79.93000000000001</v>
+      </c>
+      <c r="D13" t="n">
+        <v>79.93000000000001</v>
+      </c>
+      <c r="E13" t="n">
+        <v>79.3</v>
+      </c>
+      <c r="F13" t="n">
+        <v>300</v>
+      </c>
+      <c r="G13" t="n">
+        <v>79.56950000000001</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>79.45</v>
+      </c>
+      <c r="C14" t="n">
+        <v>79.81999999999999</v>
+      </c>
+      <c r="D14" t="n">
+        <v>79.81999999999999</v>
+      </c>
+      <c r="E14" t="n">
+        <v>79.45</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1671.6851</v>
+      </c>
+      <c r="G14" t="n">
+        <v>79.55033333333333</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>79.79000000000001</v>
+      </c>
+      <c r="C15" t="n">
+        <v>79.34999999999999</v>
+      </c>
+      <c r="D15" t="n">
+        <v>79.79000000000001</v>
+      </c>
+      <c r="E15" t="n">
+        <v>79.34999999999999</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1014</v>
+      </c>
+      <c r="G15" t="n">
+        <v>79.5295</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>79.79000000000001</v>
+      </c>
+      <c r="C16" t="n">
+        <v>79.86</v>
+      </c>
+      <c r="D16" t="n">
+        <v>79.86</v>
+      </c>
+      <c r="E16" t="n">
+        <v>79.79000000000001</v>
+      </c>
+      <c r="F16" t="n">
+        <v>35993</v>
+      </c>
+      <c r="G16" t="n">
+        <v>79.51083333333332</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>79.79000000000001</v>
+      </c>
+      <c r="C17" t="n">
+        <v>79.93000000000001</v>
+      </c>
+      <c r="D17" t="n">
+        <v>79.93000000000001</v>
+      </c>
+      <c r="E17" t="n">
+        <v>79.79000000000001</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1114</v>
+      </c>
+      <c r="G17" t="n">
+        <v>79.49816666666668</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>79.36</v>
+      </c>
+      <c r="C18" t="n">
+        <v>79.93000000000001</v>
+      </c>
+      <c r="D18" t="n">
+        <v>79.93000000000001</v>
+      </c>
+      <c r="E18" t="n">
+        <v>79.36</v>
+      </c>
+      <c r="F18" t="n">
+        <v>6007</v>
+      </c>
+      <c r="G18" t="n">
+        <v>79.48866666666667</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>79.95999999999999</v>
+      </c>
+      <c r="C19" t="n">
+        <v>79.95999999999999</v>
+      </c>
+      <c r="D19" t="n">
+        <v>79.95999999999999</v>
+      </c>
+      <c r="E19" t="n">
+        <v>79.95999999999999</v>
+      </c>
+      <c r="F19" t="n">
+        <v>800</v>
+      </c>
+      <c r="G19" t="n">
+        <v>79.483</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>79.97</v>
+      </c>
+      <c r="C20" t="n">
+        <v>79.97</v>
+      </c>
+      <c r="D20" t="n">
+        <v>79.97</v>
+      </c>
+      <c r="E20" t="n">
+        <v>79.97</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G20" t="n">
+        <v>79.47983333333335</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>79.97</v>
+      </c>
+      <c r="C21" t="n">
+        <v>80.73999999999999</v>
+      </c>
+      <c r="D21" t="n">
+        <v>80.73999999999999</v>
+      </c>
+      <c r="E21" t="n">
+        <v>79.97</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G21" t="n">
+        <v>79.48950000000001</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>80.94</v>
+      </c>
+      <c r="C22" t="n">
+        <v>80.94</v>
+      </c>
+      <c r="D22" t="n">
+        <v>80.94</v>
+      </c>
+      <c r="E22" t="n">
+        <v>80.94</v>
+      </c>
+      <c r="F22" t="n">
+        <v>7</v>
+      </c>
+      <c r="G22" t="n">
+        <v>79.50466666666668</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="C23" t="n">
+        <v>80.94</v>
+      </c>
+      <c r="D23" t="n">
+        <v>80.94</v>
+      </c>
+      <c r="E23" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="F23" t="n">
+        <v>107</v>
+      </c>
+      <c r="G23" t="n">
+        <v>79.51966666666667</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>80.91</v>
+      </c>
+      <c r="C24" t="n">
+        <v>79.7</v>
+      </c>
+      <c r="D24" t="n">
+        <v>80.91</v>
+      </c>
+      <c r="E24" t="n">
+        <v>79.7</v>
+      </c>
+      <c r="F24" t="n">
+        <v>14</v>
+      </c>
+      <c r="G24" t="n">
+        <v>79.51416666666667</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="C25" t="n">
+        <v>79.52</v>
+      </c>
+      <c r="D25" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="E25" t="n">
+        <v>79.52</v>
+      </c>
+      <c r="F25" t="n">
+        <v>392.2343</v>
+      </c>
+      <c r="G25" t="n">
+        <v>79.50566666666668</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>79.70999999999999</v>
+      </c>
+      <c r="C26" t="n">
+        <v>80.76000000000001</v>
+      </c>
+      <c r="D26" t="n">
+        <v>80.76000000000001</v>
+      </c>
+      <c r="E26" t="n">
+        <v>79.40000000000001</v>
+      </c>
+      <c r="F26" t="n">
+        <v>10115.1228</v>
+      </c>
+      <c r="G26" t="n">
+        <v>79.51783333333336</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>80.59</v>
+      </c>
+      <c r="C27" t="n">
+        <v>80.59</v>
+      </c>
+      <c r="D27" t="n">
+        <v>80.59</v>
+      </c>
+      <c r="E27" t="n">
+        <v>80.59</v>
+      </c>
+      <c r="F27" t="n">
+        <v>7</v>
+      </c>
+      <c r="G27" t="n">
+        <v>79.5271666666667</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>79.36</v>
+      </c>
+      <c r="C28" t="n">
+        <v>79.36</v>
+      </c>
+      <c r="D28" t="n">
+        <v>79.36</v>
+      </c>
+      <c r="E28" t="n">
+        <v>79.36</v>
+      </c>
+      <c r="F28" t="n">
+        <v>7</v>
+      </c>
+      <c r="G28" t="n">
+        <v>79.51650000000002</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>79.39</v>
+      </c>
+      <c r="C29" t="n">
+        <v>79.38</v>
+      </c>
+      <c r="D29" t="n">
+        <v>79.39</v>
+      </c>
+      <c r="E29" t="n">
+        <v>79.38</v>
+      </c>
+      <c r="F29" t="n">
+        <v>760.9999</v>
+      </c>
+      <c r="G29" t="n">
+        <v>79.50783333333337</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>79.37</v>
+      </c>
+      <c r="C30" t="n">
+        <v>79.37</v>
+      </c>
+      <c r="D30" t="n">
+        <v>79.37</v>
+      </c>
+      <c r="E30" t="n">
+        <v>79.37</v>
+      </c>
+      <c r="F30" t="n">
+        <v>512.73</v>
+      </c>
+      <c r="G30" t="n">
+        <v>79.50116666666669</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>80.38</v>
+      </c>
+      <c r="C31" t="n">
+        <v>80.38</v>
+      </c>
+      <c r="D31" t="n">
+        <v>80.38</v>
+      </c>
+      <c r="E31" t="n">
+        <v>80.38</v>
+      </c>
+      <c r="F31" t="n">
+        <v>662.109</v>
+      </c>
+      <c r="G31" t="n">
+        <v>79.51133333333335</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>80.38</v>
+      </c>
+      <c r="C32" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="D32" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="E32" t="n">
+        <v>80.38</v>
+      </c>
+      <c r="F32" t="n">
+        <v>344.86</v>
+      </c>
+      <c r="G32" t="n">
+        <v>79.52350000000001</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>80.38</v>
+      </c>
+      <c r="C33" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="D33" t="n">
+        <v>80.38</v>
+      </c>
+      <c r="E33" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="F33" t="n">
+        <v>7</v>
+      </c>
+      <c r="G33" t="n">
+        <v>79.51050000000002</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>80.40000000000001</v>
+      </c>
+      <c r="C34" t="n">
+        <v>80.40000000000001</v>
+      </c>
+      <c r="D34" t="n">
+        <v>80.40000000000001</v>
+      </c>
+      <c r="E34" t="n">
+        <v>80.40000000000001</v>
+      </c>
+      <c r="F34" t="n">
+        <v>7</v>
+      </c>
+      <c r="G34" t="n">
+        <v>79.51700000000001</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="C35" t="n">
+        <v>79.40000000000001</v>
+      </c>
+      <c r="D35" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="E35" t="n">
+        <v>79.40000000000001</v>
+      </c>
+      <c r="F35" t="n">
+        <v>10340.0647</v>
+      </c>
+      <c r="G35" t="n">
+        <v>79.50216666666667</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>79.40000000000001</v>
+      </c>
+      <c r="C36" t="n">
+        <v>79.40000000000001</v>
+      </c>
+      <c r="D36" t="n">
+        <v>79.40000000000001</v>
+      </c>
+      <c r="E36" t="n">
+        <v>79.40000000000001</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1045.6554</v>
+      </c>
+      <c r="G36" t="n">
+        <v>79.48566666666666</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>79.36</v>
+      </c>
+      <c r="C37" t="n">
+        <v>79.36</v>
+      </c>
+      <c r="D37" t="n">
+        <v>79.36</v>
+      </c>
+      <c r="E37" t="n">
+        <v>79.36</v>
+      </c>
+      <c r="F37" t="n">
+        <v>4480.3879</v>
+      </c>
+      <c r="G37" t="n">
+        <v>79.47499999999998</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="C38" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="D38" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="E38" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="F38" t="n">
+        <v>5176.6011</v>
+      </c>
+      <c r="G38" t="n">
+        <v>79.46916666666665</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>79.36</v>
+      </c>
+      <c r="C39" t="n">
+        <v>79.36</v>
+      </c>
+      <c r="D39" t="n">
+        <v>79.36</v>
+      </c>
+      <c r="E39" t="n">
+        <v>79.36</v>
+      </c>
+      <c r="F39" t="n">
+        <v>449</v>
+      </c>
+      <c r="G39" t="n">
+        <v>79.46099999999997</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>79.36</v>
+      </c>
+      <c r="C40" t="n">
+        <v>79.36</v>
+      </c>
+      <c r="D40" t="n">
+        <v>79.36</v>
+      </c>
+      <c r="E40" t="n">
+        <v>79.36</v>
+      </c>
+      <c r="F40" t="n">
+        <v>3825.8786</v>
+      </c>
+      <c r="G40" t="n">
+        <v>79.45349999999995</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>79.36</v>
+      </c>
+      <c r="C41" t="n">
+        <v>79.36</v>
+      </c>
+      <c r="D41" t="n">
+        <v>79.36</v>
+      </c>
+      <c r="E41" t="n">
+        <v>79.36</v>
+      </c>
+      <c r="F41" t="n">
+        <v>8858.4612</v>
+      </c>
+      <c r="G41" t="n">
+        <v>79.43633333333328</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>79.36</v>
+      </c>
+      <c r="C42" t="n">
+        <v>79.36</v>
+      </c>
+      <c r="D42" t="n">
+        <v>79.36</v>
+      </c>
+      <c r="E42" t="n">
+        <v>79.36</v>
+      </c>
+      <c r="F42" t="n">
+        <v>694</v>
+      </c>
+      <c r="G42" t="n">
+        <v>79.43399999999994</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>79.48999999999999</v>
+      </c>
+      <c r="C43" t="n">
+        <v>79.48999999999999</v>
+      </c>
+      <c r="D43" t="n">
+        <v>79.48999999999999</v>
+      </c>
+      <c r="E43" t="n">
+        <v>79.48999999999999</v>
+      </c>
+      <c r="F43" t="n">
+        <v>18.7021</v>
+      </c>
+      <c r="G43" t="n">
+        <v>79.44216666666661</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>79.34999999999999</v>
+      </c>
+      <c r="C44" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="D44" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="E44" t="n">
+        <v>79.34999999999999</v>
+      </c>
+      <c r="F44" t="n">
+        <v>20004.8239</v>
+      </c>
+      <c r="G44" t="n">
+        <v>79.45749999999994</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>79.34999999999999</v>
+      </c>
+      <c r="C45" t="n">
+        <v>79.34999999999999</v>
+      </c>
+      <c r="D45" t="n">
+        <v>79.34999999999999</v>
+      </c>
+      <c r="E45" t="n">
+        <v>79.34999999999999</v>
+      </c>
+      <c r="F45" t="n">
+        <v>10776.7627</v>
+      </c>
+      <c r="G45" t="n">
+        <v>79.46849999999995</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>79.34999999999999</v>
+      </c>
+      <c r="C46" t="n">
+        <v>79.23</v>
+      </c>
+      <c r="D46" t="n">
+        <v>79.34999999999999</v>
+      </c>
+      <c r="E46" t="n">
+        <v>79.23</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1689.4097</v>
+      </c>
+      <c r="G46" t="n">
+        <v>79.47733333333328</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>79.34999999999999</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>79.3</v>
-      </c>
-      <c r="C12" t="n">
-        <v>79.93000000000001</v>
-      </c>
-      <c r="D12" t="n">
-        <v>79.93000000000001</v>
-      </c>
-      <c r="E12" t="n">
-        <v>79.3</v>
-      </c>
-      <c r="F12" t="n">
-        <v>300</v>
-      </c>
-      <c r="G12" t="n">
-        <v>79.56950000000001</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>79.18000000000001</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>79.45</v>
-      </c>
-      <c r="C13" t="n">
-        <v>79.81999999999999</v>
-      </c>
-      <c r="D13" t="n">
-        <v>79.81999999999999</v>
-      </c>
-      <c r="E13" t="n">
-        <v>79.45</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1671.6851</v>
-      </c>
-      <c r="G13" t="n">
-        <v>79.55033333333333</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>79.93000000000001</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>79.79000000000001</v>
-      </c>
-      <c r="C14" t="n">
-        <v>79.34999999999999</v>
-      </c>
-      <c r="D14" t="n">
-        <v>79.79000000000001</v>
-      </c>
-      <c r="E14" t="n">
-        <v>79.34999999999999</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1014</v>
-      </c>
-      <c r="G14" t="n">
-        <v>79.5295</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>79.79000000000001</v>
-      </c>
-      <c r="C15" t="n">
-        <v>79.86</v>
-      </c>
-      <c r="D15" t="n">
-        <v>79.86</v>
-      </c>
-      <c r="E15" t="n">
-        <v>79.79000000000001</v>
-      </c>
-      <c r="F15" t="n">
-        <v>35993</v>
-      </c>
-      <c r="G15" t="n">
-        <v>79.51083333333332</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>79.79000000000001</v>
-      </c>
-      <c r="C16" t="n">
-        <v>79.93000000000001</v>
-      </c>
-      <c r="D16" t="n">
-        <v>79.93000000000001</v>
-      </c>
-      <c r="E16" t="n">
-        <v>79.79000000000001</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1114</v>
-      </c>
-      <c r="G16" t="n">
-        <v>79.49816666666668</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>79.36</v>
-      </c>
-      <c r="C17" t="n">
-        <v>79.93000000000001</v>
-      </c>
-      <c r="D17" t="n">
-        <v>79.93000000000001</v>
-      </c>
-      <c r="E17" t="n">
-        <v>79.36</v>
-      </c>
-      <c r="F17" t="n">
-        <v>6007</v>
-      </c>
-      <c r="G17" t="n">
-        <v>79.48866666666667</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>79.95999999999999</v>
-      </c>
-      <c r="C18" t="n">
-        <v>79.95999999999999</v>
-      </c>
-      <c r="D18" t="n">
-        <v>79.95999999999999</v>
-      </c>
-      <c r="E18" t="n">
-        <v>79.95999999999999</v>
-      </c>
-      <c r="F18" t="n">
-        <v>800</v>
-      </c>
-      <c r="G18" t="n">
-        <v>79.483</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>79.97</v>
-      </c>
-      <c r="C19" t="n">
-        <v>79.97</v>
-      </c>
-      <c r="D19" t="n">
-        <v>79.97</v>
-      </c>
-      <c r="E19" t="n">
-        <v>79.97</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G19" t="n">
-        <v>79.47983333333335</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>79.97</v>
-      </c>
-      <c r="C20" t="n">
-        <v>80.73999999999999</v>
-      </c>
-      <c r="D20" t="n">
-        <v>80.73999999999999</v>
-      </c>
-      <c r="E20" t="n">
-        <v>79.97</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G20" t="n">
-        <v>79.48950000000001</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>80.94</v>
-      </c>
-      <c r="C21" t="n">
-        <v>80.94</v>
-      </c>
-      <c r="D21" t="n">
-        <v>80.94</v>
-      </c>
-      <c r="E21" t="n">
-        <v>80.94</v>
-      </c>
-      <c r="F21" t="n">
-        <v>7</v>
-      </c>
-      <c r="G21" t="n">
-        <v>79.50466666666668</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>79.5</v>
-      </c>
-      <c r="C22" t="n">
-        <v>80.94</v>
-      </c>
-      <c r="D22" t="n">
-        <v>80.94</v>
-      </c>
-      <c r="E22" t="n">
-        <v>79.5</v>
-      </c>
-      <c r="F22" t="n">
-        <v>107</v>
-      </c>
-      <c r="G22" t="n">
-        <v>79.51966666666667</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>80.91</v>
-      </c>
-      <c r="C23" t="n">
-        <v>79.7</v>
-      </c>
-      <c r="D23" t="n">
-        <v>80.91</v>
-      </c>
-      <c r="E23" t="n">
-        <v>79.7</v>
-      </c>
-      <c r="F23" t="n">
-        <v>14</v>
-      </c>
-      <c r="G23" t="n">
-        <v>79.51416666666667</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>80.90000000000001</v>
-      </c>
-      <c r="C24" t="n">
-        <v>79.52</v>
-      </c>
-      <c r="D24" t="n">
-        <v>80.90000000000001</v>
-      </c>
-      <c r="E24" t="n">
-        <v>79.52</v>
-      </c>
-      <c r="F24" t="n">
-        <v>392.2343</v>
-      </c>
-      <c r="G24" t="n">
-        <v>79.50566666666668</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>79.70999999999999</v>
-      </c>
-      <c r="C25" t="n">
-        <v>80.76000000000001</v>
-      </c>
-      <c r="D25" t="n">
-        <v>80.76000000000001</v>
-      </c>
-      <c r="E25" t="n">
-        <v>79.40000000000001</v>
-      </c>
-      <c r="F25" t="n">
-        <v>10115.1228</v>
-      </c>
-      <c r="G25" t="n">
-        <v>79.51783333333336</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>80.59</v>
-      </c>
-      <c r="C26" t="n">
-        <v>80.59</v>
-      </c>
-      <c r="D26" t="n">
-        <v>80.59</v>
-      </c>
-      <c r="E26" t="n">
-        <v>80.59</v>
-      </c>
-      <c r="F26" t="n">
-        <v>7</v>
-      </c>
-      <c r="G26" t="n">
-        <v>79.5271666666667</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>79.36</v>
-      </c>
-      <c r="C27" t="n">
-        <v>79.36</v>
-      </c>
-      <c r="D27" t="n">
-        <v>79.36</v>
-      </c>
-      <c r="E27" t="n">
-        <v>79.36</v>
-      </c>
-      <c r="F27" t="n">
-        <v>7</v>
-      </c>
-      <c r="G27" t="n">
-        <v>79.51650000000002</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>79.39</v>
-      </c>
-      <c r="C28" t="n">
-        <v>79.38</v>
-      </c>
-      <c r="D28" t="n">
-        <v>79.39</v>
-      </c>
-      <c r="E28" t="n">
-        <v>79.38</v>
-      </c>
-      <c r="F28" t="n">
-        <v>760.9999</v>
-      </c>
-      <c r="G28" t="n">
-        <v>79.50783333333337</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>79.37</v>
-      </c>
-      <c r="C29" t="n">
-        <v>79.37</v>
-      </c>
-      <c r="D29" t="n">
-        <v>79.37</v>
-      </c>
-      <c r="E29" t="n">
-        <v>79.37</v>
-      </c>
-      <c r="F29" t="n">
-        <v>512.73</v>
-      </c>
-      <c r="G29" t="n">
-        <v>79.50116666666669</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>80.38</v>
-      </c>
-      <c r="C30" t="n">
-        <v>80.38</v>
-      </c>
-      <c r="D30" t="n">
-        <v>80.38</v>
-      </c>
-      <c r="E30" t="n">
-        <v>80.38</v>
-      </c>
-      <c r="F30" t="n">
-        <v>662.109</v>
-      </c>
-      <c r="G30" t="n">
-        <v>79.51133333333335</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>80.38</v>
-      </c>
-      <c r="C31" t="n">
-        <v>80.5</v>
-      </c>
-      <c r="D31" t="n">
-        <v>80.5</v>
-      </c>
-      <c r="E31" t="n">
-        <v>80.38</v>
-      </c>
-      <c r="F31" t="n">
-        <v>344.86</v>
-      </c>
-      <c r="G31" t="n">
-        <v>79.52350000000001</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>80.38</v>
-      </c>
-      <c r="C32" t="n">
-        <v>79.5</v>
-      </c>
-      <c r="D32" t="n">
-        <v>80.38</v>
-      </c>
-      <c r="E32" t="n">
-        <v>79.5</v>
-      </c>
-      <c r="F32" t="n">
-        <v>7</v>
-      </c>
-      <c r="G32" t="n">
-        <v>79.51050000000002</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="C33" t="n">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="D33" t="n">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="E33" t="n">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="F33" t="n">
-        <v>7</v>
-      </c>
-      <c r="G33" t="n">
-        <v>79.51700000000001</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>79.5</v>
-      </c>
-      <c r="C34" t="n">
-        <v>79.40000000000001</v>
-      </c>
-      <c r="D34" t="n">
-        <v>79.5</v>
-      </c>
-      <c r="E34" t="n">
-        <v>79.40000000000001</v>
-      </c>
-      <c r="F34" t="n">
-        <v>10340.0647</v>
-      </c>
-      <c r="G34" t="n">
-        <v>79.50216666666667</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>79.40000000000001</v>
-      </c>
-      <c r="C35" t="n">
-        <v>79.40000000000001</v>
-      </c>
-      <c r="D35" t="n">
-        <v>79.40000000000001</v>
-      </c>
-      <c r="E35" t="n">
-        <v>79.40000000000001</v>
-      </c>
-      <c r="F35" t="n">
-        <v>1045.6554</v>
-      </c>
-      <c r="G35" t="n">
-        <v>79.48566666666666</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>79.36</v>
-      </c>
-      <c r="C36" t="n">
-        <v>79.36</v>
-      </c>
-      <c r="D36" t="n">
-        <v>79.36</v>
-      </c>
-      <c r="E36" t="n">
-        <v>79.36</v>
-      </c>
-      <c r="F36" t="n">
-        <v>4480.3879</v>
-      </c>
-      <c r="G36" t="n">
-        <v>79.47499999999998</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>79.5</v>
-      </c>
-      <c r="C37" t="n">
-        <v>79.5</v>
-      </c>
-      <c r="D37" t="n">
-        <v>79.5</v>
-      </c>
-      <c r="E37" t="n">
-        <v>79.5</v>
-      </c>
-      <c r="F37" t="n">
-        <v>5176.6011</v>
-      </c>
-      <c r="G37" t="n">
-        <v>79.46916666666665</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>79.36</v>
-      </c>
-      <c r="C38" t="n">
-        <v>79.36</v>
-      </c>
-      <c r="D38" t="n">
-        <v>79.36</v>
-      </c>
-      <c r="E38" t="n">
-        <v>79.36</v>
-      </c>
-      <c r="F38" t="n">
-        <v>449</v>
-      </c>
-      <c r="G38" t="n">
-        <v>79.46099999999997</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>79.36</v>
-      </c>
-      <c r="C39" t="n">
-        <v>79.36</v>
-      </c>
-      <c r="D39" t="n">
-        <v>79.36</v>
-      </c>
-      <c r="E39" t="n">
-        <v>79.36</v>
-      </c>
-      <c r="F39" t="n">
-        <v>3825.8786</v>
-      </c>
-      <c r="G39" t="n">
-        <v>79.45349999999995</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>79.36</v>
-      </c>
-      <c r="C40" t="n">
-        <v>79.36</v>
-      </c>
-      <c r="D40" t="n">
-        <v>79.36</v>
-      </c>
-      <c r="E40" t="n">
-        <v>79.36</v>
-      </c>
-      <c r="F40" t="n">
-        <v>8858.4612</v>
-      </c>
-      <c r="G40" t="n">
-        <v>79.43633333333328</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>79.36</v>
-      </c>
-      <c r="C41" t="n">
-        <v>79.36</v>
-      </c>
-      <c r="D41" t="n">
-        <v>79.36</v>
-      </c>
-      <c r="E41" t="n">
-        <v>79.36</v>
-      </c>
-      <c r="F41" t="n">
-        <v>694</v>
-      </c>
-      <c r="G41" t="n">
-        <v>79.43399999999994</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>79.48999999999999</v>
-      </c>
-      <c r="C42" t="n">
-        <v>79.48999999999999</v>
-      </c>
-      <c r="D42" t="n">
-        <v>79.48999999999999</v>
-      </c>
-      <c r="E42" t="n">
-        <v>79.48999999999999</v>
-      </c>
-      <c r="F42" t="n">
-        <v>18.7021</v>
-      </c>
-      <c r="G42" t="n">
-        <v>79.44216666666661</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>79.34999999999999</v>
-      </c>
-      <c r="C43" t="n">
-        <v>79.5</v>
-      </c>
-      <c r="D43" t="n">
-        <v>79.5</v>
-      </c>
-      <c r="E43" t="n">
-        <v>79.34999999999999</v>
-      </c>
-      <c r="F43" t="n">
-        <v>20004.8239</v>
-      </c>
-      <c r="G43" t="n">
-        <v>79.45749999999994</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>79.34999999999999</v>
-      </c>
-      <c r="C44" t="n">
-        <v>79.34999999999999</v>
-      </c>
-      <c r="D44" t="n">
-        <v>79.34999999999999</v>
-      </c>
-      <c r="E44" t="n">
-        <v>79.34999999999999</v>
-      </c>
-      <c r="F44" t="n">
-        <v>10776.7627</v>
-      </c>
-      <c r="G44" t="n">
-        <v>79.46849999999995</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>79.34999999999999</v>
-      </c>
-      <c r="C45" t="n">
-        <v>79.23</v>
-      </c>
-      <c r="D45" t="n">
-        <v>79.34999999999999</v>
-      </c>
-      <c r="E45" t="n">
-        <v>79.23</v>
-      </c>
-      <c r="F45" t="n">
-        <v>1689.4097</v>
-      </c>
-      <c r="G45" t="n">
-        <v>79.47733333333328</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>79.23</v>
-      </c>
-      <c r="C46" t="n">
-        <v>79.23</v>
-      </c>
-      <c r="D46" t="n">
-        <v>79.23</v>
-      </c>
-      <c r="E46" t="n">
-        <v>79.23</v>
-      </c>
-      <c r="F46" t="n">
-        <v>1201.8754</v>
-      </c>
-      <c r="G46" t="n">
-        <v>79.49283333333327</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2158,30 +2014,32 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>80.18000000000001</v>
+        <v>79.23</v>
       </c>
       <c r="C47" t="n">
-        <v>80.18000000000001</v>
+        <v>79.23</v>
       </c>
       <c r="D47" t="n">
-        <v>80.18000000000001</v>
+        <v>79.23</v>
       </c>
       <c r="E47" t="n">
-        <v>80.18000000000001</v>
+        <v>79.23</v>
       </c>
       <c r="F47" t="n">
-        <v>6.24</v>
+        <v>1201.8754</v>
       </c>
       <c r="G47" t="n">
-        <v>79.51416666666661</v>
+        <v>79.49283333333327</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>79.23</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
@@ -2197,22 +2055,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>80.19</v>
+        <v>80.18000000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>79.15000000000001</v>
+        <v>80.18000000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>80.19</v>
+        <v>80.18000000000001</v>
       </c>
       <c r="E48" t="n">
-        <v>79.15000000000001</v>
+        <v>80.18000000000001</v>
       </c>
       <c r="F48" t="n">
-        <v>60476.2845</v>
+        <v>6.24</v>
       </c>
       <c r="G48" t="n">
-        <v>79.5156666666666</v>
+        <v>79.51416666666661</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2236,22 +2094,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>79.15000000000001</v>
+        <v>80.19</v>
       </c>
       <c r="C49" t="n">
         <v>79.15000000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>79.15000000000001</v>
+        <v>80.19</v>
       </c>
       <c r="E49" t="n">
         <v>79.15000000000001</v>
       </c>
       <c r="F49" t="n">
-        <v>3805.1992</v>
+        <v>60476.2845</v>
       </c>
       <c r="G49" t="n">
-        <v>79.51716666666658</v>
+        <v>79.5156666666666</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2275,22 +2133,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>79.40000000000001</v>
+        <v>79.15000000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>79.40000000000001</v>
+        <v>79.15000000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>79.40000000000001</v>
+        <v>79.15000000000001</v>
       </c>
       <c r="E50" t="n">
-        <v>79.40000000000001</v>
+        <v>79.15000000000001</v>
       </c>
       <c r="F50" t="n">
-        <v>184.6385</v>
+        <v>3805.1992</v>
       </c>
       <c r="G50" t="n">
-        <v>79.52383333333324</v>
+        <v>79.51716666666658</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2314,22 +2172,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>79.54000000000001</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>79.3</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>79.54000000000001</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="E51" t="n">
-        <v>79.3</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="F51" t="n">
-        <v>44</v>
+        <v>184.6385</v>
       </c>
       <c r="G51" t="n">
-        <v>79.53383333333325</v>
+        <v>79.52383333333324</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2353,22 +2211,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>79.3</v>
+        <v>79.54000000000001</v>
       </c>
       <c r="C52" t="n">
         <v>79.3</v>
       </c>
       <c r="D52" t="n">
-        <v>79.3</v>
+        <v>79.54000000000001</v>
       </c>
       <c r="E52" t="n">
         <v>79.3</v>
       </c>
       <c r="F52" t="n">
-        <v>163.8671</v>
+        <v>44</v>
       </c>
       <c r="G52" t="n">
-        <v>79.54349999999992</v>
+        <v>79.53383333333325</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2392,22 +2250,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>79.5</v>
+        <v>79.3</v>
       </c>
       <c r="C53" t="n">
-        <v>79.16</v>
+        <v>79.3</v>
       </c>
       <c r="D53" t="n">
-        <v>79.5</v>
+        <v>79.3</v>
       </c>
       <c r="E53" t="n">
-        <v>79.16</v>
+        <v>79.3</v>
       </c>
       <c r="F53" t="n">
-        <v>34</v>
+        <v>163.8671</v>
       </c>
       <c r="G53" t="n">
-        <v>79.54783333333326</v>
+        <v>79.54349999999992</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2434,7 +2292,7 @@
         <v>79.5</v>
       </c>
       <c r="C54" t="n">
-        <v>79.5</v>
+        <v>79.16</v>
       </c>
       <c r="D54" t="n">
         <v>79.5</v>
@@ -2443,7 +2301,7 @@
         <v>79.16</v>
       </c>
       <c r="F54" t="n">
-        <v>181.8671</v>
+        <v>34</v>
       </c>
       <c r="G54" t="n">
         <v>79.54783333333326</v>
@@ -2470,22 +2328,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>79.65000000000001</v>
+        <v>79.5</v>
       </c>
       <c r="C55" t="n">
-        <v>79.17</v>
+        <v>79.5</v>
       </c>
       <c r="D55" t="n">
-        <v>79.65000000000001</v>
+        <v>79.5</v>
       </c>
       <c r="E55" t="n">
-        <v>79.17</v>
+        <v>79.16</v>
       </c>
       <c r="F55" t="n">
-        <v>14</v>
+        <v>181.8671</v>
       </c>
       <c r="G55" t="n">
-        <v>79.54233333333326</v>
+        <v>79.54783333333326</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2509,22 +2367,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>79.41</v>
+        <v>79.65000000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>79.40000000000001</v>
+        <v>79.17</v>
       </c>
       <c r="D56" t="n">
-        <v>79.41</v>
+        <v>79.65000000000001</v>
       </c>
       <c r="E56" t="n">
-        <v>79.40000000000001</v>
+        <v>79.17</v>
       </c>
       <c r="F56" t="n">
-        <v>58.7397</v>
+        <v>14</v>
       </c>
       <c r="G56" t="n">
-        <v>79.53983333333325</v>
+        <v>79.54233333333326</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2548,22 +2406,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>79.40000000000001</v>
+        <v>79.41</v>
       </c>
       <c r="C57" t="n">
         <v>79.40000000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>79.40000000000001</v>
+        <v>79.41</v>
       </c>
       <c r="E57" t="n">
         <v>79.40000000000001</v>
       </c>
       <c r="F57" t="n">
-        <v>10000</v>
+        <v>58.7397</v>
       </c>
       <c r="G57" t="n">
-        <v>79.54649999999991</v>
+        <v>79.53983333333325</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2599,10 +2457,10 @@
         <v>79.40000000000001</v>
       </c>
       <c r="F58" t="n">
-        <v>1860.4209</v>
+        <v>10000</v>
       </c>
       <c r="G58" t="n">
-        <v>79.55266666666657</v>
+        <v>79.54649999999991</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2626,22 +2484,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>79.5</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>79.5</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>79.5</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="E59" t="n">
-        <v>79.5</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="F59" t="n">
-        <v>3479.0437</v>
+        <v>1860.4209</v>
       </c>
       <c r="G59" t="n">
-        <v>79.54983333333324</v>
+        <v>79.55266666666657</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2677,10 +2535,10 @@
         <v>79.5</v>
       </c>
       <c r="F60" t="n">
-        <v>2944.9593</v>
+        <v>3479.0437</v>
       </c>
       <c r="G60" t="n">
-        <v>79.54999999999991</v>
+        <v>79.54983333333324</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2716,10 +2574,10 @@
         <v>79.5</v>
       </c>
       <c r="F61" t="n">
-        <v>10</v>
+        <v>2944.9593</v>
       </c>
       <c r="G61" t="n">
-        <v>79.55833333333324</v>
+        <v>79.54999999999991</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2743,22 +2601,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>79.45</v>
+        <v>79.5</v>
       </c>
       <c r="C62" t="n">
-        <v>79.45</v>
+        <v>79.5</v>
       </c>
       <c r="D62" t="n">
-        <v>79.45</v>
+        <v>79.5</v>
       </c>
       <c r="E62" t="n">
-        <v>79.40000000000001</v>
+        <v>79.5</v>
       </c>
       <c r="F62" t="n">
-        <v>4015</v>
+        <v>10</v>
       </c>
       <c r="G62" t="n">
-        <v>79.56583333333325</v>
+        <v>79.55833333333324</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2782,7 +2640,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>79.40000000000001</v>
+        <v>79.45</v>
       </c>
       <c r="C63" t="n">
         <v>79.45</v>
@@ -2794,10 +2652,10 @@
         <v>79.40000000000001</v>
       </c>
       <c r="F63" t="n">
-        <v>3629.0246</v>
+        <v>4015</v>
       </c>
       <c r="G63" t="n">
-        <v>79.57333333333324</v>
+        <v>79.56583333333325</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2821,22 +2679,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>79.3</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>79.3</v>
+        <v>79.45</v>
       </c>
       <c r="D64" t="n">
-        <v>79.3</v>
+        <v>79.45</v>
       </c>
       <c r="E64" t="n">
-        <v>79.3</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="F64" t="n">
-        <v>1658.8108</v>
+        <v>3629.0246</v>
       </c>
       <c r="G64" t="n">
-        <v>79.57833333333323</v>
+        <v>79.57333333333324</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2860,22 +2718,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>79.34999999999999</v>
+        <v>79.3</v>
       </c>
       <c r="C65" t="n">
-        <v>79.17</v>
+        <v>79.3</v>
       </c>
       <c r="D65" t="n">
-        <v>79.34999999999999</v>
+        <v>79.3</v>
       </c>
       <c r="E65" t="n">
-        <v>79.17</v>
+        <v>79.3</v>
       </c>
       <c r="F65" t="n">
-        <v>17</v>
+        <v>1658.8108</v>
       </c>
       <c r="G65" t="n">
-        <v>79.58116666666658</v>
+        <v>79.57833333333323</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2899,22 +2757,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>79.17</v>
+        <v>79.34999999999999</v>
       </c>
       <c r="C66" t="n">
         <v>79.17</v>
       </c>
       <c r="D66" t="n">
-        <v>79.17</v>
+        <v>79.34999999999999</v>
       </c>
       <c r="E66" t="n">
         <v>79.17</v>
       </c>
       <c r="F66" t="n">
-        <v>11775.9999</v>
+        <v>17</v>
       </c>
       <c r="G66" t="n">
-        <v>79.58733333333323</v>
+        <v>79.58116666666658</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2938,22 +2796,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>79.18000000000001</v>
+        <v>79.17</v>
       </c>
       <c r="C67" t="n">
-        <v>79.18000000000001</v>
+        <v>79.17</v>
       </c>
       <c r="D67" t="n">
-        <v>79.18000000000001</v>
+        <v>79.17</v>
       </c>
       <c r="E67" t="n">
-        <v>79.18000000000001</v>
+        <v>79.17</v>
       </c>
       <c r="F67" t="n">
-        <v>11164.944</v>
+        <v>11775.9999</v>
       </c>
       <c r="G67" t="n">
-        <v>79.59366666666658</v>
+        <v>79.58733333333323</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2977,22 +2835,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>79.37</v>
+        <v>79.18000000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>79.37</v>
+        <v>79.18000000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>79.37</v>
+        <v>79.18000000000001</v>
       </c>
       <c r="E68" t="n">
-        <v>79.37</v>
+        <v>79.18000000000001</v>
       </c>
       <c r="F68" t="n">
-        <v>10091.646</v>
+        <v>11164.944</v>
       </c>
       <c r="G68" t="n">
-        <v>79.60016666666658</v>
+        <v>79.59366666666658</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3028,10 +2886,10 @@
         <v>79.37</v>
       </c>
       <c r="F69" t="n">
-        <v>402.4</v>
+        <v>10091.646</v>
       </c>
       <c r="G69" t="n">
-        <v>79.60633333333324</v>
+        <v>79.60016666666658</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3055,22 +2913,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>79.5</v>
+        <v>79.37</v>
       </c>
       <c r="C70" t="n">
-        <v>79.5</v>
+        <v>79.37</v>
       </c>
       <c r="D70" t="n">
-        <v>79.5</v>
+        <v>79.37</v>
       </c>
       <c r="E70" t="n">
-        <v>79.5</v>
+        <v>79.37</v>
       </c>
       <c r="F70" t="n">
-        <v>2331.9492</v>
+        <v>402.4</v>
       </c>
       <c r="G70" t="n">
-        <v>79.61466666666658</v>
+        <v>79.60633333333324</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3106,10 +2964,10 @@
         <v>79.5</v>
       </c>
       <c r="F71" t="n">
-        <v>4334.3002</v>
+        <v>2331.9492</v>
       </c>
       <c r="G71" t="n">
-        <v>79.61999999999991</v>
+        <v>79.61466666666658</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3133,22 +2991,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>79.37</v>
+        <v>79.5</v>
       </c>
       <c r="C72" t="n">
-        <v>79.37</v>
+        <v>79.5</v>
       </c>
       <c r="D72" t="n">
-        <v>79.37</v>
+        <v>79.5</v>
       </c>
       <c r="E72" t="n">
-        <v>79.37</v>
+        <v>79.5</v>
       </c>
       <c r="F72" t="n">
-        <v>807.6264</v>
+        <v>4334.3002</v>
       </c>
       <c r="G72" t="n">
-        <v>79.61066666666656</v>
+        <v>79.61999999999991</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3172,22 +3030,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>79.5</v>
+        <v>79.37</v>
       </c>
       <c r="C73" t="n">
-        <v>79.5</v>
+        <v>79.37</v>
       </c>
       <c r="D73" t="n">
-        <v>79.5</v>
+        <v>79.37</v>
       </c>
       <c r="E73" t="n">
-        <v>79.5</v>
+        <v>79.37</v>
       </c>
       <c r="F73" t="n">
-        <v>3588.9766</v>
+        <v>807.6264</v>
       </c>
       <c r="G73" t="n">
-        <v>79.60533333333323</v>
+        <v>79.61066666666656</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3223,10 +3081,10 @@
         <v>79.5</v>
       </c>
       <c r="F74" t="n">
-        <v>31835.7217</v>
+        <v>3588.9766</v>
       </c>
       <c r="G74" t="n">
-        <v>79.60783333333323</v>
+        <v>79.60533333333323</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3250,22 +3108,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>79.59999999999999</v>
+        <v>79.5</v>
       </c>
       <c r="C75" t="n">
-        <v>79.59999999999999</v>
+        <v>79.5</v>
       </c>
       <c r="D75" t="n">
-        <v>79.59999999999999</v>
+        <v>79.5</v>
       </c>
       <c r="E75" t="n">
-        <v>79.59999999999999</v>
+        <v>79.5</v>
       </c>
       <c r="F75" t="n">
-        <v>187.8129</v>
+        <v>31835.7217</v>
       </c>
       <c r="G75" t="n">
-        <v>79.60349999999991</v>
+        <v>79.60783333333323</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3289,22 +3147,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>79.5</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>79.5</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>79.5</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="E76" t="n">
-        <v>79.5</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="F76" t="n">
-        <v>4000</v>
+        <v>187.8129</v>
       </c>
       <c r="G76" t="n">
-        <v>79.59633333333323</v>
+        <v>79.60349999999991</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3328,22 +3186,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>79.40000000000001</v>
+        <v>79.5</v>
       </c>
       <c r="C77" t="n">
-        <v>79.40000000000001</v>
+        <v>79.5</v>
       </c>
       <c r="D77" t="n">
-        <v>79.40000000000001</v>
+        <v>79.5</v>
       </c>
       <c r="E77" t="n">
-        <v>79.40000000000001</v>
+        <v>79.5</v>
       </c>
       <c r="F77" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G77" t="n">
-        <v>79.58749999999989</v>
+        <v>79.59633333333323</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3367,22 +3225,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>80.09999999999999</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>80.09999999999999</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>80.09999999999999</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="E78" t="n">
-        <v>80.09999999999999</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="F78" t="n">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="G78" t="n">
-        <v>79.58983333333323</v>
+        <v>79.58749999999989</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3409,19 +3267,19 @@
         <v>80.09999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>80.18000000000001</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>80.18000000000001</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="E79" t="n">
-        <v>79.5</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="F79" t="n">
-        <v>6270.52</v>
+        <v>100</v>
       </c>
       <c r="G79" t="n">
-        <v>79.59333333333323</v>
+        <v>79.58983333333323</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3445,22 +3303,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>80.19</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>80.19</v>
+        <v>80.18000000000001</v>
       </c>
       <c r="D80" t="n">
-        <v>80.19</v>
+        <v>80.18000000000001</v>
       </c>
       <c r="E80" t="n">
-        <v>80.19</v>
+        <v>79.5</v>
       </c>
       <c r="F80" t="n">
-        <v>5500</v>
+        <v>6270.52</v>
       </c>
       <c r="G80" t="n">
-        <v>79.58416666666656</v>
+        <v>79.59333333333323</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3496,10 +3354,10 @@
         <v>80.19</v>
       </c>
       <c r="F81" t="n">
-        <v>12138.9184</v>
+        <v>5500</v>
       </c>
       <c r="G81" t="n">
-        <v>79.57166666666656</v>
+        <v>79.58416666666656</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3535,10 +3393,10 @@
         <v>80.19</v>
       </c>
       <c r="F82" t="n">
-        <v>3167.5086</v>
+        <v>12138.9184</v>
       </c>
       <c r="G82" t="n">
-        <v>79.55916666666657</v>
+        <v>79.57166666666656</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3565,34 +3423,36 @@
         <v>80.19</v>
       </c>
       <c r="C83" t="n">
-        <v>80.2</v>
+        <v>80.19</v>
       </c>
       <c r="D83" t="n">
-        <v>80.2</v>
+        <v>80.19</v>
       </c>
       <c r="E83" t="n">
         <v>80.19</v>
       </c>
       <c r="F83" t="n">
-        <v>1031.95</v>
+        <v>3167.5086</v>
       </c>
       <c r="G83" t="n">
-        <v>79.5674999999999</v>
+        <v>79.55916666666657</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3602,19 +3462,19 @@
         <v>80.19</v>
       </c>
       <c r="C84" t="n">
-        <v>80.19</v>
+        <v>80.2</v>
       </c>
       <c r="D84" t="n">
-        <v>80.19</v>
+        <v>80.2</v>
       </c>
       <c r="E84" t="n">
         <v>80.19</v>
       </c>
       <c r="F84" t="n">
-        <v>0.5414</v>
+        <v>1031.95</v>
       </c>
       <c r="G84" t="n">
-        <v>79.57866666666655</v>
+        <v>79.5674999999999</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3624,7 +3484,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3634,22 +3498,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>80.2</v>
+        <v>80.19</v>
       </c>
       <c r="C85" t="n">
-        <v>80.2</v>
+        <v>80.19</v>
       </c>
       <c r="D85" t="n">
-        <v>80.2</v>
+        <v>80.19</v>
       </c>
       <c r="E85" t="n">
-        <v>80.2</v>
+        <v>80.19</v>
       </c>
       <c r="F85" t="n">
-        <v>74677.8181</v>
+        <v>0.5414</v>
       </c>
       <c r="G85" t="n">
-        <v>79.5693333333332</v>
+        <v>79.57866666666655</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3659,7 +3523,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3669,22 +3537,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>80.7</v>
+        <v>80.2</v>
       </c>
       <c r="C86" t="n">
-        <v>80.7</v>
+        <v>80.2</v>
       </c>
       <c r="D86" t="n">
-        <v>80.7</v>
+        <v>80.2</v>
       </c>
       <c r="E86" t="n">
-        <v>80.7</v>
+        <v>80.2</v>
       </c>
       <c r="F86" t="n">
-        <v>100</v>
+        <v>74677.8181</v>
       </c>
       <c r="G86" t="n">
-        <v>79.57116666666654</v>
+        <v>79.5693333333332</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3694,7 +3562,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3704,22 +3576,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>79.70999999999999</v>
+        <v>80.7</v>
       </c>
       <c r="C87" t="n">
-        <v>79.70999999999999</v>
+        <v>80.7</v>
       </c>
       <c r="D87" t="n">
-        <v>79.70999999999999</v>
+        <v>80.7</v>
       </c>
       <c r="E87" t="n">
-        <v>79.70999999999999</v>
+        <v>80.7</v>
       </c>
       <c r="F87" t="n">
-        <v>173.3899</v>
+        <v>100</v>
       </c>
       <c r="G87" t="n">
-        <v>79.57699999999987</v>
+        <v>79.57116666666654</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3729,7 +3601,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3739,32 +3615,36 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>79.59999999999999</v>
+        <v>79.70999999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>79.59999999999999</v>
+        <v>79.70999999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>79.59999999999999</v>
+        <v>79.70999999999999</v>
       </c>
       <c r="E88" t="n">
-        <v>79.59999999999999</v>
+        <v>79.70999999999999</v>
       </c>
       <c r="F88" t="n">
-        <v>71.747</v>
+        <v>173.3899</v>
       </c>
       <c r="G88" t="n">
-        <v>79.58066666666654</v>
+        <v>79.57699999999987</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3774,22 +3654,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>79.70999999999999</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="C89" t="n">
-        <v>80.7</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>80.7</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="E89" t="n">
-        <v>79.70999999999999</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="F89" t="n">
-        <v>11589.9855</v>
+        <v>71.747</v>
       </c>
       <c r="G89" t="n">
-        <v>79.60283333333321</v>
+        <v>79.58066666666654</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3799,7 +3679,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3809,35 +3693,37 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>80.56999999999999</v>
+        <v>79.70999999999999</v>
       </c>
       <c r="C90" t="n">
-        <v>80.56999999999999</v>
+        <v>80.7</v>
       </c>
       <c r="D90" t="n">
-        <v>80.56999999999999</v>
+        <v>80.7</v>
       </c>
       <c r="E90" t="n">
-        <v>80.56999999999999</v>
+        <v>79.70999999999999</v>
       </c>
       <c r="F90" t="n">
-        <v>1861.1765</v>
+        <v>11589.9855</v>
       </c>
       <c r="G90" t="n">
-        <v>79.60599999999987</v>
+        <v>79.60283333333321</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3847,19 +3733,19 @@
         <v>80.56999999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>79.75</v>
+        <v>80.56999999999999</v>
       </c>
       <c r="D91" t="n">
         <v>80.56999999999999</v>
       </c>
       <c r="E91" t="n">
-        <v>79.75</v>
+        <v>80.56999999999999</v>
       </c>
       <c r="F91" t="n">
-        <v>3897.385712833561</v>
+        <v>1861.1765</v>
       </c>
       <c r="G91" t="n">
-        <v>79.59349999999988</v>
+        <v>79.60599999999987</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3882,19 +3768,19 @@
         <v>80.56999999999999</v>
       </c>
       <c r="C92" t="n">
-        <v>80.56999999999999</v>
+        <v>79.75</v>
       </c>
       <c r="D92" t="n">
         <v>80.56999999999999</v>
       </c>
       <c r="E92" t="n">
-        <v>80.56999999999999</v>
+        <v>79.75</v>
       </c>
       <c r="F92" t="n">
-        <v>100</v>
+        <v>3897.385712833561</v>
       </c>
       <c r="G92" t="n">
-        <v>79.61133333333321</v>
+        <v>79.59349999999988</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3926,10 +3812,10 @@
         <v>80.56999999999999</v>
       </c>
       <c r="F93" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G93" t="n">
-        <v>79.61416666666653</v>
+        <v>79.61133333333321</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3949,22 +3835,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>79.75</v>
+        <v>80.56999999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>79.75</v>
+        <v>80.56999999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>79.75</v>
+        <v>80.56999999999999</v>
       </c>
       <c r="E94" t="n">
-        <v>79.75</v>
+        <v>80.56999999999999</v>
       </c>
       <c r="F94" t="n">
-        <v>1973.6581</v>
+        <v>50</v>
       </c>
       <c r="G94" t="n">
-        <v>79.61999999999988</v>
+        <v>79.61416666666653</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3984,22 +3870,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>79.7</v>
+        <v>79.75</v>
       </c>
       <c r="C95" t="n">
-        <v>79.7</v>
+        <v>79.75</v>
       </c>
       <c r="D95" t="n">
-        <v>79.7</v>
+        <v>79.75</v>
       </c>
       <c r="E95" t="n">
-        <v>79.7</v>
+        <v>79.75</v>
       </c>
       <c r="F95" t="n">
-        <v>68.2274</v>
+        <v>1973.6581</v>
       </c>
       <c r="G95" t="n">
-        <v>79.62499999999987</v>
+        <v>79.61999999999988</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4019,22 +3905,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>79.91</v>
+        <v>79.7</v>
       </c>
       <c r="C96" t="n">
-        <v>79.91</v>
+        <v>79.7</v>
       </c>
       <c r="D96" t="n">
-        <v>79.91</v>
+        <v>79.7</v>
       </c>
       <c r="E96" t="n">
-        <v>79.91</v>
+        <v>79.7</v>
       </c>
       <c r="F96" t="n">
-        <v>8621.6659</v>
+        <v>68.2274</v>
       </c>
       <c r="G96" t="n">
-        <v>79.63416666666654</v>
+        <v>79.62499999999987</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4054,22 +3940,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>79.90000000000001</v>
+        <v>79.91</v>
       </c>
       <c r="C97" t="n">
-        <v>79.90000000000001</v>
+        <v>79.91</v>
       </c>
       <c r="D97" t="n">
-        <v>79.90000000000001</v>
+        <v>79.91</v>
       </c>
       <c r="E97" t="n">
-        <v>79.90000000000001</v>
+        <v>79.91</v>
       </c>
       <c r="F97" t="n">
-        <v>138.7474</v>
+        <v>8621.6659</v>
       </c>
       <c r="G97" t="n">
-        <v>79.64083333333321</v>
+        <v>79.63416666666654</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4089,22 +3975,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>80</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>80</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>80</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="E98" t="n">
         <v>79.90000000000001</v>
       </c>
       <c r="F98" t="n">
-        <v>13647.4989</v>
+        <v>138.7474</v>
       </c>
       <c r="G98" t="n">
-        <v>79.65149999999988</v>
+        <v>79.64083333333321</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4124,22 +4010,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>80.3</v>
+        <v>80</v>
       </c>
       <c r="C99" t="n">
-        <v>80.3</v>
+        <v>80</v>
       </c>
       <c r="D99" t="n">
-        <v>80.3</v>
+        <v>80</v>
       </c>
       <c r="E99" t="n">
-        <v>80.3</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="F99" t="n">
-        <v>9002.7317</v>
+        <v>13647.4989</v>
       </c>
       <c r="G99" t="n">
-        <v>79.66716666666656</v>
+        <v>79.65149999999988</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4159,22 +4045,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>80.09999999999999</v>
+        <v>80.3</v>
       </c>
       <c r="C100" t="n">
-        <v>80.01000000000001</v>
+        <v>80.3</v>
       </c>
       <c r="D100" t="n">
-        <v>80.09999999999999</v>
+        <v>80.3</v>
       </c>
       <c r="E100" t="n">
-        <v>80.01000000000001</v>
+        <v>80.3</v>
       </c>
       <c r="F100" t="n">
-        <v>6416.2495</v>
+        <v>9002.7317</v>
       </c>
       <c r="G100" t="n">
-        <v>79.6779999999999</v>
+        <v>79.66716666666656</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4206,10 +4092,10 @@
         <v>80.01000000000001</v>
       </c>
       <c r="F101" t="n">
-        <v>7889.0567</v>
+        <v>6416.2495</v>
       </c>
       <c r="G101" t="n">
-        <v>79.68883333333324</v>
+        <v>79.6779999999999</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4229,22 +4115,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>80.01000000000001</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="C102" t="n">
         <v>80.01000000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>80.01000000000001</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="E102" t="n">
         <v>80.01000000000001</v>
       </c>
       <c r="F102" t="n">
-        <v>559</v>
+        <v>7889.0567</v>
       </c>
       <c r="G102" t="n">
-        <v>79.69749999999992</v>
+        <v>79.68883333333324</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4276,10 +4162,10 @@
         <v>80.01000000000001</v>
       </c>
       <c r="F103" t="n">
-        <v>13641.4041</v>
+        <v>559</v>
       </c>
       <c r="G103" t="n">
-        <v>79.70599999999992</v>
+        <v>79.69749999999992</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4311,10 +4197,10 @@
         <v>80.01000000000001</v>
       </c>
       <c r="F104" t="n">
-        <v>449.9999</v>
+        <v>13641.4041</v>
       </c>
       <c r="G104" t="n">
-        <v>79.71699999999991</v>
+        <v>79.70599999999992</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4337,19 +4223,19 @@
         <v>80.01000000000001</v>
       </c>
       <c r="C105" t="n">
-        <v>80</v>
+        <v>80.01000000000001</v>
       </c>
       <c r="D105" t="n">
         <v>80.01000000000001</v>
       </c>
       <c r="E105" t="n">
-        <v>80</v>
+        <v>80.01000000000001</v>
       </c>
       <c r="F105" t="n">
-        <v>5172</v>
+        <v>449.9999</v>
       </c>
       <c r="G105" t="n">
-        <v>79.72983333333326</v>
+        <v>79.71699999999991</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4369,22 +4255,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>80.39</v>
+        <v>80.01000000000001</v>
       </c>
       <c r="C106" t="n">
         <v>80</v>
       </c>
       <c r="D106" t="n">
-        <v>80.40000000000001</v>
+        <v>80.01000000000001</v>
       </c>
       <c r="E106" t="n">
         <v>80</v>
       </c>
       <c r="F106" t="n">
-        <v>7736.4581</v>
+        <v>5172</v>
       </c>
       <c r="G106" t="n">
-        <v>79.74266666666659</v>
+        <v>79.72983333333326</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4404,22 +4290,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>80</v>
+        <v>80.39</v>
       </c>
       <c r="C107" t="n">
         <v>80</v>
       </c>
       <c r="D107" t="n">
-        <v>80</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="E107" t="n">
         <v>80</v>
       </c>
       <c r="F107" t="n">
-        <v>161.1233</v>
+        <v>7736.4581</v>
       </c>
       <c r="G107" t="n">
-        <v>79.73966666666659</v>
+        <v>79.74266666666659</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4442,19 +4328,19 @@
         <v>80</v>
       </c>
       <c r="C108" t="n">
-        <v>80.69</v>
+        <v>80</v>
       </c>
       <c r="D108" t="n">
-        <v>80.7</v>
+        <v>80</v>
       </c>
       <c r="E108" t="n">
         <v>80</v>
       </c>
       <c r="F108" t="n">
-        <v>3138.8767</v>
+        <v>161.1233</v>
       </c>
       <c r="G108" t="n">
-        <v>79.76533333333326</v>
+        <v>79.73966666666659</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4474,22 +4360,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>80.69</v>
+        <v>80</v>
       </c>
       <c r="C109" t="n">
         <v>80.69</v>
       </c>
       <c r="D109" t="n">
-        <v>80.69</v>
+        <v>80.7</v>
       </c>
       <c r="E109" t="n">
-        <v>80.69</v>
+        <v>80</v>
       </c>
       <c r="F109" t="n">
-        <v>3700</v>
+        <v>3138.8767</v>
       </c>
       <c r="G109" t="n">
-        <v>79.79099999999993</v>
+        <v>79.76533333333326</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4521,10 +4407,10 @@
         <v>80.69</v>
       </c>
       <c r="F110" t="n">
-        <v>4000</v>
+        <v>3700</v>
       </c>
       <c r="G110" t="n">
-        <v>79.81249999999993</v>
+        <v>79.79099999999993</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4556,10 +4442,10 @@
         <v>80.69</v>
       </c>
       <c r="F111" t="n">
-        <v>10352.8741</v>
+        <v>4000</v>
       </c>
       <c r="G111" t="n">
-        <v>79.83566666666658</v>
+        <v>79.81249999999993</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4579,22 +4465,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>80.7</v>
+        <v>80.69</v>
       </c>
       <c r="C112" t="n">
-        <v>80.7</v>
+        <v>80.69</v>
       </c>
       <c r="D112" t="n">
-        <v>80.7</v>
+        <v>80.69</v>
       </c>
       <c r="E112" t="n">
-        <v>80.7</v>
+        <v>80.69</v>
       </c>
       <c r="F112" t="n">
-        <v>711.9525</v>
+        <v>10352.8741</v>
       </c>
       <c r="G112" t="n">
-        <v>79.85899999999991</v>
+        <v>79.83566666666658</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4614,22 +4500,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>80.69</v>
+        <v>80.7</v>
       </c>
       <c r="C113" t="n">
-        <v>80.69</v>
+        <v>80.7</v>
       </c>
       <c r="D113" t="n">
-        <v>80.69</v>
+        <v>80.7</v>
       </c>
       <c r="E113" t="n">
-        <v>80.69</v>
+        <v>80.7</v>
       </c>
       <c r="F113" t="n">
-        <v>133.8</v>
+        <v>711.9525</v>
       </c>
       <c r="G113" t="n">
-        <v>79.8844999999999</v>
+        <v>79.85899999999991</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4661,10 +4547,10 @@
         <v>80.69</v>
       </c>
       <c r="F114" t="n">
-        <v>1.1388</v>
+        <v>133.8</v>
       </c>
       <c r="G114" t="n">
-        <v>79.90433333333323</v>
+        <v>79.8844999999999</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4684,22 +4570,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>80.09999999999999</v>
+        <v>80.69</v>
       </c>
       <c r="C115" t="n">
-        <v>80.09999999999999</v>
+        <v>80.69</v>
       </c>
       <c r="D115" t="n">
-        <v>80.09999999999999</v>
+        <v>80.69</v>
       </c>
       <c r="E115" t="n">
-        <v>80.09999999999999</v>
+        <v>80.69</v>
       </c>
       <c r="F115" t="n">
-        <v>190.5772</v>
+        <v>1.1388</v>
       </c>
       <c r="G115" t="n">
-        <v>79.91983333333323</v>
+        <v>79.90433333333323</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4722,19 +4608,19 @@
         <v>80.09999999999999</v>
       </c>
       <c r="C116" t="n">
-        <v>80.7</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="D116" t="n">
-        <v>80.7</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="E116" t="n">
         <v>80.09999999999999</v>
       </c>
       <c r="F116" t="n">
-        <v>6323.507</v>
+        <v>190.5772</v>
       </c>
       <c r="G116" t="n">
-        <v>79.94149999999991</v>
+        <v>79.91983333333323</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4754,22 +4640,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>80.2</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="C117" t="n">
-        <v>80.2</v>
+        <v>80.7</v>
       </c>
       <c r="D117" t="n">
-        <v>80.2</v>
+        <v>80.7</v>
       </c>
       <c r="E117" t="n">
-        <v>80.2</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="F117" t="n">
-        <v>2835.8492</v>
+        <v>6323.507</v>
       </c>
       <c r="G117" t="n">
-        <v>79.95483333333324</v>
+        <v>79.94149999999991</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4789,22 +4675,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>80.59999999999999</v>
+        <v>80.2</v>
       </c>
       <c r="C118" t="n">
-        <v>80.59999999999999</v>
+        <v>80.2</v>
       </c>
       <c r="D118" t="n">
-        <v>80.59999999999999</v>
+        <v>80.2</v>
       </c>
       <c r="E118" t="n">
-        <v>80.59999999999999</v>
+        <v>80.2</v>
       </c>
       <c r="F118" t="n">
-        <v>183.1106</v>
+        <v>2835.8492</v>
       </c>
       <c r="G118" t="n">
-        <v>79.97483333333325</v>
+        <v>79.95483333333324</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4824,22 +4710,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>80.7</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="C119" t="n">
-        <v>80.7</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="D119" t="n">
-        <v>80.7</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="E119" t="n">
-        <v>80.7</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="F119" t="n">
-        <v>5000</v>
+        <v>183.1106</v>
       </c>
       <c r="G119" t="n">
-        <v>79.99483333333325</v>
+        <v>79.97483333333325</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4862,19 +4748,19 @@
         <v>80.7</v>
       </c>
       <c r="C120" t="n">
-        <v>80.75</v>
+        <v>80.7</v>
       </c>
       <c r="D120" t="n">
-        <v>80.75</v>
+        <v>80.7</v>
       </c>
       <c r="E120" t="n">
         <v>80.7</v>
       </c>
       <c r="F120" t="n">
-        <v>6005.1738</v>
+        <v>5000</v>
       </c>
       <c r="G120" t="n">
-        <v>80.01566666666659</v>
+        <v>79.99483333333325</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4894,22 +4780,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>80.59999999999999</v>
+        <v>80.7</v>
       </c>
       <c r="C121" t="n">
-        <v>80</v>
+        <v>80.75</v>
       </c>
       <c r="D121" t="n">
-        <v>80.59999999999999</v>
+        <v>80.75</v>
       </c>
       <c r="E121" t="n">
-        <v>80</v>
+        <v>80.7</v>
       </c>
       <c r="F121" t="n">
-        <v>32.8694</v>
+        <v>6005.1738</v>
       </c>
       <c r="G121" t="n">
-        <v>80.02399999999992</v>
+        <v>80.01566666666659</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4929,22 +4815,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>80.01000000000001</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="C122" t="n">
-        <v>80.01000000000001</v>
+        <v>80</v>
       </c>
       <c r="D122" t="n">
-        <v>80.01000000000001</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="E122" t="n">
-        <v>80.01000000000001</v>
+        <v>80</v>
       </c>
       <c r="F122" t="n">
-        <v>814.9708000000001</v>
+        <v>32.8694</v>
       </c>
       <c r="G122" t="n">
-        <v>80.03333333333326</v>
+        <v>80.02399999999992</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4976,10 +4862,10 @@
         <v>80.01000000000001</v>
       </c>
       <c r="F123" t="n">
-        <v>3109.1913</v>
+        <v>814.9708000000001</v>
       </c>
       <c r="G123" t="n">
-        <v>80.04266666666659</v>
+        <v>80.03333333333326</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5011,10 +4897,10 @@
         <v>80.01000000000001</v>
       </c>
       <c r="F124" t="n">
-        <v>4000</v>
+        <v>3109.1913</v>
       </c>
       <c r="G124" t="n">
-        <v>80.05449999999993</v>
+        <v>80.04266666666659</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5046,10 +4932,10 @@
         <v>80.01000000000001</v>
       </c>
       <c r="F125" t="n">
-        <v>17497</v>
+        <v>4000</v>
       </c>
       <c r="G125" t="n">
-        <v>80.06849999999993</v>
+        <v>80.05449999999993</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5069,7 +4955,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>80</v>
+        <v>80.01000000000001</v>
       </c>
       <c r="C126" t="n">
         <v>80.01000000000001</v>
@@ -5078,13 +4964,13 @@
         <v>80.01000000000001</v>
       </c>
       <c r="E126" t="n">
-        <v>80</v>
+        <v>80.01000000000001</v>
       </c>
       <c r="F126" t="n">
-        <v>3656.9122</v>
+        <v>17497</v>
       </c>
       <c r="G126" t="n">
-        <v>80.08249999999994</v>
+        <v>80.06849999999993</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5107,19 +4993,19 @@
         <v>80</v>
       </c>
       <c r="C127" t="n">
-        <v>80</v>
+        <v>80.01000000000001</v>
       </c>
       <c r="D127" t="n">
-        <v>80</v>
+        <v>80.01000000000001</v>
       </c>
       <c r="E127" t="n">
         <v>80</v>
       </c>
       <c r="F127" t="n">
-        <v>1725.4649</v>
+        <v>3656.9122</v>
       </c>
       <c r="G127" t="n">
-        <v>80.0961666666666</v>
+        <v>80.08249999999994</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5139,22 +5025,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>80.01000000000001</v>
+        <v>80</v>
       </c>
       <c r="C128" t="n">
-        <v>80.01000000000001</v>
+        <v>80</v>
       </c>
       <c r="D128" t="n">
-        <v>80.01000000000001</v>
+        <v>80</v>
       </c>
       <c r="E128" t="n">
-        <v>80.01000000000001</v>
+        <v>80</v>
       </c>
       <c r="F128" t="n">
-        <v>1293.937</v>
+        <v>1725.4649</v>
       </c>
       <c r="G128" t="n">
-        <v>80.10683333333327</v>
+        <v>80.0961666666666</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5186,10 +5072,10 @@
         <v>80.01000000000001</v>
       </c>
       <c r="F129" t="n">
-        <v>1940.9179</v>
+        <v>1293.937</v>
       </c>
       <c r="G129" t="n">
-        <v>80.11749999999994</v>
+        <v>80.10683333333327</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5209,22 +5095,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>79.81999999999999</v>
+        <v>80.01000000000001</v>
       </c>
       <c r="C130" t="n">
-        <v>79.81999999999999</v>
+        <v>80.01000000000001</v>
       </c>
       <c r="D130" t="n">
-        <v>79.81999999999999</v>
+        <v>80.01000000000001</v>
       </c>
       <c r="E130" t="n">
-        <v>79.81999999999999</v>
+        <v>80.01000000000001</v>
       </c>
       <c r="F130" t="n">
-        <v>540.5</v>
+        <v>1940.9179</v>
       </c>
       <c r="G130" t="n">
-        <v>80.12283333333328</v>
+        <v>80.11749999999994</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5244,22 +5130,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>80.01000000000001</v>
+        <v>79.81999999999999</v>
       </c>
       <c r="C131" t="n">
-        <v>80.01000000000001</v>
+        <v>79.81999999999999</v>
       </c>
       <c r="D131" t="n">
-        <v>80.01000000000001</v>
+        <v>79.81999999999999</v>
       </c>
       <c r="E131" t="n">
-        <v>80.01000000000001</v>
+        <v>79.81999999999999</v>
       </c>
       <c r="F131" t="n">
-        <v>9286.724200000001</v>
+        <v>540.5</v>
       </c>
       <c r="G131" t="n">
-        <v>80.13133333333327</v>
+        <v>80.12283333333328</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5279,22 +5165,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>79.90000000000001</v>
+        <v>80.01000000000001</v>
       </c>
       <c r="C132" t="n">
-        <v>79.81999999999999</v>
+        <v>80.01000000000001</v>
       </c>
       <c r="D132" t="n">
-        <v>79.90000000000001</v>
+        <v>80.01000000000001</v>
       </c>
       <c r="E132" t="n">
-        <v>79.81999999999999</v>
+        <v>80.01000000000001</v>
       </c>
       <c r="F132" t="n">
-        <v>4190.8287</v>
+        <v>9286.724200000001</v>
       </c>
       <c r="G132" t="n">
-        <v>80.13883333333327</v>
+        <v>80.13133333333327</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5314,22 +5200,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>79.8</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="C133" t="n">
-        <v>79.8</v>
+        <v>79.81999999999999</v>
       </c>
       <c r="D133" t="n">
-        <v>79.8</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="E133" t="n">
-        <v>79.8</v>
+        <v>79.81999999999999</v>
       </c>
       <c r="F133" t="n">
-        <v>192.8461</v>
+        <v>4190.8287</v>
       </c>
       <c r="G133" t="n">
-        <v>80.14383333333328</v>
+        <v>80.13883333333327</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5361,10 +5247,10 @@
         <v>79.8</v>
       </c>
       <c r="F134" t="n">
-        <v>2500</v>
+        <v>192.8461</v>
       </c>
       <c r="G134" t="n">
-        <v>80.14883333333327</v>
+        <v>80.14383333333328</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5396,10 +5282,10 @@
         <v>79.8</v>
       </c>
       <c r="F135" t="n">
-        <v>884.3518</v>
+        <v>2500</v>
       </c>
       <c r="G135" t="n">
-        <v>80.1521666666666</v>
+        <v>80.14883333333327</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5431,10 +5317,10 @@
         <v>79.8</v>
       </c>
       <c r="F136" t="n">
-        <v>0.0001</v>
+        <v>884.3518</v>
       </c>
       <c r="G136" t="n">
-        <v>80.15716666666661</v>
+        <v>80.1521666666666</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5454,22 +5340,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>79.83</v>
+        <v>79.8</v>
       </c>
       <c r="C137" t="n">
-        <v>79.81999999999999</v>
+        <v>79.8</v>
       </c>
       <c r="D137" t="n">
-        <v>79.83</v>
+        <v>79.8</v>
       </c>
       <c r="E137" t="n">
-        <v>79.81999999999999</v>
+        <v>79.8</v>
       </c>
       <c r="F137" t="n">
-        <v>2366.3999</v>
+        <v>0.0001</v>
       </c>
       <c r="G137" t="n">
-        <v>80.16416666666662</v>
+        <v>80.15716666666661</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5501,10 +5387,10 @@
         <v>79.81999999999999</v>
       </c>
       <c r="F138" t="n">
-        <v>2399</v>
+        <v>2366.3999</v>
       </c>
       <c r="G138" t="n">
-        <v>80.15949999999994</v>
+        <v>80.16416666666662</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5527,19 +5413,19 @@
         <v>79.83</v>
       </c>
       <c r="C139" t="n">
-        <v>79.83</v>
+        <v>79.81999999999999</v>
       </c>
       <c r="D139" t="n">
         <v>79.83</v>
       </c>
       <c r="E139" t="n">
-        <v>79.83</v>
+        <v>79.81999999999999</v>
       </c>
       <c r="F139" t="n">
-        <v>2565.7562</v>
+        <v>2399</v>
       </c>
       <c r="G139" t="n">
-        <v>80.1536666666666</v>
+        <v>80.15949999999994</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5562,19 +5448,19 @@
         <v>79.83</v>
       </c>
       <c r="C140" t="n">
-        <v>80.48999999999999</v>
+        <v>79.83</v>
       </c>
       <c r="D140" t="n">
-        <v>80.48999999999999</v>
+        <v>79.83</v>
       </c>
       <c r="E140" t="n">
         <v>79.83</v>
       </c>
       <c r="F140" t="n">
-        <v>1412.2252</v>
+        <v>2565.7562</v>
       </c>
       <c r="G140" t="n">
-        <v>80.1586666666666</v>
+        <v>80.1536666666666</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5594,22 +5480,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>80.48</v>
+        <v>79.83</v>
       </c>
       <c r="C141" t="n">
-        <v>80.48</v>
+        <v>80.48999999999999</v>
       </c>
       <c r="D141" t="n">
-        <v>80.48</v>
+        <v>80.48999999999999</v>
       </c>
       <c r="E141" t="n">
-        <v>80.48</v>
+        <v>79.83</v>
       </c>
       <c r="F141" t="n">
-        <v>7</v>
+        <v>1412.2252</v>
       </c>
       <c r="G141" t="n">
-        <v>80.16349999999993</v>
+        <v>80.1586666666666</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5629,22 +5515,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>79.84</v>
+        <v>80.48</v>
       </c>
       <c r="C142" t="n">
-        <v>79.83</v>
+        <v>80.48</v>
       </c>
       <c r="D142" t="n">
         <v>80.48</v>
       </c>
       <c r="E142" t="n">
-        <v>79.83</v>
+        <v>80.48</v>
       </c>
       <c r="F142" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="G142" t="n">
-        <v>80.15749999999994</v>
+        <v>80.16349999999993</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5664,22 +5550,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>79.83</v>
+        <v>79.84</v>
       </c>
       <c r="C143" t="n">
         <v>79.83</v>
       </c>
       <c r="D143" t="n">
-        <v>79.83</v>
+        <v>80.48</v>
       </c>
       <c r="E143" t="n">
         <v>79.83</v>
       </c>
       <c r="F143" t="n">
-        <v>1255.7562</v>
+        <v>27</v>
       </c>
       <c r="G143" t="n">
-        <v>80.15133333333327</v>
+        <v>80.15749999999994</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5699,22 +5585,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>79.81999999999999</v>
+        <v>79.83</v>
       </c>
       <c r="C144" t="n">
-        <v>79.81999999999999</v>
+        <v>79.83</v>
       </c>
       <c r="D144" t="n">
-        <v>79.81999999999999</v>
+        <v>79.83</v>
       </c>
       <c r="E144" t="n">
-        <v>79.81999999999999</v>
+        <v>79.83</v>
       </c>
       <c r="F144" t="n">
-        <v>17.97</v>
+        <v>1255.7562</v>
       </c>
       <c r="G144" t="n">
-        <v>80.14516666666661</v>
+        <v>80.15133333333327</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5737,19 +5623,19 @@
         <v>79.81999999999999</v>
       </c>
       <c r="C145" t="n">
-        <v>79.8</v>
+        <v>79.81999999999999</v>
       </c>
       <c r="D145" t="n">
         <v>79.81999999999999</v>
       </c>
       <c r="E145" t="n">
-        <v>79.8</v>
+        <v>79.81999999999999</v>
       </c>
       <c r="F145" t="n">
-        <v>24075.446</v>
+        <v>17.97</v>
       </c>
       <c r="G145" t="n">
-        <v>80.13849999999995</v>
+        <v>80.14516666666661</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5769,22 +5655,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>80.48</v>
+        <v>79.81999999999999</v>
       </c>
       <c r="C146" t="n">
-        <v>79.63</v>
+        <v>79.8</v>
       </c>
       <c r="D146" t="n">
-        <v>80.48</v>
+        <v>79.81999999999999</v>
       </c>
       <c r="E146" t="n">
-        <v>79.63</v>
+        <v>79.8</v>
       </c>
       <c r="F146" t="n">
-        <v>22556.777</v>
+        <v>24075.446</v>
       </c>
       <c r="G146" t="n">
-        <v>80.12066666666662</v>
+        <v>80.13849999999995</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5804,22 +5690,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>79.66</v>
+        <v>80.48</v>
       </c>
       <c r="C147" t="n">
-        <v>79.51000000000001</v>
+        <v>79.63</v>
       </c>
       <c r="D147" t="n">
-        <v>79.66</v>
+        <v>80.48</v>
       </c>
       <c r="E147" t="n">
-        <v>79.51000000000001</v>
+        <v>79.63</v>
       </c>
       <c r="F147" t="n">
-        <v>66620.45050000001</v>
+        <v>22556.777</v>
       </c>
       <c r="G147" t="n">
-        <v>80.11733333333329</v>
+        <v>80.12066666666662</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5839,22 +5725,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>80.48</v>
+        <v>79.66</v>
       </c>
       <c r="C148" t="n">
-        <v>80.48</v>
+        <v>79.51000000000001</v>
       </c>
       <c r="D148" t="n">
-        <v>80.48</v>
+        <v>79.66</v>
       </c>
       <c r="E148" t="n">
-        <v>80.48</v>
+        <v>79.51000000000001</v>
       </c>
       <c r="F148" t="n">
-        <v>7.9523</v>
+        <v>66620.45050000001</v>
       </c>
       <c r="G148" t="n">
-        <v>80.13199999999993</v>
+        <v>80.11733333333329</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5874,22 +5760,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>79.59999999999999</v>
+        <v>80.48</v>
       </c>
       <c r="C149" t="n">
-        <v>79.5</v>
+        <v>80.48</v>
       </c>
       <c r="D149" t="n">
-        <v>79.59999999999999</v>
+        <v>80.48</v>
       </c>
       <c r="E149" t="n">
-        <v>79.5</v>
+        <v>80.48</v>
       </c>
       <c r="F149" t="n">
-        <v>66620.45050000001</v>
+        <v>7.9523</v>
       </c>
       <c r="G149" t="n">
-        <v>80.11199999999994</v>
+        <v>80.13199999999993</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5909,22 +5795,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>79.56999999999999</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="C150" t="n">
-        <v>80.08</v>
+        <v>79.5</v>
       </c>
       <c r="D150" t="n">
-        <v>80.08</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="E150" t="n">
-        <v>79.56999999999999</v>
+        <v>79.5</v>
       </c>
       <c r="F150" t="n">
-        <v>4008.2398</v>
+        <v>66620.45050000001</v>
       </c>
       <c r="G150" t="n">
-        <v>80.10383333333328</v>
+        <v>80.11199999999994</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5944,22 +5830,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>79.51000000000001</v>
+        <v>79.56999999999999</v>
       </c>
       <c r="C151" t="n">
-        <v>79.51000000000001</v>
+        <v>80.08</v>
       </c>
       <c r="D151" t="n">
-        <v>79.51000000000001</v>
+        <v>80.08</v>
       </c>
       <c r="E151" t="n">
-        <v>79.51000000000001</v>
+        <v>79.56999999999999</v>
       </c>
       <c r="F151" t="n">
-        <v>13000</v>
+        <v>4008.2398</v>
       </c>
       <c r="G151" t="n">
-        <v>80.09983333333328</v>
+        <v>80.10383333333328</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5991,10 +5877,10 @@
         <v>79.51000000000001</v>
       </c>
       <c r="F152" t="n">
-        <v>1335.93</v>
+        <v>13000</v>
       </c>
       <c r="G152" t="n">
-        <v>80.08216666666662</v>
+        <v>80.09983333333328</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6014,22 +5900,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>79.8</v>
+        <v>79.51000000000001</v>
       </c>
       <c r="C153" t="n">
-        <v>79.8</v>
+        <v>79.51000000000001</v>
       </c>
       <c r="D153" t="n">
-        <v>79.8</v>
+        <v>79.51000000000001</v>
       </c>
       <c r="E153" t="n">
-        <v>79.8</v>
+        <v>79.51000000000001</v>
       </c>
       <c r="F153" t="n">
-        <v>1006.5163</v>
+        <v>1335.93</v>
       </c>
       <c r="G153" t="n">
-        <v>80.0693333333333</v>
+        <v>80.08216666666662</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6049,22 +5935,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>79.77</v>
+        <v>79.8</v>
       </c>
       <c r="C154" t="n">
-        <v>79.77</v>
+        <v>79.8</v>
       </c>
       <c r="D154" t="n">
-        <v>79.77</v>
+        <v>79.8</v>
       </c>
       <c r="E154" t="n">
-        <v>79.77</v>
+        <v>79.8</v>
       </c>
       <c r="F154" t="n">
-        <v>26157.7664</v>
+        <v>1006.5163</v>
       </c>
       <c r="G154" t="n">
-        <v>80.06966666666663</v>
+        <v>80.0693333333333</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6084,22 +5970,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>79.84999999999999</v>
+        <v>79.77</v>
       </c>
       <c r="C155" t="n">
-        <v>79.84999999999999</v>
+        <v>79.77</v>
       </c>
       <c r="D155" t="n">
-        <v>79.84999999999999</v>
+        <v>79.77</v>
       </c>
       <c r="E155" t="n">
-        <v>79.84999999999999</v>
+        <v>79.77</v>
       </c>
       <c r="F155" t="n">
-        <v>3601.2348</v>
+        <v>26157.7664</v>
       </c>
       <c r="G155" t="n">
-        <v>80.07216666666665</v>
+        <v>80.06966666666663</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6119,22 +6005,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>79.77</v>
+        <v>79.84999999999999</v>
       </c>
       <c r="C156" t="n">
-        <v>79.77</v>
+        <v>79.84999999999999</v>
       </c>
       <c r="D156" t="n">
-        <v>79.77</v>
+        <v>79.84999999999999</v>
       </c>
       <c r="E156" t="n">
-        <v>79.77</v>
+        <v>79.84999999999999</v>
       </c>
       <c r="F156" t="n">
-        <v>8271.1263</v>
+        <v>3601.2348</v>
       </c>
       <c r="G156" t="n">
-        <v>80.06983333333332</v>
+        <v>80.07216666666665</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6154,22 +6040,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>80</v>
+        <v>79.77</v>
       </c>
       <c r="C157" t="n">
-        <v>80</v>
+        <v>79.77</v>
       </c>
       <c r="D157" t="n">
-        <v>80</v>
+        <v>79.77</v>
       </c>
       <c r="E157" t="n">
-        <v>80</v>
+        <v>79.77</v>
       </c>
       <c r="F157" t="n">
-        <v>7.777</v>
+        <v>8271.1263</v>
       </c>
       <c r="G157" t="n">
-        <v>80.0715</v>
+        <v>80.06983333333332</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6189,19 +6075,19 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>79.98999999999999</v>
+        <v>80</v>
       </c>
       <c r="C158" t="n">
         <v>80</v>
       </c>
       <c r="D158" t="n">
-        <v>80.09</v>
+        <v>80</v>
       </c>
       <c r="E158" t="n">
-        <v>79.98999999999999</v>
+        <v>80</v>
       </c>
       <c r="F158" t="n">
-        <v>25252.5311</v>
+        <v>7.777</v>
       </c>
       <c r="G158" t="n">
         <v>80.0715</v>
@@ -6224,22 +6110,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>80</v>
+        <v>79.98999999999999</v>
       </c>
       <c r="C159" t="n">
         <v>80</v>
       </c>
       <c r="D159" t="n">
-        <v>80</v>
+        <v>80.09</v>
       </c>
       <c r="E159" t="n">
-        <v>80</v>
+        <v>79.98999999999999</v>
       </c>
       <c r="F159" t="n">
-        <v>4574.0135</v>
+        <v>25252.5311</v>
       </c>
       <c r="G159" t="n">
-        <v>80.06649999999999</v>
+        <v>80.0715</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6262,19 +6148,19 @@
         <v>80</v>
       </c>
       <c r="C160" t="n">
-        <v>80.48999999999999</v>
+        <v>80</v>
       </c>
       <c r="D160" t="n">
-        <v>80.48999999999999</v>
+        <v>80</v>
       </c>
       <c r="E160" t="n">
         <v>80</v>
       </c>
       <c r="F160" t="n">
-        <v>5807.3516</v>
+        <v>4574.0135</v>
       </c>
       <c r="G160" t="n">
-        <v>80.07449999999999</v>
+        <v>80.06649999999999</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6297,19 +6183,19 @@
         <v>80</v>
       </c>
       <c r="C161" t="n">
-        <v>80</v>
+        <v>80.48999999999999</v>
       </c>
       <c r="D161" t="n">
-        <v>80.48</v>
+        <v>80.48999999999999</v>
       </c>
       <c r="E161" t="n">
         <v>80</v>
       </c>
       <c r="F161" t="n">
-        <v>20461.881</v>
+        <v>5807.3516</v>
       </c>
       <c r="G161" t="n">
-        <v>80.07433333333331</v>
+        <v>80.07449999999999</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6329,22 +6215,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>79.77</v>
+        <v>80</v>
       </c>
       <c r="C162" t="n">
-        <v>79.77</v>
+        <v>80</v>
       </c>
       <c r="D162" t="n">
-        <v>79.77</v>
+        <v>80.48</v>
       </c>
       <c r="E162" t="n">
-        <v>79.77</v>
+        <v>80</v>
       </c>
       <c r="F162" t="n">
-        <v>40520.808</v>
+        <v>20461.881</v>
       </c>
       <c r="G162" t="n">
-        <v>80.07033333333332</v>
+        <v>80.07433333333331</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6376,10 +6262,10 @@
         <v>79.77</v>
       </c>
       <c r="F163" t="n">
-        <v>124.4829</v>
+        <v>40520.808</v>
       </c>
       <c r="G163" t="n">
-        <v>80.06633333333333</v>
+        <v>80.07033333333332</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6399,22 +6285,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>80.3</v>
+        <v>79.77</v>
       </c>
       <c r="C164" t="n">
-        <v>80.3</v>
+        <v>79.77</v>
       </c>
       <c r="D164" t="n">
-        <v>80.3</v>
+        <v>79.77</v>
       </c>
       <c r="E164" t="n">
-        <v>80.3</v>
+        <v>79.77</v>
       </c>
       <c r="F164" t="n">
-        <v>7</v>
+        <v>124.4829</v>
       </c>
       <c r="G164" t="n">
-        <v>80.07116666666666</v>
+        <v>80.06633333333333</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6434,22 +6320,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>79.77</v>
+        <v>80.3</v>
       </c>
       <c r="C165" t="n">
-        <v>79.77</v>
+        <v>80.3</v>
       </c>
       <c r="D165" t="n">
-        <v>79.77</v>
+        <v>80.3</v>
       </c>
       <c r="E165" t="n">
-        <v>79.77</v>
+        <v>80.3</v>
       </c>
       <c r="F165" t="n">
-        <v>831.25</v>
+        <v>7</v>
       </c>
       <c r="G165" t="n">
-        <v>80.06733333333334</v>
+        <v>80.07116666666666</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6469,19 +6355,19 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>80</v>
+        <v>79.77</v>
       </c>
       <c r="C166" t="n">
-        <v>80</v>
+        <v>79.77</v>
       </c>
       <c r="D166" t="n">
-        <v>80</v>
+        <v>79.77</v>
       </c>
       <c r="E166" t="n">
-        <v>80</v>
+        <v>79.77</v>
       </c>
       <c r="F166" t="n">
-        <v>100</v>
+        <v>831.25</v>
       </c>
       <c r="G166" t="n">
         <v>80.06733333333334</v>
@@ -6507,19 +6393,19 @@
         <v>80</v>
       </c>
       <c r="C167" t="n">
-        <v>80.09999999999999</v>
+        <v>80</v>
       </c>
       <c r="D167" t="n">
-        <v>80.09999999999999</v>
+        <v>80</v>
       </c>
       <c r="E167" t="n">
         <v>80</v>
       </c>
       <c r="F167" t="n">
-        <v>433.1299</v>
+        <v>100</v>
       </c>
       <c r="G167" t="n">
-        <v>80.069</v>
+        <v>80.06733333333334</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6539,7 +6425,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>80.09999999999999</v>
+        <v>80</v>
       </c>
       <c r="C168" t="n">
         <v>80.09999999999999</v>
@@ -6548,13 +6434,13 @@
         <v>80.09999999999999</v>
       </c>
       <c r="E168" t="n">
-        <v>80.09999999999999</v>
+        <v>80</v>
       </c>
       <c r="F168" t="n">
-        <v>12294.5934</v>
+        <v>433.1299</v>
       </c>
       <c r="G168" t="n">
-        <v>80.05916666666668</v>
+        <v>80.069</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6574,22 +6460,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>80.3</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="C169" t="n">
-        <v>80.3</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="D169" t="n">
-        <v>80.3</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="E169" t="n">
-        <v>80.3</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="F169" t="n">
-        <v>622.66500622665</v>
+        <v>12294.5934</v>
       </c>
       <c r="G169" t="n">
-        <v>80.0526666666667</v>
+        <v>80.05916666666668</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6621,10 +6507,10 @@
         <v>80.3</v>
       </c>
       <c r="F170" t="n">
-        <v>656.5718000000001</v>
+        <v>622.66500622665</v>
       </c>
       <c r="G170" t="n">
-        <v>80.04616666666671</v>
+        <v>80.0526666666667</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6644,22 +6530,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>80.16</v>
+        <v>80.3</v>
       </c>
       <c r="C171" t="n">
-        <v>80.16</v>
+        <v>80.3</v>
       </c>
       <c r="D171" t="n">
-        <v>80.16</v>
+        <v>80.3</v>
       </c>
       <c r="E171" t="n">
-        <v>80.16</v>
+        <v>80.3</v>
       </c>
       <c r="F171" t="n">
-        <v>7.9841</v>
+        <v>656.5718000000001</v>
       </c>
       <c r="G171" t="n">
-        <v>80.03733333333338</v>
+        <v>80.04616666666671</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6679,22 +6565,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>80.3</v>
+        <v>80.16</v>
       </c>
       <c r="C172" t="n">
-        <v>80.3</v>
+        <v>80.16</v>
       </c>
       <c r="D172" t="n">
-        <v>80.3</v>
+        <v>80.16</v>
       </c>
       <c r="E172" t="n">
-        <v>80.3</v>
+        <v>80.16</v>
       </c>
       <c r="F172" t="n">
-        <v>30551.1653</v>
+        <v>7.9841</v>
       </c>
       <c r="G172" t="n">
-        <v>80.03066666666672</v>
+        <v>80.03733333333338</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6726,10 +6612,10 @@
         <v>80.3</v>
       </c>
       <c r="F173" t="n">
-        <v>8975.007100000001</v>
+        <v>30551.1653</v>
       </c>
       <c r="G173" t="n">
-        <v>80.02416666666673</v>
+        <v>80.03066666666672</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6761,10 +6647,10 @@
         <v>80.3</v>
       </c>
       <c r="F174" t="n">
-        <v>2167.6502</v>
+        <v>8975.007100000001</v>
       </c>
       <c r="G174" t="n">
-        <v>80.01766666666673</v>
+        <v>80.02416666666673</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6796,10 +6682,10 @@
         <v>80.3</v>
       </c>
       <c r="F175" t="n">
-        <v>6353.9875</v>
+        <v>2167.6502</v>
       </c>
       <c r="G175" t="n">
-        <v>80.02100000000006</v>
+        <v>80.01766666666673</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6819,22 +6705,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>80.19</v>
+        <v>80.3</v>
       </c>
       <c r="C176" t="n">
-        <v>80.15000000000001</v>
+        <v>80.3</v>
       </c>
       <c r="D176" t="n">
-        <v>80.19</v>
+        <v>80.3</v>
       </c>
       <c r="E176" t="n">
-        <v>80.15000000000001</v>
+        <v>80.3</v>
       </c>
       <c r="F176" t="n">
-        <v>9327.574000000001</v>
+        <v>6353.9875</v>
       </c>
       <c r="G176" t="n">
-        <v>80.0118333333334</v>
+        <v>80.02100000000006</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6854,22 +6740,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>80.3</v>
+        <v>80.19</v>
       </c>
       <c r="C177" t="n">
-        <v>80.5</v>
+        <v>80.15000000000001</v>
       </c>
       <c r="D177" t="n">
-        <v>80.5</v>
+        <v>80.19</v>
       </c>
       <c r="E177" t="n">
-        <v>80.3</v>
+        <v>80.15000000000001</v>
       </c>
       <c r="F177" t="n">
-        <v>7</v>
+        <v>9327.574000000001</v>
       </c>
       <c r="G177" t="n">
-        <v>80.01683333333339</v>
+        <v>80.0118333333334</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6889,7 +6775,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>80.5</v>
+        <v>80.3</v>
       </c>
       <c r="C178" t="n">
         <v>80.5</v>
@@ -6898,13 +6784,13 @@
         <v>80.5</v>
       </c>
       <c r="E178" t="n">
-        <v>80.5</v>
+        <v>80.3</v>
       </c>
       <c r="F178" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G178" t="n">
-        <v>80.01516666666673</v>
+        <v>80.01683333333339</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6936,10 +6822,10 @@
         <v>80.5</v>
       </c>
       <c r="F179" t="n">
-        <v>932.5499</v>
+        <v>20</v>
       </c>
       <c r="G179" t="n">
-        <v>80.0118333333334</v>
+        <v>80.01516666666673</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6959,22 +6845,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>80.54000000000001</v>
+        <v>80.5</v>
       </c>
       <c r="C180" t="n">
-        <v>80.53</v>
+        <v>80.5</v>
       </c>
       <c r="D180" t="n">
-        <v>80.54000000000001</v>
+        <v>80.5</v>
       </c>
       <c r="E180" t="n">
-        <v>80.53</v>
+        <v>80.5</v>
       </c>
       <c r="F180" t="n">
-        <v>6000</v>
+        <v>932.5499</v>
       </c>
       <c r="G180" t="n">
-        <v>80.00816666666672</v>
+        <v>80.0118333333334</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6997,19 +6883,19 @@
         <v>80.54000000000001</v>
       </c>
       <c r="C181" t="n">
-        <v>80.54000000000001</v>
+        <v>80.53</v>
       </c>
       <c r="D181" t="n">
         <v>80.54000000000001</v>
       </c>
       <c r="E181" t="n">
-        <v>80.54000000000001</v>
+        <v>80.53</v>
       </c>
       <c r="F181" t="n">
-        <v>50</v>
+        <v>6000</v>
       </c>
       <c r="G181" t="n">
-        <v>80.01716666666672</v>
+        <v>80.00816666666672</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7029,22 +6915,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>80.52</v>
+        <v>80.54000000000001</v>
       </c>
       <c r="C182" t="n">
-        <v>80.53</v>
+        <v>80.54000000000001</v>
       </c>
       <c r="D182" t="n">
-        <v>80.53</v>
+        <v>80.54000000000001</v>
       </c>
       <c r="E182" t="n">
-        <v>80.52</v>
+        <v>80.54000000000001</v>
       </c>
       <c r="F182" t="n">
-        <v>5689.0429</v>
+        <v>50</v>
       </c>
       <c r="G182" t="n">
-        <v>80.02583333333338</v>
+        <v>80.01716666666672</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7064,22 +6950,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>80.40000000000001</v>
+        <v>80.52</v>
       </c>
       <c r="C183" t="n">
-        <v>80.3</v>
+        <v>80.53</v>
       </c>
       <c r="D183" t="n">
-        <v>80.40000000000001</v>
+        <v>80.53</v>
       </c>
       <c r="E183" t="n">
-        <v>80.3</v>
+        <v>80.52</v>
       </c>
       <c r="F183" t="n">
-        <v>16737</v>
+        <v>5689.0429</v>
       </c>
       <c r="G183" t="n">
-        <v>80.03066666666672</v>
+        <v>80.02583333333338</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7099,22 +6985,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>80.3</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="C184" t="n">
         <v>80.3</v>
       </c>
       <c r="D184" t="n">
-        <v>80.3</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="E184" t="n">
         <v>80.3</v>
       </c>
       <c r="F184" t="n">
-        <v>9174.558499999999</v>
+        <v>16737</v>
       </c>
       <c r="G184" t="n">
-        <v>80.03550000000004</v>
+        <v>80.03066666666672</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7146,10 +7032,10 @@
         <v>80.3</v>
       </c>
       <c r="F185" t="n">
-        <v>6472.9999</v>
+        <v>9174.558499999999</v>
       </c>
       <c r="G185" t="n">
-        <v>80.04033333333338</v>
+        <v>80.03550000000004</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7169,22 +7055,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>80.52</v>
+        <v>80.3</v>
       </c>
       <c r="C186" t="n">
-        <v>80.40000000000001</v>
+        <v>80.3</v>
       </c>
       <c r="D186" t="n">
-        <v>80.55</v>
+        <v>80.3</v>
       </c>
       <c r="E186" t="n">
-        <v>80.40000000000001</v>
+        <v>80.3</v>
       </c>
       <c r="F186" t="n">
-        <v>14877.67174602111</v>
+        <v>6472.9999</v>
       </c>
       <c r="G186" t="n">
-        <v>80.04683333333337</v>
+        <v>80.04033333333338</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7204,22 +7090,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>80.3</v>
+        <v>80.52</v>
       </c>
       <c r="C187" t="n">
-        <v>80.3</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="D187" t="n">
-        <v>80.3</v>
+        <v>80.55</v>
       </c>
       <c r="E187" t="n">
-        <v>80.3</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="F187" t="n">
-        <v>431.9999</v>
+        <v>14877.67174602111</v>
       </c>
       <c r="G187" t="n">
-        <v>80.05183333333338</v>
+        <v>80.04683333333337</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7239,22 +7125,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>80.55</v>
+        <v>80.3</v>
       </c>
       <c r="C188" t="n">
-        <v>80.55</v>
+        <v>80.3</v>
       </c>
       <c r="D188" t="n">
-        <v>80.55</v>
+        <v>80.3</v>
       </c>
       <c r="E188" t="n">
-        <v>80.55</v>
+        <v>80.3</v>
       </c>
       <c r="F188" t="n">
-        <v>5711.7671</v>
+        <v>431.9999</v>
       </c>
       <c r="G188" t="n">
-        <v>80.06083333333338</v>
+        <v>80.05183333333338</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7274,22 +7160,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>80.3</v>
+        <v>80.55</v>
       </c>
       <c r="C189" t="n">
-        <v>80.3</v>
+        <v>80.55</v>
       </c>
       <c r="D189" t="n">
-        <v>80.3</v>
+        <v>80.55</v>
       </c>
       <c r="E189" t="n">
-        <v>80.3</v>
+        <v>80.55</v>
       </c>
       <c r="F189" t="n">
-        <v>25218.9999</v>
+        <v>5711.7671</v>
       </c>
       <c r="G189" t="n">
-        <v>80.0656666666667</v>
+        <v>80.06083333333338</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7321,10 +7207,10 @@
         <v>80.3</v>
       </c>
       <c r="F190" t="n">
-        <v>23131.1629</v>
+        <v>25218.9999</v>
       </c>
       <c r="G190" t="n">
-        <v>80.07366666666671</v>
+        <v>80.0656666666667</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7347,19 +7233,19 @@
         <v>80.3</v>
       </c>
       <c r="C191" t="n">
-        <v>80.16</v>
+        <v>80.3</v>
       </c>
       <c r="D191" t="n">
         <v>80.3</v>
       </c>
       <c r="E191" t="n">
-        <v>80.16</v>
+        <v>80.3</v>
       </c>
       <c r="F191" t="n">
-        <v>78678.7996</v>
+        <v>23131.1629</v>
       </c>
       <c r="G191" t="n">
-        <v>80.07616666666671</v>
+        <v>80.07366666666671</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7379,22 +7265,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>80.16</v>
+        <v>80.3</v>
       </c>
       <c r="C192" t="n">
         <v>80.16</v>
       </c>
       <c r="D192" t="n">
-        <v>80.16</v>
+        <v>80.3</v>
       </c>
       <c r="E192" t="n">
         <v>80.16</v>
       </c>
       <c r="F192" t="n">
-        <v>500</v>
+        <v>78678.7996</v>
       </c>
       <c r="G192" t="n">
-        <v>80.08183333333338</v>
+        <v>80.07616666666671</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7414,22 +7300,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>80.3</v>
+        <v>80.16</v>
       </c>
       <c r="C193" t="n">
-        <v>80.3</v>
+        <v>80.16</v>
       </c>
       <c r="D193" t="n">
-        <v>80.3</v>
+        <v>80.16</v>
       </c>
       <c r="E193" t="n">
-        <v>80.3</v>
+        <v>80.16</v>
       </c>
       <c r="F193" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G193" t="n">
-        <v>80.0901666666667</v>
+        <v>80.08183333333338</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7464,7 +7350,7 @@
         <v>1000</v>
       </c>
       <c r="G194" t="n">
-        <v>80.09850000000004</v>
+        <v>80.0901666666667</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7496,10 +7382,10 @@
         <v>80.3</v>
       </c>
       <c r="F195" t="n">
-        <v>6700</v>
+        <v>1000</v>
       </c>
       <c r="G195" t="n">
-        <v>80.10683333333337</v>
+        <v>80.09850000000004</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7531,10 +7417,10 @@
         <v>80.3</v>
       </c>
       <c r="F196" t="n">
-        <v>7426</v>
+        <v>6700</v>
       </c>
       <c r="G196" t="n">
-        <v>80.11516666666671</v>
+        <v>80.10683333333337</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7566,10 +7452,10 @@
         <v>80.3</v>
       </c>
       <c r="F197" t="n">
-        <v>450</v>
+        <v>7426</v>
       </c>
       <c r="G197" t="n">
-        <v>80.12316666666672</v>
+        <v>80.11516666666671</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7589,22 +7475,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>80.2</v>
+        <v>80.3</v>
       </c>
       <c r="C198" t="n">
-        <v>80.2</v>
+        <v>80.3</v>
       </c>
       <c r="D198" t="n">
-        <v>80.2</v>
+        <v>80.3</v>
       </c>
       <c r="E198" t="n">
-        <v>80.2</v>
+        <v>80.3</v>
       </c>
       <c r="F198" t="n">
-        <v>2500</v>
+        <v>450</v>
       </c>
       <c r="G198" t="n">
-        <v>80.12950000000005</v>
+        <v>80.12316666666672</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7636,10 +7522,10 @@
         <v>80.2</v>
       </c>
       <c r="F199" t="n">
-        <v>246.2571</v>
+        <v>2500</v>
       </c>
       <c r="G199" t="n">
-        <v>80.13566666666672</v>
+        <v>80.12950000000005</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7671,10 +7557,10 @@
         <v>80.2</v>
       </c>
       <c r="F200" t="n">
-        <v>2500</v>
+        <v>246.2571</v>
       </c>
       <c r="G200" t="n">
-        <v>80.13083333333338</v>
+        <v>80.13566666666672</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7694,22 +7580,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>80.3</v>
+        <v>80.2</v>
       </c>
       <c r="C201" t="n">
-        <v>80.8</v>
+        <v>80.2</v>
       </c>
       <c r="D201" t="n">
-        <v>80.8</v>
+        <v>80.2</v>
       </c>
       <c r="E201" t="n">
-        <v>80.3</v>
+        <v>80.2</v>
       </c>
       <c r="F201" t="n">
-        <v>4004.6042</v>
+        <v>2500</v>
       </c>
       <c r="G201" t="n">
-        <v>80.13616666666672</v>
+        <v>80.13083333333338</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7729,22 +7615,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>80.75</v>
+        <v>80.3</v>
       </c>
       <c r="C202" t="n">
-        <v>80.75</v>
+        <v>80.8</v>
       </c>
       <c r="D202" t="n">
-        <v>80.75</v>
+        <v>80.8</v>
       </c>
       <c r="E202" t="n">
-        <v>80.75</v>
+        <v>80.3</v>
       </c>
       <c r="F202" t="n">
-        <v>3040.0822</v>
+        <v>4004.6042</v>
       </c>
       <c r="G202" t="n">
-        <v>80.15150000000007</v>
+        <v>80.13616666666672</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7764,22 +7650,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>80.8</v>
+        <v>80.75</v>
       </c>
       <c r="C203" t="n">
-        <v>80.8</v>
+        <v>80.75</v>
       </c>
       <c r="D203" t="n">
-        <v>80.8</v>
+        <v>80.75</v>
       </c>
       <c r="E203" t="n">
-        <v>80.8</v>
+        <v>80.75</v>
       </c>
       <c r="F203" t="n">
-        <v>15.738</v>
+        <v>3040.0822</v>
       </c>
       <c r="G203" t="n">
-        <v>80.16766666666673</v>
+        <v>80.15150000000007</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7802,19 +7688,19 @@
         <v>80.8</v>
       </c>
       <c r="C204" t="n">
-        <v>80.75</v>
+        <v>80.8</v>
       </c>
       <c r="D204" t="n">
         <v>80.8</v>
       </c>
       <c r="E204" t="n">
-        <v>80.75</v>
+        <v>80.8</v>
       </c>
       <c r="F204" t="n">
-        <v>2118.5608</v>
+        <v>15.738</v>
       </c>
       <c r="G204" t="n">
-        <v>80.18316666666674</v>
+        <v>80.16766666666673</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7834,22 +7720,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
+        <v>80.8</v>
+      </c>
+      <c r="C205" t="n">
         <v>80.75</v>
       </c>
-      <c r="C205" t="n">
-        <v>80.20999999999999</v>
-      </c>
       <c r="D205" t="n">
+        <v>80.8</v>
+      </c>
+      <c r="E205" t="n">
         <v>80.75</v>
       </c>
-      <c r="E205" t="n">
-        <v>80.20999999999999</v>
-      </c>
       <c r="F205" t="n">
-        <v>41260.7939</v>
+        <v>2118.5608</v>
       </c>
       <c r="G205" t="n">
-        <v>80.19000000000007</v>
+        <v>80.18316666666674</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7869,22 +7755,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>80.3</v>
+        <v>80.75</v>
       </c>
       <c r="C206" t="n">
-        <v>80.2</v>
+        <v>80.20999999999999</v>
       </c>
       <c r="D206" t="n">
-        <v>80.3</v>
+        <v>80.75</v>
       </c>
       <c r="E206" t="n">
-        <v>80.2</v>
+        <v>80.20999999999999</v>
       </c>
       <c r="F206" t="n">
-        <v>9632.201800000001</v>
+        <v>41260.7939</v>
       </c>
       <c r="G206" t="n">
-        <v>80.19950000000007</v>
+        <v>80.19000000000007</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7904,22 +7790,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>80.15000000000001</v>
+        <v>80.3</v>
       </c>
       <c r="C207" t="n">
-        <v>80.15000000000001</v>
+        <v>80.2</v>
       </c>
       <c r="D207" t="n">
-        <v>80.15000000000001</v>
+        <v>80.3</v>
       </c>
       <c r="E207" t="n">
-        <v>80.15000000000001</v>
+        <v>80.2</v>
       </c>
       <c r="F207" t="n">
-        <v>7822.801</v>
+        <v>9632.201800000001</v>
       </c>
       <c r="G207" t="n">
-        <v>80.21016666666672</v>
+        <v>80.19950000000007</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7939,22 +7825,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>79.94</v>
+        <v>80.15000000000001</v>
       </c>
       <c r="C208" t="n">
-        <v>79.94</v>
+        <v>80.15000000000001</v>
       </c>
       <c r="D208" t="n">
-        <v>79.94</v>
+        <v>80.15000000000001</v>
       </c>
       <c r="E208" t="n">
-        <v>79.94</v>
+        <v>80.15000000000001</v>
       </c>
       <c r="F208" t="n">
-        <v>1380</v>
+        <v>7822.801</v>
       </c>
       <c r="G208" t="n">
-        <v>80.20116666666672</v>
+        <v>80.21016666666672</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7974,22 +7860,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>79.88</v>
+        <v>79.94</v>
       </c>
       <c r="C209" t="n">
-        <v>80.2</v>
+        <v>79.94</v>
       </c>
       <c r="D209" t="n">
-        <v>80.2</v>
+        <v>79.94</v>
       </c>
       <c r="E209" t="n">
-        <v>79.88</v>
+        <v>79.94</v>
       </c>
       <c r="F209" t="n">
-        <v>20765.0519</v>
+        <v>1380</v>
       </c>
       <c r="G209" t="n">
-        <v>80.21283333333339</v>
+        <v>80.20116666666672</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8009,7 +7895,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>80.2</v>
+        <v>79.88</v>
       </c>
       <c r="C210" t="n">
         <v>80.2</v>
@@ -8018,13 +7904,13 @@
         <v>80.2</v>
       </c>
       <c r="E210" t="n">
-        <v>80.2</v>
+        <v>79.88</v>
       </c>
       <c r="F210" t="n">
-        <v>1000</v>
+        <v>20765.0519</v>
       </c>
       <c r="G210" t="n">
-        <v>80.21483333333339</v>
+        <v>80.21283333333339</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8044,22 +7930,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>79.90000000000001</v>
+        <v>80.2</v>
       </c>
       <c r="C211" t="n">
-        <v>79.90000000000001</v>
+        <v>80.2</v>
       </c>
       <c r="D211" t="n">
-        <v>79.90000000000001</v>
+        <v>80.2</v>
       </c>
       <c r="E211" t="n">
-        <v>79.90000000000001</v>
+        <v>80.2</v>
       </c>
       <c r="F211" t="n">
-        <v>29020.8391</v>
+        <v>1000</v>
       </c>
       <c r="G211" t="n">
-        <v>80.22133333333338</v>
+        <v>80.21483333333339</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8079,22 +7965,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>80.2</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="C212" t="n">
-        <v>80.2</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="D212" t="n">
-        <v>80.2</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="E212" t="n">
-        <v>80.2</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="F212" t="n">
-        <v>7</v>
+        <v>29020.8391</v>
       </c>
       <c r="G212" t="n">
-        <v>80.23283333333337</v>
+        <v>80.22133333333338</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8114,22 +8000,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>79.90000000000001</v>
+        <v>80.2</v>
       </c>
       <c r="C213" t="n">
-        <v>79.90000000000001</v>
+        <v>80.2</v>
       </c>
       <c r="D213" t="n">
-        <v>79.90000000000001</v>
+        <v>80.2</v>
       </c>
       <c r="E213" t="n">
-        <v>79.90000000000001</v>
+        <v>80.2</v>
       </c>
       <c r="F213" t="n">
-        <v>3373</v>
+        <v>7</v>
       </c>
       <c r="G213" t="n">
-        <v>80.23450000000003</v>
+        <v>80.23283333333337</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8161,10 +8047,10 @@
         <v>79.90000000000001</v>
       </c>
       <c r="F214" t="n">
-        <v>7730.0278</v>
+        <v>3373</v>
       </c>
       <c r="G214" t="n">
-        <v>80.23666666666668</v>
+        <v>80.23450000000003</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8184,22 +8070,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>79.78</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="C215" t="n">
-        <v>79.78</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="D215" t="n">
-        <v>79.78</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="E215" t="n">
-        <v>79.78</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="F215" t="n">
-        <v>31.1393</v>
+        <v>7730.0278</v>
       </c>
       <c r="G215" t="n">
-        <v>80.2355</v>
+        <v>80.23666666666668</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8231,10 +8117,10 @@
         <v>79.78</v>
       </c>
       <c r="F216" t="n">
-        <v>18110.3497</v>
+        <v>31.1393</v>
       </c>
       <c r="G216" t="n">
-        <v>80.23566666666666</v>
+        <v>80.2355</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8266,10 +8152,10 @@
         <v>79.78</v>
       </c>
       <c r="F217" t="n">
-        <v>0.0001</v>
+        <v>18110.3497</v>
       </c>
       <c r="G217" t="n">
-        <v>80.23199999999999</v>
+        <v>80.23566666666666</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8289,22 +8175,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>80.2</v>
+        <v>79.78</v>
       </c>
       <c r="C218" t="n">
-        <v>80.2</v>
+        <v>79.78</v>
       </c>
       <c r="D218" t="n">
-        <v>80.2</v>
+        <v>79.78</v>
       </c>
       <c r="E218" t="n">
-        <v>80.2</v>
+        <v>79.78</v>
       </c>
       <c r="F218" t="n">
-        <v>7</v>
+        <v>0.0001</v>
       </c>
       <c r="G218" t="n">
-        <v>80.23533333333332</v>
+        <v>80.23199999999999</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8324,22 +8210,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>79.78</v>
+        <v>80.2</v>
       </c>
       <c r="C219" t="n">
-        <v>79.77</v>
+        <v>80.2</v>
       </c>
       <c r="D219" t="n">
-        <v>79.78</v>
+        <v>80.2</v>
       </c>
       <c r="E219" t="n">
-        <v>79.77</v>
+        <v>80.2</v>
       </c>
       <c r="F219" t="n">
-        <v>16023</v>
+        <v>7</v>
       </c>
       <c r="G219" t="n">
-        <v>80.2315</v>
+        <v>80.23533333333332</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8359,22 +8245,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>79.77</v>
+        <v>79.78</v>
       </c>
       <c r="C220" t="n">
         <v>79.77</v>
       </c>
       <c r="D220" t="n">
-        <v>79.77</v>
+        <v>79.78</v>
       </c>
       <c r="E220" t="n">
         <v>79.77</v>
       </c>
       <c r="F220" t="n">
-        <v>3664</v>
+        <v>16023</v>
       </c>
       <c r="G220" t="n">
-        <v>80.2195</v>
+        <v>80.2315</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8394,22 +8280,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>79.8</v>
+        <v>79.77</v>
       </c>
       <c r="C221" t="n">
-        <v>79.8</v>
+        <v>79.77</v>
       </c>
       <c r="D221" t="n">
-        <v>79.8</v>
+        <v>79.77</v>
       </c>
       <c r="E221" t="n">
-        <v>79.8</v>
+        <v>79.77</v>
       </c>
       <c r="F221" t="n">
-        <v>16.7178</v>
+        <v>3664</v>
       </c>
       <c r="G221" t="n">
-        <v>80.21616666666667</v>
+        <v>80.2195</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8429,19 +8315,19 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>79.81</v>
+        <v>79.8</v>
       </c>
       <c r="C222" t="n">
-        <v>79.77</v>
+        <v>79.8</v>
       </c>
       <c r="D222" t="n">
-        <v>79.81</v>
+        <v>79.8</v>
       </c>
       <c r="E222" t="n">
-        <v>79.77</v>
+        <v>79.8</v>
       </c>
       <c r="F222" t="n">
-        <v>10031.2114</v>
+        <v>16.7178</v>
       </c>
       <c r="G222" t="n">
         <v>80.21616666666667</v>
@@ -8464,22 +8350,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
+        <v>79.81</v>
+      </c>
+      <c r="C223" t="n">
         <v>79.77</v>
       </c>
-      <c r="C223" t="n">
-        <v>79.7</v>
-      </c>
       <c r="D223" t="n">
+        <v>79.81</v>
+      </c>
+      <c r="E223" t="n">
         <v>79.77</v>
       </c>
-      <c r="E223" t="n">
-        <v>79.7</v>
-      </c>
       <c r="F223" t="n">
-        <v>7028.4631</v>
+        <v>10031.2114</v>
       </c>
       <c r="G223" t="n">
-        <v>80.21499999999999</v>
+        <v>80.21616666666667</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8499,22 +8385,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>79.7</v>
+        <v>79.77</v>
       </c>
       <c r="C224" t="n">
         <v>79.7</v>
       </c>
       <c r="D224" t="n">
-        <v>79.7</v>
+        <v>79.77</v>
       </c>
       <c r="E224" t="n">
         <v>79.7</v>
       </c>
       <c r="F224" t="n">
-        <v>769.0282</v>
+        <v>7028.4631</v>
       </c>
       <c r="G224" t="n">
-        <v>80.20499999999998</v>
+        <v>80.21499999999999</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8537,19 +8423,19 @@
         <v>79.7</v>
       </c>
       <c r="C225" t="n">
-        <v>79.70999999999999</v>
+        <v>79.7</v>
       </c>
       <c r="D225" t="n">
-        <v>79.70999999999999</v>
+        <v>79.7</v>
       </c>
       <c r="E225" t="n">
         <v>79.7</v>
       </c>
       <c r="F225" t="n">
-        <v>6259.4349</v>
+        <v>769.0282</v>
       </c>
       <c r="G225" t="n">
-        <v>80.20399999999998</v>
+        <v>80.20499999999998</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8569,22 +8455,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
+        <v>79.7</v>
+      </c>
+      <c r="C226" t="n">
         <v>79.70999999999999</v>
       </c>
-      <c r="C226" t="n">
-        <v>80.51000000000001</v>
-      </c>
       <c r="D226" t="n">
-        <v>80.51000000000001</v>
+        <v>79.70999999999999</v>
       </c>
       <c r="E226" t="n">
         <v>79.7</v>
       </c>
       <c r="F226" t="n">
-        <v>17112.7921</v>
+        <v>6259.4349</v>
       </c>
       <c r="G226" t="n">
-        <v>80.21249999999999</v>
+        <v>80.20399999999998</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8604,22 +8490,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>80</v>
+        <v>79.70999999999999</v>
       </c>
       <c r="C227" t="n">
-        <v>80</v>
+        <v>80.51000000000001</v>
       </c>
       <c r="D227" t="n">
-        <v>80</v>
+        <v>80.51000000000001</v>
       </c>
       <c r="E227" t="n">
-        <v>80</v>
+        <v>79.7</v>
       </c>
       <c r="F227" t="n">
-        <v>1939.3341</v>
+        <v>17112.7921</v>
       </c>
       <c r="G227" t="n">
-        <v>80.21083333333331</v>
+        <v>80.21249999999999</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8639,22 +8525,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>79.70999999999999</v>
+        <v>80</v>
       </c>
       <c r="C228" t="n">
-        <v>80.47</v>
+        <v>80</v>
       </c>
       <c r="D228" t="n">
-        <v>80.47</v>
+        <v>80</v>
       </c>
       <c r="E228" t="n">
-        <v>79.70999999999999</v>
+        <v>80</v>
       </c>
       <c r="F228" t="n">
-        <v>7041.4519</v>
+        <v>1939.3341</v>
       </c>
       <c r="G228" t="n">
-        <v>80.21699999999997</v>
+        <v>80.21083333333331</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8674,22 +8560,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>80</v>
+        <v>79.70999999999999</v>
       </c>
       <c r="C229" t="n">
-        <v>79.91</v>
+        <v>80.47</v>
       </c>
       <c r="D229" t="n">
-        <v>80</v>
+        <v>80.47</v>
       </c>
       <c r="E229" t="n">
-        <v>79.91</v>
+        <v>79.70999999999999</v>
       </c>
       <c r="F229" t="n">
-        <v>10950.2096</v>
+        <v>7041.4519</v>
       </c>
       <c r="G229" t="n">
-        <v>80.21049999999997</v>
+        <v>80.21699999999997</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8709,22 +8595,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>79.91</v>
+        <v>80</v>
       </c>
       <c r="C230" t="n">
         <v>79.91</v>
       </c>
       <c r="D230" t="n">
-        <v>79.91</v>
+        <v>80</v>
       </c>
       <c r="E230" t="n">
         <v>79.91</v>
       </c>
       <c r="F230" t="n">
-        <v>7109.26</v>
+        <v>10950.2096</v>
       </c>
       <c r="G230" t="n">
-        <v>80.20399999999997</v>
+        <v>80.21049999999997</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8744,22 +8630,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>79.78</v>
+        <v>79.91</v>
       </c>
       <c r="C231" t="n">
-        <v>79.78</v>
+        <v>79.91</v>
       </c>
       <c r="D231" t="n">
-        <v>79.78</v>
+        <v>79.91</v>
       </c>
       <c r="E231" t="n">
-        <v>79.78</v>
+        <v>79.91</v>
       </c>
       <c r="F231" t="n">
-        <v>500</v>
+        <v>7109.26</v>
       </c>
       <c r="G231" t="n">
-        <v>80.19766666666663</v>
+        <v>80.20399999999997</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8791,10 +8677,10 @@
         <v>79.78</v>
       </c>
       <c r="F232" t="n">
-        <v>43496.749</v>
+        <v>500</v>
       </c>
       <c r="G232" t="n">
-        <v>80.18899999999995</v>
+        <v>80.19766666666663</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8826,10 +8712,10 @@
         <v>79.78</v>
       </c>
       <c r="F233" t="n">
-        <v>173.7137</v>
+        <v>43496.749</v>
       </c>
       <c r="G233" t="n">
-        <v>80.18033333333328</v>
+        <v>80.18899999999995</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8852,19 +8738,19 @@
         <v>79.78</v>
       </c>
       <c r="C234" t="n">
-        <v>80</v>
+        <v>79.78</v>
       </c>
       <c r="D234" t="n">
-        <v>80</v>
+        <v>79.78</v>
       </c>
       <c r="E234" t="n">
         <v>79.78</v>
       </c>
       <c r="F234" t="n">
-        <v>10085.8765</v>
+        <v>173.7137</v>
       </c>
       <c r="G234" t="n">
-        <v>80.17533333333328</v>
+        <v>80.18033333333328</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8884,22 +8770,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>80</v>
+        <v>79.78</v>
       </c>
       <c r="C235" t="n">
         <v>80</v>
       </c>
       <c r="D235" t="n">
-        <v>80.09999999999999</v>
+        <v>80</v>
       </c>
       <c r="E235" t="n">
-        <v>80</v>
+        <v>79.78</v>
       </c>
       <c r="F235" t="n">
-        <v>1836.451</v>
+        <v>10085.8765</v>
       </c>
       <c r="G235" t="n">
-        <v>80.17033333333328</v>
+        <v>80.17533333333328</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8925,16 +8811,16 @@
         <v>80</v>
       </c>
       <c r="D236" t="n">
-        <v>80</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="E236" t="n">
         <v>80</v>
       </c>
       <c r="F236" t="n">
-        <v>27155.3593</v>
+        <v>1836.451</v>
       </c>
       <c r="G236" t="n">
-        <v>80.16783333333328</v>
+        <v>80.17033333333328</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8966,10 +8852,10 @@
         <v>80</v>
       </c>
       <c r="F237" t="n">
-        <v>807.2658</v>
+        <v>27155.3593</v>
       </c>
       <c r="G237" t="n">
-        <v>80.15949999999995</v>
+        <v>80.16783333333328</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8989,22 +8875,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>79.83</v>
+        <v>80</v>
       </c>
       <c r="C238" t="n">
-        <v>79.83</v>
+        <v>80</v>
       </c>
       <c r="D238" t="n">
-        <v>79.83</v>
+        <v>80</v>
       </c>
       <c r="E238" t="n">
-        <v>79.83</v>
+        <v>80</v>
       </c>
       <c r="F238" t="n">
-        <v>16075.9985</v>
+        <v>807.2658</v>
       </c>
       <c r="G238" t="n">
-        <v>80.14833333333328</v>
+        <v>80.15949999999995</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -9019,6 +8905,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>79.83</v>
+      </c>
+      <c r="C239" t="n">
+        <v>79.83</v>
+      </c>
+      <c r="D239" t="n">
+        <v>79.83</v>
+      </c>
+      <c r="E239" t="n">
+        <v>79.83</v>
+      </c>
+      <c r="F239" t="n">
+        <v>16075.9985</v>
+      </c>
+      <c r="G239" t="n">
+        <v>80.14833333333328</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-15 BackTest ENJ.xlsx
+++ b/BackTest/2020-01-15 BackTest ENJ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M239"/>
+  <dimension ref="A1:N249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>17217.78</v>
       </c>
       <c r="G2" t="n">
+        <v>79.13866666666674</v>
+      </c>
+      <c r="H2" t="n">
         <v>79.89933333333333</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>5000</v>
       </c>
       <c r="G3" t="n">
+        <v>79.1453333333334</v>
+      </c>
+      <c r="H3" t="n">
         <v>79.866</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>110419.1113</v>
       </c>
       <c r="G4" t="n">
+        <v>79.14133333333341</v>
+      </c>
+      <c r="H4" t="n">
         <v>79.836</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>45355.0728</v>
       </c>
       <c r="G5" t="n">
+        <v>79.1373333333334</v>
+      </c>
+      <c r="H5" t="n">
         <v>79.806</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>2126.3778</v>
       </c>
       <c r="G6" t="n">
+        <v>79.1373333333334</v>
+      </c>
+      <c r="H6" t="n">
         <v>79.78099999999999</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>14705.6658</v>
       </c>
       <c r="G7" t="n">
+        <v>79.14400000000006</v>
+      </c>
+      <c r="H7" t="n">
         <v>79.74600000000001</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>2596.0999</v>
       </c>
       <c r="G8" t="n">
+        <v>79.14933333333339</v>
+      </c>
+      <c r="H8" t="n">
         <v>79.71133333333334</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>4000</v>
       </c>
       <c r="G9" t="n">
+        <v>79.15466666666673</v>
+      </c>
+      <c r="H9" t="n">
         <v>79.67966666666666</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>67518.91409999999</v>
       </c>
       <c r="G10" t="n">
+        <v>79.1213333333334</v>
+      </c>
+      <c r="H10" t="n">
         <v>79.648</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,25 @@
         <v>6895.7895</v>
       </c>
       <c r="G11" t="n">
+        <v>79.08800000000005</v>
+      </c>
+      <c r="H11" t="n">
         <v>79.61666666666666</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>79</v>
+      </c>
+      <c r="L11" t="n">
+        <v>79</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +837,29 @@
         <v>10000</v>
       </c>
       <c r="G12" t="n">
+        <v>79.0633333333334</v>
+      </c>
+      <c r="H12" t="n">
         <v>79.58683333333333</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>79</v>
+      </c>
+      <c r="L12" t="n">
+        <v>79</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +883,29 @@
         <v>300</v>
       </c>
       <c r="G13" t="n">
+        <v>79.1253333333334</v>
+      </c>
+      <c r="H13" t="n">
         <v>79.56950000000001</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>79.18000000000001</v>
+      </c>
+      <c r="L13" t="n">
+        <v>79</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +929,29 @@
         <v>1671.6851</v>
       </c>
       <c r="G14" t="n">
+        <v>79.17800000000007</v>
+      </c>
+      <c r="H14" t="n">
         <v>79.55033333333333</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>79.93000000000001</v>
+      </c>
+      <c r="L14" t="n">
+        <v>79</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +975,27 @@
         <v>1014</v>
       </c>
       <c r="G15" t="n">
+        <v>79.15666666666672</v>
+      </c>
+      <c r="H15" t="n">
         <v>79.5295</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="L15" t="n">
+        <v>79</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1019,27 @@
         <v>35993</v>
       </c>
       <c r="G16" t="n">
+        <v>79.18133333333338</v>
+      </c>
+      <c r="H16" t="n">
         <v>79.51083333333332</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="L16" t="n">
+        <v>79</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1063,27 @@
         <v>1114</v>
       </c>
       <c r="G17" t="n">
+        <v>79.24333333333338</v>
+      </c>
+      <c r="H17" t="n">
         <v>79.49816666666668</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="L17" t="n">
+        <v>79</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1107,27 @@
         <v>6007</v>
       </c>
       <c r="G18" t="n">
+        <v>79.30533333333339</v>
+      </c>
+      <c r="H18" t="n">
         <v>79.48866666666667</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="L18" t="n">
+        <v>79</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1151,27 @@
         <v>800</v>
       </c>
       <c r="G19" t="n">
+        <v>79.36933333333339</v>
+      </c>
+      <c r="H19" t="n">
         <v>79.483</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="L19" t="n">
+        <v>79</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1195,27 @@
         <v>1000</v>
       </c>
       <c r="G20" t="n">
+        <v>79.43400000000005</v>
+      </c>
+      <c r="H20" t="n">
         <v>79.47983333333335</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="L20" t="n">
+        <v>79</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1239,27 @@
         <v>1000</v>
       </c>
       <c r="G21" t="n">
+        <v>79.55000000000005</v>
+      </c>
+      <c r="H21" t="n">
         <v>79.48950000000001</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="L21" t="n">
+        <v>79</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1283,27 @@
         <v>7</v>
       </c>
       <c r="G22" t="n">
+        <v>79.69266666666674</v>
+      </c>
+      <c r="H22" t="n">
         <v>79.50466666666668</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="L22" t="n">
+        <v>79</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1327,27 @@
         <v>107</v>
       </c>
       <c r="G23" t="n">
+        <v>79.83533333333341</v>
+      </c>
+      <c r="H23" t="n">
         <v>79.51966666666667</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="L23" t="n">
+        <v>79</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1371,27 @@
         <v>14</v>
       </c>
       <c r="G24" t="n">
+        <v>79.88333333333341</v>
+      </c>
+      <c r="H24" t="n">
         <v>79.51416666666667</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="L24" t="n">
+        <v>79</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1415,27 @@
         <v>392.2343</v>
       </c>
       <c r="G25" t="n">
+        <v>79.91800000000008</v>
+      </c>
+      <c r="H25" t="n">
         <v>79.50566666666668</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="L25" t="n">
+        <v>79</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1459,27 @@
         <v>10115.1228</v>
       </c>
       <c r="G26" t="n">
+        <v>80.03533333333341</v>
+      </c>
+      <c r="H26" t="n">
         <v>79.51783333333336</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="L26" t="n">
+        <v>79</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1503,27 @@
         <v>7</v>
       </c>
       <c r="G27" t="n">
+        <v>80.12933333333339</v>
+      </c>
+      <c r="H27" t="n">
         <v>79.5271666666667</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="L27" t="n">
+        <v>79</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1547,27 @@
         <v>7</v>
       </c>
       <c r="G28" t="n">
+        <v>80.09133333333338</v>
+      </c>
+      <c r="H28" t="n">
         <v>79.51650000000002</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="L28" t="n">
+        <v>79</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1591,27 @@
         <v>760.9999</v>
       </c>
       <c r="G29" t="n">
+        <v>80.06200000000007</v>
+      </c>
+      <c r="H29" t="n">
         <v>79.50783333333337</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="L29" t="n">
+        <v>79</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1635,27 @@
         <v>512.73</v>
       </c>
       <c r="G30" t="n">
+        <v>80.06333333333342</v>
+      </c>
+      <c r="H30" t="n">
         <v>79.50116666666669</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="L30" t="n">
+        <v>79</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1679,27 @@
         <v>662.109</v>
       </c>
       <c r="G31" t="n">
+        <v>80.0980000000001</v>
+      </c>
+      <c r="H31" t="n">
         <v>79.51133333333335</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="L31" t="n">
+        <v>79</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1723,27 @@
         <v>344.86</v>
       </c>
       <c r="G32" t="n">
+        <v>80.1360000000001</v>
+      </c>
+      <c r="H32" t="n">
         <v>79.52350000000001</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="L32" t="n">
+        <v>79</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1767,27 @@
         <v>7</v>
       </c>
       <c r="G33" t="n">
+        <v>80.10733333333341</v>
+      </c>
+      <c r="H33" t="n">
         <v>79.51050000000002</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="L33" t="n">
+        <v>79</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1811,27 @@
         <v>7</v>
       </c>
       <c r="G34" t="n">
+        <v>80.13666666666676</v>
+      </c>
+      <c r="H34" t="n">
         <v>79.51700000000001</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="L34" t="n">
+        <v>79</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1855,27 @@
         <v>10340.0647</v>
       </c>
       <c r="G35" t="n">
+        <v>80.09866666666676</v>
+      </c>
+      <c r="H35" t="n">
         <v>79.50216666666667</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="L35" t="n">
+        <v>79</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1899,27 @@
         <v>1045.6554</v>
       </c>
       <c r="G36" t="n">
+        <v>80.00933333333343</v>
+      </c>
+      <c r="H36" t="n">
         <v>79.48566666666666</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="L36" t="n">
+        <v>79</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1943,27 @@
         <v>4480.3879</v>
       </c>
       <c r="G37" t="n">
+        <v>79.90400000000008</v>
+      </c>
+      <c r="H37" t="n">
         <v>79.47499999999998</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="L37" t="n">
+        <v>79</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1987,27 @@
         <v>5176.6011</v>
       </c>
       <c r="G38" t="n">
+        <v>79.80800000000008</v>
+      </c>
+      <c r="H38" t="n">
         <v>79.46916666666665</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="L38" t="n">
+        <v>79</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +2031,27 @@
         <v>449</v>
       </c>
       <c r="G39" t="n">
+        <v>79.78533333333341</v>
+      </c>
+      <c r="H39" t="n">
         <v>79.46099999999997</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="L39" t="n">
+        <v>79</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +2075,27 @@
         <v>3825.8786</v>
       </c>
       <c r="G40" t="n">
+        <v>79.77466666666673</v>
+      </c>
+      <c r="H40" t="n">
         <v>79.45349999999995</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="L40" t="n">
+        <v>79</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2119,27 @@
         <v>8858.4612</v>
       </c>
       <c r="G41" t="n">
+        <v>79.6813333333334</v>
+      </c>
+      <c r="H41" t="n">
         <v>79.43633333333328</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="L41" t="n">
+        <v>79</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2163,27 @@
         <v>694</v>
       </c>
       <c r="G42" t="n">
+        <v>79.59933333333339</v>
+      </c>
+      <c r="H42" t="n">
         <v>79.43399999999994</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="L42" t="n">
+        <v>79</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2207,27 @@
         <v>18.7021</v>
       </c>
       <c r="G43" t="n">
+        <v>79.60800000000008</v>
+      </c>
+      <c r="H43" t="n">
         <v>79.44216666666661</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="L43" t="n">
+        <v>79</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2251,27 @@
         <v>20004.8239</v>
       </c>
       <c r="G44" t="n">
+        <v>79.61600000000007</v>
+      </c>
+      <c r="H44" t="n">
         <v>79.45749999999994</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="L44" t="n">
+        <v>79</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2295,27 @@
         <v>10776.7627</v>
       </c>
       <c r="G45" t="n">
+        <v>79.61466666666675</v>
+      </c>
+      <c r="H45" t="n">
         <v>79.46849999999995</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="L45" t="n">
+        <v>79</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,24 +2339,27 @@
         <v>1689.4097</v>
       </c>
       <c r="G46" t="n">
+        <v>79.53800000000007</v>
+      </c>
+      <c r="H46" t="n">
         <v>79.47733333333328</v>
       </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>79.34999999999999</v>
+        <v>0</v>
       </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
+      <c r="L46" t="n">
+        <v>79</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2029,24 +2383,27 @@
         <v>1201.8754</v>
       </c>
       <c r="G47" t="n">
+        <v>79.4533333333334</v>
+      </c>
+      <c r="H47" t="n">
         <v>79.49283333333327</v>
       </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>79.23</v>
+        <v>0</v>
       </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
+      <c r="L47" t="n">
+        <v>79</v>
+      </c>
+      <c r="M47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2070,22 +2427,29 @@
         <v>6.24</v>
       </c>
       <c r="G48" t="n">
+        <v>79.49866666666675</v>
+      </c>
+      <c r="H48" t="n">
         <v>79.51416666666661</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>79.23</v>
+      </c>
+      <c r="L48" t="n">
+        <v>79</v>
+      </c>
+      <c r="M48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M48" t="n">
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2109,22 +2473,27 @@
         <v>60476.2845</v>
       </c>
       <c r="G49" t="n">
+        <v>79.41533333333341</v>
+      </c>
+      <c r="H49" t="n">
         <v>79.5156666666666</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
+      <c r="L49" t="n">
+        <v>79</v>
+      </c>
+      <c r="M49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M49" t="n">
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,22 +2517,27 @@
         <v>3805.1992</v>
       </c>
       <c r="G50" t="n">
+        <v>79.39866666666674</v>
+      </c>
+      <c r="H50" t="n">
         <v>79.51716666666658</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
+      <c r="L50" t="n">
+        <v>79</v>
+      </c>
+      <c r="M50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M50" t="n">
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2187,22 +2561,27 @@
         <v>184.6385</v>
       </c>
       <c r="G51" t="n">
+        <v>79.39866666666674</v>
+      </c>
+      <c r="H51" t="n">
         <v>79.52383333333324</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
+      <c r="L51" t="n">
+        <v>79</v>
+      </c>
+      <c r="M51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M51" t="n">
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2226,22 +2605,27 @@
         <v>44</v>
       </c>
       <c r="G52" t="n">
+        <v>79.39466666666675</v>
+      </c>
+      <c r="H52" t="n">
         <v>79.53383333333325</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
+      <c r="L52" t="n">
+        <v>79</v>
+      </c>
+      <c r="M52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M52" t="n">
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2265,22 +2649,27 @@
         <v>163.8671</v>
       </c>
       <c r="G53" t="n">
+        <v>79.38133333333342</v>
+      </c>
+      <c r="H53" t="n">
         <v>79.54349999999992</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
+      <c r="L53" t="n">
+        <v>79</v>
+      </c>
+      <c r="M53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M53" t="n">
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2304,22 +2693,27 @@
         <v>34</v>
       </c>
       <c r="G54" t="n">
+        <v>79.36800000000009</v>
+      </c>
+      <c r="H54" t="n">
         <v>79.54783333333326</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
+      <c r="L54" t="n">
+        <v>79</v>
+      </c>
+      <c r="M54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M54" t="n">
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2343,22 +2737,27 @@
         <v>181.8671</v>
       </c>
       <c r="G55" t="n">
+        <v>79.37733333333343</v>
+      </c>
+      <c r="H55" t="n">
         <v>79.54783333333326</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
+      <c r="L55" t="n">
+        <v>79</v>
+      </c>
+      <c r="M55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M55" t="n">
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2382,22 +2781,27 @@
         <v>14</v>
       </c>
       <c r="G56" t="n">
+        <v>79.36466666666678</v>
+      </c>
+      <c r="H56" t="n">
         <v>79.54233333333326</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
+      <c r="L56" t="n">
+        <v>79</v>
+      </c>
+      <c r="M56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M56" t="n">
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2421,22 +2825,27 @@
         <v>58.7397</v>
       </c>
       <c r="G57" t="n">
+        <v>79.36733333333345</v>
+      </c>
+      <c r="H57" t="n">
         <v>79.53983333333325</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
+      <c r="L57" t="n">
+        <v>79</v>
+      </c>
+      <c r="M57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M57" t="n">
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2460,22 +2869,27 @@
         <v>10000</v>
       </c>
       <c r="G58" t="n">
+        <v>79.36133333333346</v>
+      </c>
+      <c r="H58" t="n">
         <v>79.54649999999991</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
+      <c r="L58" t="n">
+        <v>79</v>
+      </c>
+      <c r="M58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M58" t="n">
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2499,22 +2913,29 @@
         <v>1860.4209</v>
       </c>
       <c r="G59" t="n">
+        <v>79.3546666666668</v>
+      </c>
+      <c r="H59" t="n">
         <v>79.55266666666657</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>79.40000000000001</v>
+      </c>
+      <c r="L59" t="n">
+        <v>79</v>
+      </c>
+      <c r="M59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M59" t="n">
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2538,22 +2959,29 @@
         <v>3479.0437</v>
       </c>
       <c r="G60" t="n">
+        <v>79.36466666666681</v>
+      </c>
+      <c r="H60" t="n">
         <v>79.54983333333324</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>79.40000000000001</v>
+      </c>
+      <c r="L60" t="n">
+        <v>79</v>
+      </c>
+      <c r="M60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M60" t="n">
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2577,22 +3005,27 @@
         <v>2944.9593</v>
       </c>
       <c r="G61" t="n">
+        <v>79.38266666666681</v>
+      </c>
+      <c r="H61" t="n">
         <v>79.54999999999991</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
+      <c r="L61" t="n">
+        <v>79</v>
+      </c>
+      <c r="M61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M61" t="n">
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2616,22 +3049,27 @@
         <v>10</v>
       </c>
       <c r="G62" t="n">
+        <v>79.40066666666681</v>
+      </c>
+      <c r="H62" t="n">
         <v>79.55833333333324</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
+      <c r="L62" t="n">
+        <v>79</v>
+      </c>
+      <c r="M62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M62" t="n">
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2655,22 +3093,27 @@
         <v>4015</v>
       </c>
       <c r="G63" t="n">
+        <v>79.35200000000013</v>
+      </c>
+      <c r="H63" t="n">
         <v>79.56583333333325</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
+      <c r="L63" t="n">
+        <v>79</v>
+      </c>
+      <c r="M63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M63" t="n">
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2694,22 +3137,29 @@
         <v>3629.0246</v>
       </c>
       <c r="G64" t="n">
+        <v>79.37200000000013</v>
+      </c>
+      <c r="H64" t="n">
         <v>79.57333333333324</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>79.45</v>
+      </c>
+      <c r="L64" t="n">
+        <v>79</v>
+      </c>
+      <c r="M64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M64" t="n">
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2733,22 +3183,29 @@
         <v>1658.8108</v>
       </c>
       <c r="G65" t="n">
+        <v>79.38200000000012</v>
+      </c>
+      <c r="H65" t="n">
         <v>79.57833333333323</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>79.45</v>
+      </c>
+      <c r="L65" t="n">
+        <v>79</v>
+      </c>
+      <c r="M65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M65" t="n">
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2772,22 +3229,27 @@
         <v>17</v>
       </c>
       <c r="G66" t="n">
+        <v>79.36666666666679</v>
+      </c>
+      <c r="H66" t="n">
         <v>79.58116666666658</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
+      <c r="L66" t="n">
+        <v>79</v>
+      </c>
+      <c r="M66" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M66" t="n">
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2811,22 +3273,29 @@
         <v>11775.9999</v>
       </c>
       <c r="G67" t="n">
+        <v>79.35800000000013</v>
+      </c>
+      <c r="H67" t="n">
         <v>79.58733333333323</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>79.17</v>
+      </c>
+      <c r="L67" t="n">
+        <v>79</v>
+      </c>
+      <c r="M67" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M67" t="n">
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2850,22 +3319,29 @@
         <v>11164.944</v>
       </c>
       <c r="G68" t="n">
+        <v>79.35000000000014</v>
+      </c>
+      <c r="H68" t="n">
         <v>79.59366666666658</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>79.17</v>
+      </c>
+      <c r="L68" t="n">
+        <v>79</v>
+      </c>
+      <c r="M68" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M68" t="n">
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2889,22 +3365,27 @@
         <v>10091.646</v>
       </c>
       <c r="G69" t="n">
+        <v>79.36400000000013</v>
+      </c>
+      <c r="H69" t="n">
         <v>79.60016666666658</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
+      <c r="L69" t="n">
+        <v>79</v>
+      </c>
+      <c r="M69" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M69" t="n">
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2928,22 +3409,29 @@
         <v>402.4</v>
       </c>
       <c r="G70" t="n">
+        <v>79.35533333333348</v>
+      </c>
+      <c r="H70" t="n">
         <v>79.60633333333324</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>79.37</v>
+      </c>
+      <c r="L70" t="n">
+        <v>79</v>
+      </c>
+      <c r="M70" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M70" t="n">
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2967,22 +3455,27 @@
         <v>2331.9492</v>
       </c>
       <c r="G71" t="n">
+        <v>79.37733333333348</v>
+      </c>
+      <c r="H71" t="n">
         <v>79.61466666666658</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
+      <c r="L71" t="n">
+        <v>79</v>
+      </c>
+      <c r="M71" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M71" t="n">
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3006,22 +3499,27 @@
         <v>4334.3002</v>
       </c>
       <c r="G72" t="n">
+        <v>79.38400000000014</v>
+      </c>
+      <c r="H72" t="n">
         <v>79.61999999999991</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
+      <c r="L72" t="n">
+        <v>79</v>
+      </c>
+      <c r="M72" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M72" t="n">
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3045,22 +3543,27 @@
         <v>807.6264</v>
       </c>
       <c r="G73" t="n">
+        <v>79.38200000000012</v>
+      </c>
+      <c r="H73" t="n">
         <v>79.61066666666656</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
+      <c r="L73" t="n">
+        <v>79</v>
+      </c>
+      <c r="M73" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M73" t="n">
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3084,22 +3587,27 @@
         <v>3588.9766</v>
       </c>
       <c r="G74" t="n">
+        <v>79.38866666666678</v>
+      </c>
+      <c r="H74" t="n">
         <v>79.60533333333323</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
+      <c r="L74" t="n">
+        <v>79</v>
+      </c>
+      <c r="M74" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M74" t="n">
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3123,22 +3631,27 @@
         <v>31835.7217</v>
       </c>
       <c r="G75" t="n">
+        <v>79.38866666666678</v>
+      </c>
+      <c r="H75" t="n">
         <v>79.60783333333323</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
+      <c r="L75" t="n">
+        <v>79</v>
+      </c>
+      <c r="M75" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M75" t="n">
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3162,22 +3675,27 @@
         <v>187.8129</v>
       </c>
       <c r="G76" t="n">
+        <v>79.39533333333344</v>
+      </c>
+      <c r="H76" t="n">
         <v>79.60349999999991</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
+      <c r="L76" t="n">
+        <v>79</v>
+      </c>
+      <c r="M76" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M76" t="n">
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3201,22 +3719,27 @@
         <v>4000</v>
       </c>
       <c r="G77" t="n">
+        <v>79.39533333333344</v>
+      </c>
+      <c r="H77" t="n">
         <v>79.59633333333323</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
+      <c r="L77" t="n">
+        <v>79</v>
+      </c>
+      <c r="M77" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M77" t="n">
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3240,22 +3763,27 @@
         <v>5000</v>
       </c>
       <c r="G78" t="n">
+        <v>79.39200000000011</v>
+      </c>
+      <c r="H78" t="n">
         <v>79.58749999999989</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
+      <c r="L78" t="n">
+        <v>79</v>
+      </c>
+      <c r="M78" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M78" t="n">
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3279,22 +3807,29 @@
         <v>100</v>
       </c>
       <c r="G79" t="n">
+        <v>79.43533333333343</v>
+      </c>
+      <c r="H79" t="n">
         <v>79.58983333333323</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>79.40000000000001</v>
+      </c>
+      <c r="L79" t="n">
+        <v>79</v>
+      </c>
+      <c r="M79" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M79" t="n">
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,22 +3853,27 @@
         <v>6270.52</v>
       </c>
       <c r="G80" t="n">
+        <v>79.49400000000011</v>
+      </c>
+      <c r="H80" t="n">
         <v>79.59333333333323</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
+      <c r="L80" t="n">
+        <v>79</v>
+      </c>
+      <c r="M80" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M80" t="n">
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3357,22 +3897,27 @@
         <v>5500</v>
       </c>
       <c r="G81" t="n">
+        <v>79.56200000000011</v>
+      </c>
+      <c r="H81" t="n">
         <v>79.58416666666656</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
+      <c r="L81" t="n">
+        <v>79</v>
+      </c>
+      <c r="M81" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M81" t="n">
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3396,22 +3941,27 @@
         <v>12138.9184</v>
       </c>
       <c r="G82" t="n">
+        <v>79.63000000000011</v>
+      </c>
+      <c r="H82" t="n">
         <v>79.57166666666656</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
+      <c r="L82" t="n">
+        <v>79</v>
+      </c>
+      <c r="M82" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M82" t="n">
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3435,22 +3985,27 @@
         <v>3167.5086</v>
       </c>
       <c r="G83" t="n">
+        <v>79.69733333333345</v>
+      </c>
+      <c r="H83" t="n">
         <v>79.55916666666657</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
+      <c r="L83" t="n">
+        <v>79</v>
+      </c>
+      <c r="M83" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M83" t="n">
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3474,22 +4029,27 @@
         <v>1031.95</v>
       </c>
       <c r="G84" t="n">
+        <v>79.75266666666678</v>
+      </c>
+      <c r="H84" t="n">
         <v>79.5674999999999</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
+      <c r="L84" t="n">
+        <v>79</v>
+      </c>
+      <c r="M84" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M84" t="n">
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3513,22 +4073,27 @@
         <v>0.5414</v>
       </c>
       <c r="G85" t="n">
+        <v>79.80733333333346</v>
+      </c>
+      <c r="H85" t="n">
         <v>79.57866666666655</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
+      <c r="L85" t="n">
+        <v>79</v>
+      </c>
+      <c r="M85" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M85" t="n">
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3552,22 +4117,27 @@
         <v>74677.8181</v>
       </c>
       <c r="G86" t="n">
+        <v>79.85400000000013</v>
+      </c>
+      <c r="H86" t="n">
         <v>79.5693333333332</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
+      <c r="L86" t="n">
+        <v>79</v>
+      </c>
+      <c r="M86" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M86" t="n">
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3591,22 +4161,27 @@
         <v>100</v>
       </c>
       <c r="G87" t="n">
+        <v>79.93400000000014</v>
+      </c>
+      <c r="H87" t="n">
         <v>79.57116666666654</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
+      <c r="L87" t="n">
+        <v>79</v>
+      </c>
+      <c r="M87" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M87" t="n">
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3630,22 +4205,27 @@
         <v>173.3899</v>
       </c>
       <c r="G88" t="n">
+        <v>79.95666666666681</v>
+      </c>
+      <c r="H88" t="n">
         <v>79.57699999999987</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
+      <c r="L88" t="n">
+        <v>79</v>
+      </c>
+      <c r="M88" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M88" t="n">
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3669,22 +4249,27 @@
         <v>71.747</v>
       </c>
       <c r="G89" t="n">
+        <v>79.96333333333347</v>
+      </c>
+      <c r="H89" t="n">
         <v>79.58066666666654</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
+      <c r="L89" t="n">
+        <v>79</v>
+      </c>
+      <c r="M89" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M89" t="n">
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3708,22 +4293,29 @@
         <v>11589.9855</v>
       </c>
       <c r="G90" t="n">
+        <v>80.04333333333348</v>
+      </c>
+      <c r="H90" t="n">
         <v>79.60283333333321</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
-        <v>1</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>79</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3745,18 +4337,27 @@
         <v>1861.1765</v>
       </c>
       <c r="G91" t="n">
+        <v>80.10800000000015</v>
+      </c>
+      <c r="H91" t="n">
         <v>79.60599999999987</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="L91" t="n">
+        <v>79</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3780,18 +4381,27 @@
         <v>3897.385712833561</v>
       </c>
       <c r="G92" t="n">
+        <v>80.12466666666681</v>
+      </c>
+      <c r="H92" t="n">
         <v>79.59349999999988</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="L92" t="n">
+        <v>79</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3815,18 +4425,27 @@
         <v>100</v>
       </c>
       <c r="G93" t="n">
+        <v>80.2026666666668</v>
+      </c>
+      <c r="H93" t="n">
         <v>79.61133333333321</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="L93" t="n">
+        <v>79</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3850,18 +4469,27 @@
         <v>50</v>
       </c>
       <c r="G94" t="n">
+        <v>80.23400000000014</v>
+      </c>
+      <c r="H94" t="n">
         <v>79.61416666666653</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="L94" t="n">
+        <v>79</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3885,18 +4513,27 @@
         <v>1973.6581</v>
       </c>
       <c r="G95" t="n">
+        <v>80.20533333333347</v>
+      </c>
+      <c r="H95" t="n">
         <v>79.61999999999988</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="L95" t="n">
+        <v>79</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3920,18 +4557,27 @@
         <v>68.2274</v>
       </c>
       <c r="G96" t="n">
+        <v>80.1726666666668</v>
+      </c>
+      <c r="H96" t="n">
         <v>79.62499999999987</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="L96" t="n">
+        <v>79</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3955,18 +4601,27 @@
         <v>8621.6659</v>
       </c>
       <c r="G97" t="n">
+        <v>80.15400000000014</v>
+      </c>
+      <c r="H97" t="n">
         <v>79.63416666666654</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="L97" t="n">
+        <v>79</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3990,18 +4645,27 @@
         <v>138.7474</v>
       </c>
       <c r="G98" t="n">
+        <v>80.1346666666668</v>
+      </c>
+      <c r="H98" t="n">
         <v>79.64083333333321</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="L98" t="n">
+        <v>79</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4025,18 +4689,27 @@
         <v>13647.4989</v>
       </c>
       <c r="G99" t="n">
+        <v>80.12133333333347</v>
+      </c>
+      <c r="H99" t="n">
         <v>79.65149999999988</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="L99" t="n">
+        <v>79</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4060,18 +4733,27 @@
         <v>9002.7317</v>
       </c>
       <c r="G100" t="n">
+        <v>80.12866666666679</v>
+      </c>
+      <c r="H100" t="n">
         <v>79.66716666666656</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="L100" t="n">
+        <v>79</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4095,18 +4777,27 @@
         <v>6416.2495</v>
       </c>
       <c r="G101" t="n">
+        <v>80.11600000000013</v>
+      </c>
+      <c r="H101" t="n">
         <v>79.6779999999999</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="L101" t="n">
+        <v>79</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4130,18 +4821,27 @@
         <v>7889.0567</v>
       </c>
       <c r="G102" t="n">
+        <v>80.07000000000012</v>
+      </c>
+      <c r="H102" t="n">
         <v>79.68883333333324</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="L102" t="n">
+        <v>79</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4165,18 +4865,27 @@
         <v>559</v>
       </c>
       <c r="G103" t="n">
+        <v>80.09000000000012</v>
+      </c>
+      <c r="H103" t="n">
         <v>79.69749999999992</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="L103" t="n">
+        <v>79</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4200,18 +4909,27 @@
         <v>13641.4041</v>
       </c>
       <c r="G104" t="n">
+        <v>80.11733333333345</v>
+      </c>
+      <c r="H104" t="n">
         <v>79.70599999999992</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="L104" t="n">
+        <v>79</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4235,18 +4953,27 @@
         <v>449.9999</v>
       </c>
       <c r="G105" t="n">
+        <v>80.07133333333346</v>
+      </c>
+      <c r="H105" t="n">
         <v>79.71699999999991</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="L105" t="n">
+        <v>79</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4270,18 +4997,27 @@
         <v>5172</v>
       </c>
       <c r="G106" t="n">
+        <v>80.03333333333346</v>
+      </c>
+      <c r="H106" t="n">
         <v>79.72983333333326</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="L106" t="n">
+        <v>79</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4305,18 +5041,27 @@
         <v>7736.4581</v>
       </c>
       <c r="G107" t="n">
+        <v>80.05000000000013</v>
+      </c>
+      <c r="H107" t="n">
         <v>79.74266666666659</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="L107" t="n">
+        <v>79</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4340,18 +5085,27 @@
         <v>161.1233</v>
       </c>
       <c r="G108" t="n">
+        <v>80.01200000000013</v>
+      </c>
+      <c r="H108" t="n">
         <v>79.73966666666659</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="L108" t="n">
+        <v>79</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4375,18 +5129,27 @@
         <v>3138.8767</v>
       </c>
       <c r="G109" t="n">
+        <v>80.02000000000014</v>
+      </c>
+      <c r="H109" t="n">
         <v>79.76533333333326</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="L109" t="n">
+        <v>79</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4410,18 +5173,27 @@
         <v>3700</v>
       </c>
       <c r="G110" t="n">
+        <v>80.08266666666681</v>
+      </c>
+      <c r="H110" t="n">
         <v>79.79099999999993</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="L110" t="n">
+        <v>79</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4445,18 +5217,27 @@
         <v>4000</v>
       </c>
       <c r="G111" t="n">
+        <v>80.1486666666668</v>
+      </c>
+      <c r="H111" t="n">
         <v>79.81249999999993</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="L111" t="n">
+        <v>79</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4480,19 +5261,28 @@
         <v>10352.8741</v>
       </c>
       <c r="G112" t="n">
+        <v>80.20066666666681</v>
+      </c>
+      <c r="H112" t="n">
         <v>79.83566666666658</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>1</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
+      <c r="L112" t="n">
+        <v>79</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>1.016392405063291</v>
       </c>
     </row>
     <row r="113">
@@ -4515,18 +5305,21 @@
         <v>711.9525</v>
       </c>
       <c r="G113" t="n">
+        <v>80.25400000000013</v>
+      </c>
+      <c r="H113" t="n">
         <v>79.85899999999991</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>1</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4550,18 +5343,21 @@
         <v>133.8</v>
       </c>
       <c r="G114" t="n">
+        <v>80.30000000000014</v>
+      </c>
+      <c r="H114" t="n">
         <v>79.8844999999999</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4585,18 +5381,21 @@
         <v>1.1388</v>
       </c>
       <c r="G115" t="n">
+        <v>80.32600000000015</v>
+      </c>
+      <c r="H115" t="n">
         <v>79.90433333333323</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>1</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4620,18 +5419,21 @@
         <v>190.5772</v>
       </c>
       <c r="G116" t="n">
+        <v>80.33200000000014</v>
+      </c>
+      <c r="H116" t="n">
         <v>79.91983333333323</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4655,18 +5457,21 @@
         <v>6323.507</v>
       </c>
       <c r="G117" t="n">
+        <v>80.37800000000014</v>
+      </c>
+      <c r="H117" t="n">
         <v>79.94149999999991</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4690,18 +5495,21 @@
         <v>2835.8492</v>
       </c>
       <c r="G118" t="n">
+        <v>80.39066666666682</v>
+      </c>
+      <c r="H118" t="n">
         <v>79.95483333333324</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4725,18 +5533,21 @@
         <v>183.1106</v>
       </c>
       <c r="G119" t="n">
+        <v>80.43000000000013</v>
+      </c>
+      <c r="H119" t="n">
         <v>79.97483333333325</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4760,18 +5571,21 @@
         <v>5000</v>
       </c>
       <c r="G120" t="n">
+        <v>80.47600000000014</v>
+      </c>
+      <c r="H120" t="n">
         <v>79.99483333333325</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>1</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4795,18 +5609,21 @@
         <v>6005.1738</v>
       </c>
       <c r="G121" t="n">
+        <v>80.52600000000014</v>
+      </c>
+      <c r="H121" t="n">
         <v>80.01566666666659</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>1</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4830,18 +5647,21 @@
         <v>32.8694</v>
       </c>
       <c r="G122" t="n">
+        <v>80.52600000000014</v>
+      </c>
+      <c r="H122" t="n">
         <v>80.02399999999992</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>1</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4865,18 +5685,21 @@
         <v>814.9708000000001</v>
       </c>
       <c r="G123" t="n">
+        <v>80.52666666666681</v>
+      </c>
+      <c r="H123" t="n">
         <v>80.03333333333326</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>1</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4900,18 +5723,21 @@
         <v>3109.1913</v>
       </c>
       <c r="G124" t="n">
+        <v>80.48133333333347</v>
+      </c>
+      <c r="H124" t="n">
         <v>80.04266666666659</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>1</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4935,18 +5761,21 @@
         <v>4000</v>
       </c>
       <c r="G125" t="n">
+        <v>80.43600000000013</v>
+      </c>
+      <c r="H125" t="n">
         <v>80.05449999999993</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>1</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4970,18 +5799,21 @@
         <v>17497</v>
       </c>
       <c r="G126" t="n">
+        <v>80.3906666666668</v>
+      </c>
+      <c r="H126" t="n">
         <v>80.06849999999993</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>1</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5005,18 +5837,21 @@
         <v>3656.9122</v>
       </c>
       <c r="G127" t="n">
+        <v>80.34533333333346</v>
+      </c>
+      <c r="H127" t="n">
         <v>80.08249999999994</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>1</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5040,18 +5875,21 @@
         <v>1725.4649</v>
       </c>
       <c r="G128" t="n">
+        <v>80.29866666666679</v>
+      </c>
+      <c r="H128" t="n">
         <v>80.0961666666666</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5075,18 +5913,21 @@
         <v>1293.937</v>
       </c>
       <c r="G129" t="n">
+        <v>80.25333333333346</v>
+      </c>
+      <c r="H129" t="n">
         <v>80.10683333333327</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5110,18 +5951,21 @@
         <v>1940.9179</v>
       </c>
       <c r="G130" t="n">
+        <v>80.20800000000011</v>
+      </c>
+      <c r="H130" t="n">
         <v>80.11749999999994</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5145,18 +5989,21 @@
         <v>540.5</v>
       </c>
       <c r="G131" t="n">
+        <v>80.18933333333345</v>
+      </c>
+      <c r="H131" t="n">
         <v>80.12283333333328</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5180,18 +6027,21 @@
         <v>9286.724200000001</v>
       </c>
       <c r="G132" t="n">
+        <v>80.14333333333344</v>
+      </c>
+      <c r="H132" t="n">
         <v>80.13133333333327</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5215,18 +6065,21 @@
         <v>4190.8287</v>
       </c>
       <c r="G133" t="n">
+        <v>80.11800000000011</v>
+      </c>
+      <c r="H133" t="n">
         <v>80.13883333333327</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5250,18 +6103,21 @@
         <v>192.8461</v>
       </c>
       <c r="G134" t="n">
+        <v>80.06466666666678</v>
+      </c>
+      <c r="H134" t="n">
         <v>80.14383333333328</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5285,18 +6141,21 @@
         <v>2500</v>
       </c>
       <c r="G135" t="n">
+        <v>80.00466666666676</v>
+      </c>
+      <c r="H135" t="n">
         <v>80.14883333333327</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5320,18 +6179,21 @@
         <v>884.3518</v>
       </c>
       <c r="G136" t="n">
+        <v>79.94133333333343</v>
+      </c>
+      <c r="H136" t="n">
         <v>80.1521666666666</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5355,18 +6217,21 @@
         <v>0.0001</v>
       </c>
       <c r="G137" t="n">
+        <v>79.9280000000001</v>
+      </c>
+      <c r="H137" t="n">
         <v>80.15716666666661</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5390,18 +6255,21 @@
         <v>2366.3999</v>
       </c>
       <c r="G138" t="n">
+        <v>79.91533333333342</v>
+      </c>
+      <c r="H138" t="n">
         <v>80.16416666666662</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5425,18 +6293,21 @@
         <v>2399</v>
       </c>
       <c r="G139" t="n">
+        <v>79.90266666666676</v>
+      </c>
+      <c r="H139" t="n">
         <v>80.15949999999994</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5460,18 +6331,21 @@
         <v>2565.7562</v>
       </c>
       <c r="G140" t="n">
+        <v>79.89066666666675</v>
+      </c>
+      <c r="H140" t="n">
         <v>80.1536666666666</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5495,18 +6369,21 @@
         <v>1412.2252</v>
       </c>
       <c r="G141" t="n">
+        <v>79.92266666666676</v>
+      </c>
+      <c r="H141" t="n">
         <v>80.1586666666666</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5530,18 +6407,21 @@
         <v>7</v>
       </c>
       <c r="G142" t="n">
+        <v>79.95400000000009</v>
+      </c>
+      <c r="H142" t="n">
         <v>80.16349999999993</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5565,18 +6445,21 @@
         <v>27</v>
       </c>
       <c r="G143" t="n">
+        <v>79.94266666666675</v>
+      </c>
+      <c r="H143" t="n">
         <v>80.15749999999994</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5600,18 +6483,21 @@
         <v>1255.7562</v>
       </c>
       <c r="G144" t="n">
+        <v>79.93066666666674</v>
+      </c>
+      <c r="H144" t="n">
         <v>80.15133333333327</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5635,18 +6521,21 @@
         <v>17.97</v>
       </c>
       <c r="G145" t="n">
+        <v>79.91800000000008</v>
+      </c>
+      <c r="H145" t="n">
         <v>80.14516666666661</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5670,18 +6559,21 @@
         <v>24075.446</v>
       </c>
       <c r="G146" t="n">
+        <v>79.91666666666674</v>
+      </c>
+      <c r="H146" t="n">
         <v>80.13849999999995</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5705,18 +6597,21 @@
         <v>22556.777</v>
       </c>
       <c r="G147" t="n">
+        <v>79.89133333333341</v>
+      </c>
+      <c r="H147" t="n">
         <v>80.12066666666662</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5740,18 +6635,21 @@
         <v>66620.45050000001</v>
       </c>
       <c r="G148" t="n">
+        <v>79.87066666666674</v>
+      </c>
+      <c r="H148" t="n">
         <v>80.11733333333329</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5775,18 +6673,21 @@
         <v>7.9523</v>
       </c>
       <c r="G149" t="n">
+        <v>79.91600000000008</v>
+      </c>
+      <c r="H149" t="n">
         <v>80.13199999999993</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5810,18 +6711,21 @@
         <v>66620.45050000001</v>
       </c>
       <c r="G150" t="n">
+        <v>79.89600000000009</v>
+      </c>
+      <c r="H150" t="n">
         <v>80.11199999999994</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5845,18 +6749,21 @@
         <v>4008.2398</v>
       </c>
       <c r="G151" t="n">
+        <v>79.91466666666675</v>
+      </c>
+      <c r="H151" t="n">
         <v>80.10383333333328</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5880,18 +6787,21 @@
         <v>13000</v>
       </c>
       <c r="G152" t="n">
+        <v>79.89533333333341</v>
+      </c>
+      <c r="H152" t="n">
         <v>80.09983333333328</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5915,18 +6825,21 @@
         <v>1335.93</v>
       </c>
       <c r="G153" t="n">
+        <v>79.87466666666676</v>
+      </c>
+      <c r="H153" t="n">
         <v>80.08216666666662</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5950,18 +6863,21 @@
         <v>1006.5163</v>
       </c>
       <c r="G154" t="n">
+        <v>79.87333333333342</v>
+      </c>
+      <c r="H154" t="n">
         <v>80.0693333333333</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5985,18 +6901,21 @@
         <v>26157.7664</v>
       </c>
       <c r="G155" t="n">
+        <v>79.86933333333342</v>
+      </c>
+      <c r="H155" t="n">
         <v>80.06966666666663</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6020,18 +6939,21 @@
         <v>3601.2348</v>
       </c>
       <c r="G156" t="n">
+        <v>79.82666666666675</v>
+      </c>
+      <c r="H156" t="n">
         <v>80.07216666666665</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6055,18 +6977,21 @@
         <v>8271.1263</v>
       </c>
       <c r="G157" t="n">
+        <v>79.77933333333341</v>
+      </c>
+      <c r="H157" t="n">
         <v>80.06983333333332</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6090,18 +7015,21 @@
         <v>7.777</v>
       </c>
       <c r="G158" t="n">
+        <v>79.79066666666675</v>
+      </c>
+      <c r="H158" t="n">
         <v>80.0715</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6125,18 +7053,21 @@
         <v>25252.5311</v>
       </c>
       <c r="G159" t="n">
+        <v>79.80200000000009</v>
+      </c>
+      <c r="H159" t="n">
         <v>80.0715</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6160,18 +7091,21 @@
         <v>4574.0135</v>
       </c>
       <c r="G160" t="n">
+        <v>79.81400000000009</v>
+      </c>
+      <c r="H160" t="n">
         <v>80.06649999999999</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6195,18 +7129,21 @@
         <v>5807.3516</v>
       </c>
       <c r="G161" t="n">
+        <v>79.8600000000001</v>
+      </c>
+      <c r="H161" t="n">
         <v>80.07449999999999</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6230,18 +7167,21 @@
         <v>20461.881</v>
       </c>
       <c r="G162" t="n">
+        <v>79.88466666666676</v>
+      </c>
+      <c r="H162" t="n">
         <v>80.07433333333331</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6265,18 +7205,21 @@
         <v>40520.808</v>
       </c>
       <c r="G163" t="n">
+        <v>79.90200000000009</v>
+      </c>
+      <c r="H163" t="n">
         <v>80.07033333333332</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6300,18 +7243,21 @@
         <v>124.4829</v>
       </c>
       <c r="G164" t="n">
+        <v>79.85466666666676</v>
+      </c>
+      <c r="H164" t="n">
         <v>80.06633333333333</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6335,18 +7281,21 @@
         <v>7</v>
       </c>
       <c r="G165" t="n">
+        <v>79.90800000000009</v>
+      </c>
+      <c r="H165" t="n">
         <v>80.07116666666666</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6370,18 +7319,21 @@
         <v>831.25</v>
       </c>
       <c r="G166" t="n">
+        <v>79.88733333333342</v>
+      </c>
+      <c r="H166" t="n">
         <v>80.06733333333334</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6405,18 +7357,21 @@
         <v>100</v>
       </c>
       <c r="G167" t="n">
+        <v>79.92000000000009</v>
+      </c>
+      <c r="H167" t="n">
         <v>80.06733333333334</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6440,18 +7395,21 @@
         <v>433.1299</v>
       </c>
       <c r="G168" t="n">
+        <v>79.95933333333342</v>
+      </c>
+      <c r="H168" t="n">
         <v>80.069</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6475,18 +7433,21 @@
         <v>12294.5934</v>
       </c>
       <c r="G169" t="n">
+        <v>79.97933333333341</v>
+      </c>
+      <c r="H169" t="n">
         <v>80.05916666666668</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6510,18 +7471,21 @@
         <v>622.66500622665</v>
       </c>
       <c r="G170" t="n">
+        <v>80.01466666666674</v>
+      </c>
+      <c r="H170" t="n">
         <v>80.0526666666667</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6545,18 +7509,21 @@
         <v>656.5718000000001</v>
       </c>
       <c r="G171" t="n">
+        <v>80.04466666666674</v>
+      </c>
+      <c r="H171" t="n">
         <v>80.04616666666671</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6580,18 +7547,21 @@
         <v>7.9841</v>
       </c>
       <c r="G172" t="n">
+        <v>80.07066666666675</v>
+      </c>
+      <c r="H172" t="n">
         <v>80.03733333333338</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6615,18 +7585,21 @@
         <v>30551.1653</v>
       </c>
       <c r="G173" t="n">
+        <v>80.09066666666675</v>
+      </c>
+      <c r="H173" t="n">
         <v>80.03066666666672</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6650,18 +7623,21 @@
         <v>8975.007100000001</v>
       </c>
       <c r="G174" t="n">
+        <v>80.11066666666675</v>
+      </c>
+      <c r="H174" t="n">
         <v>80.02416666666673</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6685,18 +7661,21 @@
         <v>2167.6502</v>
       </c>
       <c r="G175" t="n">
+        <v>80.13066666666674</v>
+      </c>
+      <c r="H175" t="n">
         <v>80.01766666666673</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6720,18 +7699,21 @@
         <v>6353.9875</v>
       </c>
       <c r="G176" t="n">
+        <v>80.11800000000008</v>
+      </c>
+      <c r="H176" t="n">
         <v>80.02100000000006</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6755,18 +7737,21 @@
         <v>9327.574000000001</v>
       </c>
       <c r="G177" t="n">
+        <v>80.12800000000009</v>
+      </c>
+      <c r="H177" t="n">
         <v>80.0118333333334</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6790,18 +7775,21 @@
         <v>7</v>
       </c>
       <c r="G178" t="n">
+        <v>80.17666666666675</v>
+      </c>
+      <c r="H178" t="n">
         <v>80.01683333333339</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6825,18 +7813,21 @@
         <v>20</v>
       </c>
       <c r="G179" t="n">
+        <v>80.22533333333341</v>
+      </c>
+      <c r="H179" t="n">
         <v>80.01516666666673</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6860,18 +7851,21 @@
         <v>932.5499</v>
       </c>
       <c r="G180" t="n">
+        <v>80.23866666666676</v>
+      </c>
+      <c r="H180" t="n">
         <v>80.0118333333334</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6895,18 +7889,21 @@
         <v>6000</v>
       </c>
       <c r="G181" t="n">
+        <v>80.28933333333342</v>
+      </c>
+      <c r="H181" t="n">
         <v>80.00816666666672</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6930,18 +7927,21 @@
         <v>50</v>
       </c>
       <c r="G182" t="n">
+        <v>80.32533333333342</v>
+      </c>
+      <c r="H182" t="n">
         <v>80.01716666666672</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6965,18 +7965,21 @@
         <v>5689.0429</v>
       </c>
       <c r="G183" t="n">
+        <v>80.35400000000008</v>
+      </c>
+      <c r="H183" t="n">
         <v>80.02583333333338</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7000,18 +8003,21 @@
         <v>16737</v>
       </c>
       <c r="G184" t="n">
+        <v>80.36733333333342</v>
+      </c>
+      <c r="H184" t="n">
         <v>80.03066666666672</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7035,18 +8041,21 @@
         <v>9174.558499999999</v>
       </c>
       <c r="G185" t="n">
+        <v>80.36733333333342</v>
+      </c>
+      <c r="H185" t="n">
         <v>80.03550000000004</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7070,18 +8079,21 @@
         <v>6472.9999</v>
       </c>
       <c r="G186" t="n">
+        <v>80.36733333333342</v>
+      </c>
+      <c r="H186" t="n">
         <v>80.04033333333338</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7105,18 +8117,21 @@
         <v>14877.67174602111</v>
       </c>
       <c r="G187" t="n">
+        <v>80.38333333333343</v>
+      </c>
+      <c r="H187" t="n">
         <v>80.04683333333337</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7140,18 +8155,21 @@
         <v>431.9999</v>
       </c>
       <c r="G188" t="n">
+        <v>80.38333333333343</v>
+      </c>
+      <c r="H188" t="n">
         <v>80.05183333333338</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7175,18 +8193,21 @@
         <v>5711.7671</v>
       </c>
       <c r="G189" t="n">
+        <v>80.40000000000009</v>
+      </c>
+      <c r="H189" t="n">
         <v>80.06083333333338</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7210,18 +8231,21 @@
         <v>25218.9999</v>
       </c>
       <c r="G190" t="n">
+        <v>80.40000000000009</v>
+      </c>
+      <c r="H190" t="n">
         <v>80.0656666666667</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>1</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7245,18 +8269,21 @@
         <v>23131.1629</v>
       </c>
       <c r="G191" t="n">
+        <v>80.40000000000009</v>
+      </c>
+      <c r="H191" t="n">
         <v>80.07366666666671</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>1</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7280,18 +8307,21 @@
         <v>78678.7996</v>
       </c>
       <c r="G192" t="n">
+        <v>80.40066666666675</v>
+      </c>
+      <c r="H192" t="n">
         <v>80.07616666666671</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>1</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7315,18 +8345,21 @@
         <v>500</v>
       </c>
       <c r="G193" t="n">
+        <v>80.3780000000001</v>
+      </c>
+      <c r="H193" t="n">
         <v>80.08183333333338</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>1</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7350,18 +8383,21 @@
         <v>1000</v>
       </c>
       <c r="G194" t="n">
+        <v>80.36466666666676</v>
+      </c>
+      <c r="H194" t="n">
         <v>80.0901666666667</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7385,18 +8421,21 @@
         <v>1000</v>
       </c>
       <c r="G195" t="n">
+        <v>80.35133333333343</v>
+      </c>
+      <c r="H195" t="n">
         <v>80.09850000000004</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>1</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7420,18 +8459,21 @@
         <v>6700</v>
       </c>
       <c r="G196" t="n">
+        <v>80.33600000000008</v>
+      </c>
+      <c r="H196" t="n">
         <v>80.10683333333337</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>1</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7455,18 +8497,21 @@
         <v>7426</v>
       </c>
       <c r="G197" t="n">
+        <v>80.32000000000009</v>
+      </c>
+      <c r="H197" t="n">
         <v>80.11516666666671</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7490,18 +8535,21 @@
         <v>450</v>
       </c>
       <c r="G198" t="n">
+        <v>80.30466666666675</v>
+      </c>
+      <c r="H198" t="n">
         <v>80.12316666666672</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7525,18 +8573,21 @@
         <v>2500</v>
       </c>
       <c r="G199" t="n">
+        <v>80.29800000000009</v>
+      </c>
+      <c r="H199" t="n">
         <v>80.12950000000005</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>1</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7560,18 +8611,21 @@
         <v>246.2571</v>
       </c>
       <c r="G200" t="n">
+        <v>80.29133333333343</v>
+      </c>
+      <c r="H200" t="n">
         <v>80.13566666666672</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7595,18 +8649,21 @@
         <v>2500</v>
       </c>
       <c r="G201" t="n">
+        <v>80.28466666666677</v>
+      </c>
+      <c r="H201" t="n">
         <v>80.13083333333338</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7630,18 +8687,21 @@
         <v>4004.6042</v>
       </c>
       <c r="G202" t="n">
+        <v>80.31133333333342</v>
+      </c>
+      <c r="H202" t="n">
         <v>80.13616666666672</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7665,18 +8725,21 @@
         <v>3040.0822</v>
       </c>
       <c r="G203" t="n">
+        <v>80.34133333333344</v>
+      </c>
+      <c r="H203" t="n">
         <v>80.15150000000007</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7700,18 +8763,21 @@
         <v>15.738</v>
       </c>
       <c r="G204" t="n">
+        <v>80.3580000000001</v>
+      </c>
+      <c r="H204" t="n">
         <v>80.16766666666673</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>1</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7735,18 +8801,21 @@
         <v>2118.5608</v>
       </c>
       <c r="G205" t="n">
+        <v>80.3880000000001</v>
+      </c>
+      <c r="H205" t="n">
         <v>80.18316666666674</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>1</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7770,18 +8839,21 @@
         <v>41260.7939</v>
       </c>
       <c r="G206" t="n">
+        <v>80.3820000000001</v>
+      </c>
+      <c r="H206" t="n">
         <v>80.19000000000007</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>1</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7805,18 +8877,21 @@
         <v>9632.201800000001</v>
       </c>
       <c r="G207" t="n">
+        <v>80.38466666666677</v>
+      </c>
+      <c r="H207" t="n">
         <v>80.19950000000007</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>1</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7840,18 +8915,21 @@
         <v>7822.801</v>
       </c>
       <c r="G208" t="n">
+        <v>80.3840000000001</v>
+      </c>
+      <c r="H208" t="n">
         <v>80.21016666666672</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>1</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7875,18 +8953,21 @@
         <v>1380</v>
       </c>
       <c r="G209" t="n">
+        <v>80.36000000000011</v>
+      </c>
+      <c r="H209" t="n">
         <v>80.20116666666672</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>1</v>
+      </c>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7910,18 +8991,21 @@
         <v>20765.0519</v>
       </c>
       <c r="G210" t="n">
+        <v>80.35333333333345</v>
+      </c>
+      <c r="H210" t="n">
         <v>80.21283333333339</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>1</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7945,18 +9029,21 @@
         <v>1000</v>
       </c>
       <c r="G211" t="n">
+        <v>80.34666666666679</v>
+      </c>
+      <c r="H211" t="n">
         <v>80.21483333333339</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7980,18 +9067,21 @@
         <v>29020.8391</v>
       </c>
       <c r="G212" t="n">
+        <v>80.32000000000014</v>
+      </c>
+      <c r="H212" t="n">
         <v>80.22133333333338</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8015,18 +9105,21 @@
         <v>7</v>
       </c>
       <c r="G213" t="n">
+        <v>80.31333333333347</v>
+      </c>
+      <c r="H213" t="n">
         <v>80.23283333333337</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8050,18 +9143,21 @@
         <v>3373</v>
       </c>
       <c r="G214" t="n">
+        <v>80.29333333333348</v>
+      </c>
+      <c r="H214" t="n">
         <v>80.23450000000003</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8085,18 +9181,21 @@
         <v>7730.0278</v>
       </c>
       <c r="G215" t="n">
+        <v>80.27333333333348</v>
+      </c>
+      <c r="H215" t="n">
         <v>80.23666666666668</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8120,18 +9219,21 @@
         <v>31.1393</v>
       </c>
       <c r="G216" t="n">
+        <v>80.24533333333348</v>
+      </c>
+      <c r="H216" t="n">
         <v>80.2355</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8155,18 +9257,21 @@
         <v>18110.3497</v>
       </c>
       <c r="G217" t="n">
+        <v>80.17733333333348</v>
+      </c>
+      <c r="H217" t="n">
         <v>80.23566666666666</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8190,18 +9295,21 @@
         <v>0.0001</v>
       </c>
       <c r="G218" t="n">
+        <v>80.11266666666681</v>
+      </c>
+      <c r="H218" t="n">
         <v>80.23199999999999</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8225,18 +9333,21 @@
         <v>7</v>
       </c>
       <c r="G219" t="n">
+        <v>80.07266666666682</v>
+      </c>
+      <c r="H219" t="n">
         <v>80.23533333333332</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8260,18 +9371,21 @@
         <v>16023</v>
       </c>
       <c r="G220" t="n">
+        <v>80.00733333333348</v>
+      </c>
+      <c r="H220" t="n">
         <v>80.2315</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8295,18 +9409,21 @@
         <v>3664</v>
       </c>
       <c r="G221" t="n">
+        <v>79.97800000000014</v>
+      </c>
+      <c r="H221" t="n">
         <v>80.2195</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8330,18 +9447,21 @@
         <v>16.7178</v>
       </c>
       <c r="G222" t="n">
+        <v>79.95133333333347</v>
+      </c>
+      <c r="H222" t="n">
         <v>80.21616666666667</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8365,18 +9485,21 @@
         <v>10031.2114</v>
       </c>
       <c r="G223" t="n">
+        <v>79.92600000000013</v>
+      </c>
+      <c r="H223" t="n">
         <v>80.21616666666667</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8400,18 +9523,21 @@
         <v>7028.4631</v>
       </c>
       <c r="G224" t="n">
+        <v>79.91000000000012</v>
+      </c>
+      <c r="H224" t="n">
         <v>80.21499999999999</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8435,18 +9561,21 @@
         <v>769.0282</v>
       </c>
       <c r="G225" t="n">
+        <v>79.87666666666679</v>
+      </c>
+      <c r="H225" t="n">
         <v>80.20499999999998</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8470,18 +9599,21 @@
         <v>6259.4349</v>
       </c>
       <c r="G226" t="n">
+        <v>79.84400000000012</v>
+      </c>
+      <c r="H226" t="n">
         <v>80.20399999999998</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8505,18 +9637,21 @@
         <v>17112.7921</v>
       </c>
       <c r="G227" t="n">
+        <v>79.88466666666679</v>
+      </c>
+      <c r="H227" t="n">
         <v>80.21249999999999</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8540,18 +9675,21 @@
         <v>1939.3341</v>
       </c>
       <c r="G228" t="n">
+        <v>79.87133333333345</v>
+      </c>
+      <c r="H228" t="n">
         <v>80.21083333333331</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8575,18 +9713,21 @@
         <v>7041.4519</v>
       </c>
       <c r="G229" t="n">
+        <v>79.90933333333345</v>
+      </c>
+      <c r="H229" t="n">
         <v>80.21699999999997</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8610,18 +9751,21 @@
         <v>10950.2096</v>
       </c>
       <c r="G230" t="n">
+        <v>79.91000000000011</v>
+      </c>
+      <c r="H230" t="n">
         <v>80.21049999999997</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8645,18 +9789,21 @@
         <v>7109.26</v>
       </c>
       <c r="G231" t="n">
+        <v>79.91866666666678</v>
+      </c>
+      <c r="H231" t="n">
         <v>80.20399999999997</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8680,18 +9827,21 @@
         <v>500</v>
       </c>
       <c r="G232" t="n">
+        <v>79.91866666666678</v>
+      </c>
+      <c r="H232" t="n">
         <v>80.19766666666663</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8715,18 +9865,21 @@
         <v>43496.749</v>
       </c>
       <c r="G233" t="n">
+        <v>79.91866666666678</v>
+      </c>
+      <c r="H233" t="n">
         <v>80.18899999999995</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8750,18 +9903,21 @@
         <v>173.7137</v>
       </c>
       <c r="G234" t="n">
+        <v>79.89066666666677</v>
+      </c>
+      <c r="H234" t="n">
         <v>80.18033333333328</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8785,18 +9941,21 @@
         <v>10085.8765</v>
       </c>
       <c r="G235" t="n">
+        <v>79.90600000000012</v>
+      </c>
+      <c r="H235" t="n">
         <v>80.17533333333328</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8820,18 +9979,21 @@
         <v>1836.451</v>
       </c>
       <c r="G236" t="n">
+        <v>79.92133333333345</v>
+      </c>
+      <c r="H236" t="n">
         <v>80.17033333333328</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8855,18 +10017,21 @@
         <v>27155.3593</v>
       </c>
       <c r="G237" t="n">
+        <v>79.93466666666679</v>
+      </c>
+      <c r="H237" t="n">
         <v>80.16783333333328</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8890,18 +10055,21 @@
         <v>807.2658</v>
       </c>
       <c r="G238" t="n">
+        <v>79.95000000000012</v>
+      </c>
+      <c r="H238" t="n">
         <v>80.15949999999995</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8925,18 +10093,419 @@
         <v>16075.9985</v>
       </c>
       <c r="G239" t="n">
+        <v>79.95866666666679</v>
+      </c>
+      <c r="H239" t="n">
         <v>80.14833333333328</v>
       </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>80.3</v>
+      </c>
+      <c r="C240" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="D240" t="n">
+        <v>80.3</v>
+      </c>
+      <c r="E240" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="F240" t="n">
+        <v>6348.8139</v>
+      </c>
+      <c r="G240" t="n">
+        <v>79.96533333333345</v>
+      </c>
+      <c r="H240" t="n">
+        <v>80.13666666666661</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="C241" t="n">
+        <v>79.79000000000001</v>
+      </c>
+      <c r="D241" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="E241" t="n">
+        <v>79.75</v>
+      </c>
+      <c r="F241" t="n">
+        <v>18735.116</v>
+      </c>
+      <c r="G241" t="n">
+        <v>79.97066666666677</v>
+      </c>
+      <c r="H241" t="n">
+        <v>80.12433333333328</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="C242" t="n">
+        <v>79.75</v>
+      </c>
+      <c r="D242" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="E242" t="n">
+        <v>79.75</v>
+      </c>
+      <c r="F242" t="n">
+        <v>4262.9629</v>
+      </c>
+      <c r="G242" t="n">
+        <v>79.9200000000001</v>
+      </c>
+      <c r="H242" t="n">
+        <v>80.11116666666662</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>79.75</v>
+      </c>
+      <c r="C243" t="n">
+        <v>79.75</v>
+      </c>
+      <c r="D243" t="n">
+        <v>79.75</v>
+      </c>
+      <c r="E243" t="n">
+        <v>79.75</v>
+      </c>
+      <c r="F243" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G243" t="n">
+        <v>79.90333333333344</v>
+      </c>
+      <c r="H243" t="n">
+        <v>80.09816666666663</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>79.75</v>
+      </c>
+      <c r="C244" t="n">
+        <v>79.75</v>
+      </c>
+      <c r="D244" t="n">
+        <v>79.75</v>
+      </c>
+      <c r="E244" t="n">
+        <v>79.75</v>
+      </c>
+      <c r="F244" t="n">
+        <v>787.9999</v>
+      </c>
+      <c r="G244" t="n">
+        <v>79.85533333333343</v>
+      </c>
+      <c r="H244" t="n">
+        <v>80.08899999999996</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>79.75</v>
+      </c>
+      <c r="C245" t="n">
+        <v>79.75</v>
+      </c>
+      <c r="D245" t="n">
+        <v>79.75</v>
+      </c>
+      <c r="E245" t="n">
+        <v>79.75</v>
+      </c>
+      <c r="F245" t="n">
+        <v>11294.9999</v>
+      </c>
+      <c r="G245" t="n">
+        <v>79.84466666666677</v>
+      </c>
+      <c r="H245" t="n">
+        <v>80.07983333333328</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>79.75</v>
+      </c>
+      <c r="C246" t="n">
+        <v>79.72</v>
+      </c>
+      <c r="D246" t="n">
+        <v>79.75</v>
+      </c>
+      <c r="E246" t="n">
+        <v>79.72</v>
+      </c>
+      <c r="F246" t="n">
+        <v>19596.6241</v>
+      </c>
+      <c r="G246" t="n">
+        <v>79.83200000000009</v>
+      </c>
+      <c r="H246" t="n">
+        <v>80.07016666666662</v>
+      </c>
+      <c r="I246" t="n">
+        <v>1</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
+      <c r="K246" t="n">
+        <v>79.75</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N246" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>79.73</v>
+      </c>
+      <c r="C247" t="n">
+        <v>79.78</v>
+      </c>
+      <c r="D247" t="n">
+        <v>79.78</v>
+      </c>
+      <c r="E247" t="n">
+        <v>79.72</v>
+      </c>
+      <c r="F247" t="n">
+        <v>10261.4255</v>
+      </c>
+      <c r="G247" t="n">
+        <v>79.83200000000009</v>
+      </c>
+      <c r="H247" t="n">
+        <v>80.05983333333329</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N247" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>79.78</v>
+      </c>
+      <c r="C248" t="n">
+        <v>79.72</v>
+      </c>
+      <c r="D248" t="n">
+        <v>79.78</v>
+      </c>
+      <c r="E248" t="n">
+        <v>79.72</v>
+      </c>
+      <c r="F248" t="n">
+        <v>2324.1113</v>
+      </c>
+      <c r="G248" t="n">
+        <v>79.8280000000001</v>
+      </c>
+      <c r="H248" t="n">
+        <v>80.05016666666663</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N248" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>79.72</v>
+      </c>
+      <c r="C249" t="n">
+        <v>79.72</v>
+      </c>
+      <c r="D249" t="n">
+        <v>79.72</v>
+      </c>
+      <c r="E249" t="n">
+        <v>79.72</v>
+      </c>
+      <c r="F249" t="n">
+        <v>2542.2974</v>
+      </c>
+      <c r="G249" t="n">
+        <v>79.8240000000001</v>
+      </c>
+      <c r="H249" t="n">
+        <v>80.03633333333329</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
+      <c r="M249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N249" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-15 BackTest ENJ.xlsx
+++ b/BackTest/2020-01-15 BackTest ENJ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-205555.0568</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-205555.0568</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-231808.1333</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-231773.1333</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-232297.1333</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-232297.1333</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-232146.0186</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-235932.0186</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-230042.0186</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-230042.0186</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-230042.0186</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-238802.0186</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-234014.5414</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-243182.2308</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-244752.2308</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-268739.811</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-282866.811</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-282866.811</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-347996.3954</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-337996.3954</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-362406.3181</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-362406.3181</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-362406.3181</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-362406.3181</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-429806.1203</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-455193.9346999999</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-456063.8974999999</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-456063.8974999999</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-456063.8974999999</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-456049.3831999999</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-456056.3831999999</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-456049.4062999999</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-444035.4402999999</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-444464.8491999999</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-444915.6986999999</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-444915.6986999999</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-444922.6986999999</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -3751,17 +3751,11 @@
         <v>-474982.2168</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I102" t="n">
-        <v>79.48999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3790,17 +3784,11 @@
         <v>-485758.9795</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
-      </c>
-      <c r="I103" t="n">
-        <v>79.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3829,17 +3817,11 @@
         <v>-487448.3892</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
-      </c>
-      <c r="I104" t="n">
-        <v>79.34999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3872,11 +3854,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3909,11 +3887,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3946,11 +3920,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3983,11 +3953,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4020,11 +3986,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4057,11 +4019,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4094,11 +4052,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4131,11 +4085,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4168,11 +4118,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4205,11 +4151,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4242,11 +4184,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4279,11 +4217,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4316,11 +4250,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4349,17 +4279,11 @@
         <v>-544106.1446999999</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
-      </c>
-      <c r="I118" t="n">
-        <v>79.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4392,11 +4316,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4429,11 +4349,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4466,11 +4382,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4503,11 +4415,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4536,17 +4444,11 @@
         <v>-549779.9554999999</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
-      </c>
-      <c r="I123" t="n">
-        <v>79.45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4575,17 +4477,11 @@
         <v>-549796.9554999999</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
-      </c>
-      <c r="I124" t="n">
-        <v>79.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4614,17 +4510,11 @@
         <v>-549796.9554999999</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
-      </c>
-      <c r="I125" t="n">
-        <v>79.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4653,17 +4543,11 @@
         <v>-538632.0114999999</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
-      </c>
-      <c r="I126" t="n">
-        <v>79.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4692,17 +4576,11 @@
         <v>-528540.3655</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
-      </c>
-      <c r="I127" t="n">
-        <v>79.18000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4735,11 +4613,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4772,11 +4646,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4809,11 +4679,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4846,11 +4712,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4883,11 +4745,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4920,11 +4778,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4957,11 +4811,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4990,17 +4840,11 @@
         <v>-527239.2531999999</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
-      </c>
-      <c r="I135" t="n">
-        <v>79.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5033,11 +4877,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5066,17 +4906,11 @@
         <v>-532139.2531999999</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
-      </c>
-      <c r="I137" t="n">
-        <v>79.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5109,11 +4943,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5146,11 +4976,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5179,17 +5005,11 @@
         <v>-520368.7331999999</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
-      </c>
-      <c r="I140" t="n">
-        <v>80.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5222,11 +5042,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5259,11 +5075,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5296,11 +5108,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5333,11 +5141,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5370,11 +5174,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5403,16 +5203,14 @@
         <v>-444732.8963999999</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
       <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
@@ -5471,14 +5269,10 @@
         <v>-433214.6578999999</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
-      </c>
-      <c r="I148" t="n">
-        <v>79.59999999999999</v>
-      </c>
-      <c r="J148" t="n">
-        <v>79.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
@@ -5508,19 +5302,11 @@
         <v>-435075.8343999999</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
-      </c>
-      <c r="I149" t="n">
-        <v>80.7</v>
-      </c>
-      <c r="J149" t="n">
-        <v>79.59999999999999</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5549,19 +5335,11 @@
         <v>-438973.2201128334</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
-      </c>
-      <c r="I150" t="n">
-        <v>80.56999999999999</v>
-      </c>
-      <c r="J150" t="n">
-        <v>79.59999999999999</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5590,14 +5368,10 @@
         <v>-438873.2201128334</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
-      </c>
-      <c r="I151" t="n">
-        <v>79.75</v>
-      </c>
-      <c r="J151" t="n">
-        <v>79.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
@@ -5627,17 +5401,11 @@
         <v>-438873.2201128334</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>79.75</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5666,17 +5434,11 @@
         <v>-440846.8782128334</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>79.75</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5705,7 +5467,7 @@
         <v>-440915.1056128334</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5936,7 +5698,7 @@
         <v>-416198.2060128333</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5969,7 +5731,7 @@
         <v>-416198.2060128333</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6959,7 +6721,7 @@
         <v>-398454.6889128334</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -8048,7 +7810,7 @@
         <v>-666732.1615128333</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -9698,10 +9460,14 @@
         <v>-818957.1868605857</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>79.78</v>
+      </c>
+      <c r="J275" t="n">
+        <v>79.78</v>
+      </c>
       <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
@@ -9734,8 +9500,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>79.78</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9764,11 +9536,19 @@
         <v>-818950.1868605857</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>79.78</v>
+      </c>
+      <c r="J277" t="n">
+        <v>79.78</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9797,11 +9577,19 @@
         <v>-834973.1868605857</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>80.2</v>
+      </c>
+      <c r="J278" t="n">
+        <v>79.78</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9830,11 +9618,19 @@
         <v>-834973.1868605857</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>79.77</v>
+      </c>
+      <c r="J279" t="n">
+        <v>79.78</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9863,11 +9659,19 @@
         <v>-834956.4690605857</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>79.77</v>
+      </c>
+      <c r="J280" t="n">
+        <v>79.78</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9896,11 +9700,19 @@
         <v>-844987.6804605857</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="J281" t="n">
+        <v>79.78</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9932,8 +9744,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>79.78</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9962,11 +9780,19 @@
         <v>-852016.1435605858</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>79.7</v>
+      </c>
+      <c r="J283" t="n">
+        <v>79.78</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9995,11 +9821,19 @@
         <v>-845756.7086605858</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>79.7</v>
+      </c>
+      <c r="J284" t="n">
+        <v>79.78</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10028,11 +9862,19 @@
         <v>-828643.9165605858</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>79.70999999999999</v>
+      </c>
+      <c r="J285" t="n">
+        <v>79.78</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10064,8 +9906,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>79.78</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10097,8 +9945,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>79.78</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10130,8 +9984,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>79.78</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10163,8 +10023,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>79.78</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10196,8 +10062,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>79.78</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10226,11 +10098,19 @@
         <v>-834992.0083605858</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>79.78</v>
+      </c>
+      <c r="J291" t="n">
+        <v>79.78</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10262,8 +10142,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>79.78</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10292,11 +10178,19 @@
         <v>-824906.1318605858</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>79.78</v>
+      </c>
+      <c r="J293" t="n">
+        <v>79.78</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10328,8 +10222,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>79.78</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10358,11 +10258,19 @@
         <v>-824906.1318605858</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>80</v>
+      </c>
+      <c r="J295" t="n">
+        <v>79.78</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10394,8 +10302,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>79.78</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10424,11 +10338,19 @@
         <v>-840982.1303605858</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>80</v>
+      </c>
+      <c r="J297" t="n">
+        <v>79.78</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10460,8 +10382,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>79.78</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10490,11 +10418,19 @@
         <v>-866066.0602605857</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="J299" t="n">
+        <v>79.78</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10523,11 +10459,19 @@
         <v>-870329.0231605858</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>79.79000000000001</v>
+      </c>
+      <c r="J300" t="n">
+        <v>79.78</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10556,11 +10500,19 @@
         <v>-870329.0231605858</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>79.75</v>
+      </c>
+      <c r="J301" t="n">
+        <v>79.78</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10589,11 +10541,19 @@
         <v>-870329.0231605858</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>79.75</v>
+      </c>
+      <c r="J302" t="n">
+        <v>79.78</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10622,11 +10582,19 @@
         <v>-870329.0231605858</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>79.75</v>
+      </c>
+      <c r="J303" t="n">
+        <v>79.78</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10655,11 +10623,19 @@
         <v>-889925.6472605858</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>79.75</v>
+      </c>
+      <c r="J304" t="n">
+        <v>79.78</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10688,11 +10664,19 @@
         <v>-879664.2217605858</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>79.72</v>
+      </c>
+      <c r="J305" t="n">
+        <v>79.78</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10721,11 +10705,19 @@
         <v>-881988.3330605858</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>79.78</v>
+      </c>
+      <c r="J306" t="n">
+        <v>79.78</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10754,17 +10746,25 @@
         <v>-881988.3330605858</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>79.72</v>
+      </c>
+      <c r="J307" t="n">
+        <v>79.78</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
       <c r="M307" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest ENJ.xlsx
+++ b/BackTest/2020-01-15 BackTest ENJ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-205555.0568</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-205555.0568</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-231808.1333</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-231773.1333</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-232297.1333</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-232297.1333</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-232146.0186</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-235932.0186</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-230042.0186</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-230042.0186</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-230042.0186</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-238802.0186</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-234014.5414</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-243182.2308</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-244752.2308</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-268739.811</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-282866.811</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-282866.811</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-347996.3954</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-337996.3954</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-362406.3181</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-362406.3181</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-362406.3181</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-362406.3181</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-429806.1203</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-455193.9346999999</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-456063.8974999999</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-456063.8974999999</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-456063.8974999999</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-456049.3831999999</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-456056.3831999999</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-456049.4062999999</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-444035.4402999999</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-444464.8491999999</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-444915.6986999999</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-444915.6986999999</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-444922.6986999999</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-547585.1884</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-544106.1446999999</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-544106.1446999999</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-414356.0962128333</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-414172.9856128333</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-409172.9856128333</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-403167.8118128333</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -9460,14 +9460,10 @@
         <v>-818957.1868605857</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>79.78</v>
-      </c>
-      <c r="J275" t="n">
-        <v>79.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
@@ -9500,14 +9496,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>79.78</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9536,19 +9526,11 @@
         <v>-818950.1868605857</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>79.78</v>
-      </c>
-      <c r="J277" t="n">
-        <v>79.78</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9577,1106 +9559,908 @@
         <v>-834973.1868605857</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="J278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>79.77</v>
+      </c>
+      <c r="C279" t="n">
+        <v>79.77</v>
+      </c>
+      <c r="D279" t="n">
+        <v>79.77</v>
+      </c>
+      <c r="E279" t="n">
+        <v>79.77</v>
+      </c>
+      <c r="F279" t="n">
+        <v>3664</v>
+      </c>
+      <c r="G279" t="n">
+        <v>-834973.1868605857</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="C280" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="D280" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="E280" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="F280" t="n">
+        <v>16.7178</v>
+      </c>
+      <c r="G280" t="n">
+        <v>-834956.4690605857</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>79.81</v>
+      </c>
+      <c r="C281" t="n">
+        <v>79.77</v>
+      </c>
+      <c r="D281" t="n">
+        <v>79.81</v>
+      </c>
+      <c r="E281" t="n">
+        <v>79.77</v>
+      </c>
+      <c r="F281" t="n">
+        <v>10031.2114</v>
+      </c>
+      <c r="G281" t="n">
+        <v>-844987.6804605857</v>
+      </c>
+      <c r="H281" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>79.77</v>
+      </c>
+      <c r="C282" t="n">
+        <v>79.7</v>
+      </c>
+      <c r="D282" t="n">
+        <v>79.77</v>
+      </c>
+      <c r="E282" t="n">
+        <v>79.7</v>
+      </c>
+      <c r="F282" t="n">
+        <v>7028.4631</v>
+      </c>
+      <c r="G282" t="n">
+        <v>-852016.1435605858</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>79.7</v>
+      </c>
+      <c r="C283" t="n">
+        <v>79.7</v>
+      </c>
+      <c r="D283" t="n">
+        <v>79.7</v>
+      </c>
+      <c r="E283" t="n">
+        <v>79.7</v>
+      </c>
+      <c r="F283" t="n">
+        <v>769.0282</v>
+      </c>
+      <c r="G283" t="n">
+        <v>-852016.1435605858</v>
+      </c>
+      <c r="H283" t="n">
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>79.7</v>
+      </c>
+      <c r="C284" t="n">
+        <v>79.70999999999999</v>
+      </c>
+      <c r="D284" t="n">
+        <v>79.70999999999999</v>
+      </c>
+      <c r="E284" t="n">
+        <v>79.7</v>
+      </c>
+      <c r="F284" t="n">
+        <v>6259.4349</v>
+      </c>
+      <c r="G284" t="n">
+        <v>-845756.7086605858</v>
+      </c>
+      <c r="H284" t="n">
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>79.70999999999999</v>
+      </c>
+      <c r="C285" t="n">
+        <v>80.51000000000001</v>
+      </c>
+      <c r="D285" t="n">
+        <v>80.51000000000001</v>
+      </c>
+      <c r="E285" t="n">
+        <v>79.7</v>
+      </c>
+      <c r="F285" t="n">
+        <v>17112.7921</v>
+      </c>
+      <c r="G285" t="n">
+        <v>-828643.9165605858</v>
+      </c>
+      <c r="H285" t="n">
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>80</v>
+      </c>
+      <c r="C286" t="n">
+        <v>80</v>
+      </c>
+      <c r="D286" t="n">
+        <v>80</v>
+      </c>
+      <c r="E286" t="n">
+        <v>80</v>
+      </c>
+      <c r="F286" t="n">
+        <v>1939.3341</v>
+      </c>
+      <c r="G286" t="n">
+        <v>-830583.2506605858</v>
+      </c>
+      <c r="H286" t="n">
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>79.70999999999999</v>
+      </c>
+      <c r="C287" t="n">
+        <v>80.47</v>
+      </c>
+      <c r="D287" t="n">
+        <v>80.47</v>
+      </c>
+      <c r="E287" t="n">
+        <v>79.70999999999999</v>
+      </c>
+      <c r="F287" t="n">
+        <v>7041.4519</v>
+      </c>
+      <c r="G287" t="n">
+        <v>-823541.7987605858</v>
+      </c>
+      <c r="H287" t="n">
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>80</v>
+      </c>
+      <c r="C288" t="n">
+        <v>79.91</v>
+      </c>
+      <c r="D288" t="n">
+        <v>80</v>
+      </c>
+      <c r="E288" t="n">
+        <v>79.91</v>
+      </c>
+      <c r="F288" t="n">
+        <v>10950.2096</v>
+      </c>
+      <c r="G288" t="n">
+        <v>-834492.0083605858</v>
+      </c>
+      <c r="H288" t="n">
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="n">
+        <v>79.91</v>
+      </c>
+      <c r="C289" t="n">
+        <v>79.91</v>
+      </c>
+      <c r="D289" t="n">
+        <v>79.91</v>
+      </c>
+      <c r="E289" t="n">
+        <v>79.91</v>
+      </c>
+      <c r="F289" t="n">
+        <v>7109.26</v>
+      </c>
+      <c r="G289" t="n">
+        <v>-834492.0083605858</v>
+      </c>
+      <c r="H289" t="n">
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="n">
         <v>79.78</v>
       </c>
-      <c r="K278" t="inlineStr">
+      <c r="C290" t="n">
+        <v>79.78</v>
+      </c>
+      <c r="D290" t="n">
+        <v>79.78</v>
+      </c>
+      <c r="E290" t="n">
+        <v>79.78</v>
+      </c>
+      <c r="F290" t="n">
+        <v>500</v>
+      </c>
+      <c r="G290" t="n">
+        <v>-834992.0083605858</v>
+      </c>
+      <c r="H290" t="n">
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>79.78</v>
+      </c>
+      <c r="C291" t="n">
+        <v>79.78</v>
+      </c>
+      <c r="D291" t="n">
+        <v>79.78</v>
+      </c>
+      <c r="E291" t="n">
+        <v>79.78</v>
+      </c>
+      <c r="F291" t="n">
+        <v>43496.749</v>
+      </c>
+      <c r="G291" t="n">
+        <v>-834992.0083605858</v>
+      </c>
+      <c r="H291" t="n">
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>79.78</v>
+      </c>
+      <c r="C292" t="n">
+        <v>79.78</v>
+      </c>
+      <c r="D292" t="n">
+        <v>79.78</v>
+      </c>
+      <c r="E292" t="n">
+        <v>79.78</v>
+      </c>
+      <c r="F292" t="n">
+        <v>173.7137</v>
+      </c>
+      <c r="G292" t="n">
+        <v>-834992.0083605858</v>
+      </c>
+      <c r="H292" t="n">
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
+        <v>79.78</v>
+      </c>
+      <c r="C293" t="n">
+        <v>80</v>
+      </c>
+      <c r="D293" t="n">
+        <v>80</v>
+      </c>
+      <c r="E293" t="n">
+        <v>79.78</v>
+      </c>
+      <c r="F293" t="n">
+        <v>10085.8765</v>
+      </c>
+      <c r="G293" t="n">
+        <v>-824906.1318605858</v>
+      </c>
+      <c r="H293" t="n">
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
+        <v>80</v>
+      </c>
+      <c r="C294" t="n">
+        <v>80</v>
+      </c>
+      <c r="D294" t="n">
+        <v>80.09999999999999</v>
+      </c>
+      <c r="E294" t="n">
+        <v>80</v>
+      </c>
+      <c r="F294" t="n">
+        <v>1836.451</v>
+      </c>
+      <c r="G294" t="n">
+        <v>-824906.1318605858</v>
+      </c>
+      <c r="H294" t="n">
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="n">
+        <v>80</v>
+      </c>
+      <c r="C295" t="n">
+        <v>80</v>
+      </c>
+      <c r="D295" t="n">
+        <v>80</v>
+      </c>
+      <c r="E295" t="n">
+        <v>80</v>
+      </c>
+      <c r="F295" t="n">
+        <v>27155.3593</v>
+      </c>
+      <c r="G295" t="n">
+        <v>-824906.1318605858</v>
+      </c>
+      <c r="H295" t="n">
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="n">
+        <v>80</v>
+      </c>
+      <c r="C296" t="n">
+        <v>80</v>
+      </c>
+      <c r="D296" t="n">
+        <v>80</v>
+      </c>
+      <c r="E296" t="n">
+        <v>80</v>
+      </c>
+      <c r="F296" t="n">
+        <v>807.2658</v>
+      </c>
+      <c r="G296" t="n">
+        <v>-824906.1318605858</v>
+      </c>
+      <c r="H296" t="n">
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="n">
+        <v>79.83</v>
+      </c>
+      <c r="C297" t="n">
+        <v>79.83</v>
+      </c>
+      <c r="D297" t="n">
+        <v>79.83</v>
+      </c>
+      <c r="E297" t="n">
+        <v>79.83</v>
+      </c>
+      <c r="F297" t="n">
+        <v>16075.9985</v>
+      </c>
+      <c r="G297" t="n">
+        <v>-840982.1303605858</v>
+      </c>
+      <c r="H297" t="n">
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="n">
+        <v>80.3</v>
+      </c>
+      <c r="C298" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="D298" t="n">
+        <v>80.3</v>
+      </c>
+      <c r="E298" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="F298" t="n">
+        <v>6348.8139</v>
+      </c>
+      <c r="G298" t="n">
+        <v>-847330.9442605857</v>
+      </c>
+      <c r="H298" t="n">
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="C299" t="n">
+        <v>79.79000000000001</v>
+      </c>
+      <c r="D299" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="E299" t="n">
+        <v>79.75</v>
+      </c>
+      <c r="F299" t="n">
+        <v>18735.116</v>
+      </c>
+      <c r="G299" t="n">
+        <v>-866066.0602605857</v>
+      </c>
+      <c r="H299" t="n">
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="C300" t="n">
+        <v>79.75</v>
+      </c>
+      <c r="D300" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="E300" t="n">
+        <v>79.75</v>
+      </c>
+      <c r="F300" t="n">
+        <v>4262.9629</v>
+      </c>
+      <c r="G300" t="n">
+        <v>-870329.0231605858</v>
+      </c>
+      <c r="H300" t="n">
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="n">
+        <v>79.75</v>
+      </c>
+      <c r="C301" t="n">
+        <v>79.75</v>
+      </c>
+      <c r="D301" t="n">
+        <v>79.75</v>
+      </c>
+      <c r="E301" t="n">
+        <v>79.75</v>
+      </c>
+      <c r="F301" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G301" t="n">
+        <v>-870329.0231605858</v>
+      </c>
+      <c r="H301" t="n">
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="n">
+        <v>79.75</v>
+      </c>
+      <c r="C302" t="n">
+        <v>79.75</v>
+      </c>
+      <c r="D302" t="n">
+        <v>79.75</v>
+      </c>
+      <c r="E302" t="n">
+        <v>79.75</v>
+      </c>
+      <c r="F302" t="n">
+        <v>787.9999</v>
+      </c>
+      <c r="G302" t="n">
+        <v>-870329.0231605858</v>
+      </c>
+      <c r="H302" t="n">
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="n">
+        <v>79.75</v>
+      </c>
+      <c r="C303" t="n">
+        <v>79.75</v>
+      </c>
+      <c r="D303" t="n">
+        <v>79.75</v>
+      </c>
+      <c r="E303" t="n">
+        <v>79.75</v>
+      </c>
+      <c r="F303" t="n">
+        <v>11294.9999</v>
+      </c>
+      <c r="G303" t="n">
+        <v>-870329.0231605858</v>
+      </c>
+      <c r="H303" t="n">
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="n">
+        <v>79.75</v>
+      </c>
+      <c r="C304" t="n">
+        <v>79.72</v>
+      </c>
+      <c r="D304" t="n">
+        <v>79.75</v>
+      </c>
+      <c r="E304" t="n">
+        <v>79.72</v>
+      </c>
+      <c r="F304" t="n">
+        <v>19596.6241</v>
+      </c>
+      <c r="G304" t="n">
+        <v>-889925.6472605858</v>
+      </c>
+      <c r="H304" t="n">
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="n">
+        <v>79.73</v>
+      </c>
+      <c r="C305" t="n">
+        <v>79.78</v>
+      </c>
+      <c r="D305" t="n">
+        <v>79.78</v>
+      </c>
+      <c r="E305" t="n">
+        <v>79.72</v>
+      </c>
+      <c r="F305" t="n">
+        <v>10261.4255</v>
+      </c>
+      <c r="G305" t="n">
+        <v>-879664.2217605858</v>
+      </c>
+      <c r="H305" t="n">
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>79.72</v>
+      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>79.77</v>
-      </c>
-      <c r="C279" t="n">
-        <v>79.77</v>
-      </c>
-      <c r="D279" t="n">
-        <v>79.77</v>
-      </c>
-      <c r="E279" t="n">
-        <v>79.77</v>
-      </c>
-      <c r="F279" t="n">
-        <v>3664</v>
-      </c>
-      <c r="G279" t="n">
-        <v>-834973.1868605857</v>
-      </c>
-      <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>79.77</v>
-      </c>
-      <c r="J279" t="n">
-        <v>79.78</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="C280" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="D280" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="E280" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="F280" t="n">
-        <v>16.7178</v>
-      </c>
-      <c r="G280" t="n">
-        <v>-834956.4690605857</v>
-      </c>
-      <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>79.77</v>
-      </c>
-      <c r="J280" t="n">
-        <v>79.78</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="n">
-        <v>79.81</v>
-      </c>
-      <c r="C281" t="n">
-        <v>79.77</v>
-      </c>
-      <c r="D281" t="n">
-        <v>79.81</v>
-      </c>
-      <c r="E281" t="n">
-        <v>79.77</v>
-      </c>
-      <c r="F281" t="n">
-        <v>10031.2114</v>
-      </c>
-      <c r="G281" t="n">
-        <v>-844987.6804605857</v>
-      </c>
-      <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="J281" t="n">
-        <v>79.78</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="n">
-        <v>79.77</v>
-      </c>
-      <c r="C282" t="n">
-        <v>79.7</v>
-      </c>
-      <c r="D282" t="n">
-        <v>79.77</v>
-      </c>
-      <c r="E282" t="n">
-        <v>79.7</v>
-      </c>
-      <c r="F282" t="n">
-        <v>7028.4631</v>
-      </c>
-      <c r="G282" t="n">
-        <v>-852016.1435605858</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>79.78</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="B283" t="n">
-        <v>79.7</v>
-      </c>
-      <c r="C283" t="n">
-        <v>79.7</v>
-      </c>
-      <c r="D283" t="n">
-        <v>79.7</v>
-      </c>
-      <c r="E283" t="n">
-        <v>79.7</v>
-      </c>
-      <c r="F283" t="n">
-        <v>769.0282</v>
-      </c>
-      <c r="G283" t="n">
-        <v>-852016.1435605858</v>
-      </c>
-      <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>79.7</v>
-      </c>
-      <c r="J283" t="n">
-        <v>79.78</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="B284" t="n">
-        <v>79.7</v>
-      </c>
-      <c r="C284" t="n">
-        <v>79.70999999999999</v>
-      </c>
-      <c r="D284" t="n">
-        <v>79.70999999999999</v>
-      </c>
-      <c r="E284" t="n">
-        <v>79.7</v>
-      </c>
-      <c r="F284" t="n">
-        <v>6259.4349</v>
-      </c>
-      <c r="G284" t="n">
-        <v>-845756.7086605858</v>
-      </c>
-      <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="n">
-        <v>79.7</v>
-      </c>
-      <c r="J284" t="n">
-        <v>79.78</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
-        <v>283</v>
-      </c>
-      <c r="B285" t="n">
-        <v>79.70999999999999</v>
-      </c>
-      <c r="C285" t="n">
-        <v>80.51000000000001</v>
-      </c>
-      <c r="D285" t="n">
-        <v>80.51000000000001</v>
-      </c>
-      <c r="E285" t="n">
-        <v>79.7</v>
-      </c>
-      <c r="F285" t="n">
-        <v>17112.7921</v>
-      </c>
-      <c r="G285" t="n">
-        <v>-828643.9165605858</v>
-      </c>
-      <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>79.70999999999999</v>
-      </c>
-      <c r="J285" t="n">
-        <v>79.78</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B286" t="n">
-        <v>80</v>
-      </c>
-      <c r="C286" t="n">
-        <v>80</v>
-      </c>
-      <c r="D286" t="n">
-        <v>80</v>
-      </c>
-      <c r="E286" t="n">
-        <v>80</v>
-      </c>
-      <c r="F286" t="n">
-        <v>1939.3341</v>
-      </c>
-      <c r="G286" t="n">
-        <v>-830583.2506605858</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>79.78</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="B287" t="n">
-        <v>79.70999999999999</v>
-      </c>
-      <c r="C287" t="n">
-        <v>80.47</v>
-      </c>
-      <c r="D287" t="n">
-        <v>80.47</v>
-      </c>
-      <c r="E287" t="n">
-        <v>79.70999999999999</v>
-      </c>
-      <c r="F287" t="n">
-        <v>7041.4519</v>
-      </c>
-      <c r="G287" t="n">
-        <v>-823541.7987605858</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>79.78</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>286</v>
-      </c>
-      <c r="B288" t="n">
-        <v>80</v>
-      </c>
-      <c r="C288" t="n">
-        <v>79.91</v>
-      </c>
-      <c r="D288" t="n">
-        <v>80</v>
-      </c>
-      <c r="E288" t="n">
-        <v>79.91</v>
-      </c>
-      <c r="F288" t="n">
-        <v>10950.2096</v>
-      </c>
-      <c r="G288" t="n">
-        <v>-834492.0083605858</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>79.78</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="B289" t="n">
-        <v>79.91</v>
-      </c>
-      <c r="C289" t="n">
-        <v>79.91</v>
-      </c>
-      <c r="D289" t="n">
-        <v>79.91</v>
-      </c>
-      <c r="E289" t="n">
-        <v>79.91</v>
-      </c>
-      <c r="F289" t="n">
-        <v>7109.26</v>
-      </c>
-      <c r="G289" t="n">
-        <v>-834492.0083605858</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>79.78</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="B290" t="n">
-        <v>79.78</v>
-      </c>
-      <c r="C290" t="n">
-        <v>79.78</v>
-      </c>
-      <c r="D290" t="n">
-        <v>79.78</v>
-      </c>
-      <c r="E290" t="n">
-        <v>79.78</v>
-      </c>
-      <c r="F290" t="n">
-        <v>500</v>
-      </c>
-      <c r="G290" t="n">
-        <v>-834992.0083605858</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>79.78</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="B291" t="n">
-        <v>79.78</v>
-      </c>
-      <c r="C291" t="n">
-        <v>79.78</v>
-      </c>
-      <c r="D291" t="n">
-        <v>79.78</v>
-      </c>
-      <c r="E291" t="n">
-        <v>79.78</v>
-      </c>
-      <c r="F291" t="n">
-        <v>43496.749</v>
-      </c>
-      <c r="G291" t="n">
-        <v>-834992.0083605858</v>
-      </c>
-      <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>79.78</v>
-      </c>
-      <c r="J291" t="n">
-        <v>79.78</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B292" t="n">
-        <v>79.78</v>
-      </c>
-      <c r="C292" t="n">
-        <v>79.78</v>
-      </c>
-      <c r="D292" t="n">
-        <v>79.78</v>
-      </c>
-      <c r="E292" t="n">
-        <v>79.78</v>
-      </c>
-      <c r="F292" t="n">
-        <v>173.7137</v>
-      </c>
-      <c r="G292" t="n">
-        <v>-834992.0083605858</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>79.78</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
-        <v>291</v>
-      </c>
-      <c r="B293" t="n">
-        <v>79.78</v>
-      </c>
-      <c r="C293" t="n">
-        <v>80</v>
-      </c>
-      <c r="D293" t="n">
-        <v>80</v>
-      </c>
-      <c r="E293" t="n">
-        <v>79.78</v>
-      </c>
-      <c r="F293" t="n">
-        <v>10085.8765</v>
-      </c>
-      <c r="G293" t="n">
-        <v>-824906.1318605858</v>
-      </c>
-      <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>79.78</v>
-      </c>
-      <c r="J293" t="n">
-        <v>79.78</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
-        <v>292</v>
-      </c>
-      <c r="B294" t="n">
-        <v>80</v>
-      </c>
-      <c r="C294" t="n">
-        <v>80</v>
-      </c>
-      <c r="D294" t="n">
-        <v>80.09999999999999</v>
-      </c>
-      <c r="E294" t="n">
-        <v>80</v>
-      </c>
-      <c r="F294" t="n">
-        <v>1836.451</v>
-      </c>
-      <c r="G294" t="n">
-        <v>-824906.1318605858</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>79.78</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
-        <v>293</v>
-      </c>
-      <c r="B295" t="n">
-        <v>80</v>
-      </c>
-      <c r="C295" t="n">
-        <v>80</v>
-      </c>
-      <c r="D295" t="n">
-        <v>80</v>
-      </c>
-      <c r="E295" t="n">
-        <v>80</v>
-      </c>
-      <c r="F295" t="n">
-        <v>27155.3593</v>
-      </c>
-      <c r="G295" t="n">
-        <v>-824906.1318605858</v>
-      </c>
-      <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>80</v>
-      </c>
-      <c r="J295" t="n">
-        <v>79.78</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
-        <v>294</v>
-      </c>
-      <c r="B296" t="n">
-        <v>80</v>
-      </c>
-      <c r="C296" t="n">
-        <v>80</v>
-      </c>
-      <c r="D296" t="n">
-        <v>80</v>
-      </c>
-      <c r="E296" t="n">
-        <v>80</v>
-      </c>
-      <c r="F296" t="n">
-        <v>807.2658</v>
-      </c>
-      <c r="G296" t="n">
-        <v>-824906.1318605858</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>79.78</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
-        <v>295</v>
-      </c>
-      <c r="B297" t="n">
-        <v>79.83</v>
-      </c>
-      <c r="C297" t="n">
-        <v>79.83</v>
-      </c>
-      <c r="D297" t="n">
-        <v>79.83</v>
-      </c>
-      <c r="E297" t="n">
-        <v>79.83</v>
-      </c>
-      <c r="F297" t="n">
-        <v>16075.9985</v>
-      </c>
-      <c r="G297" t="n">
-        <v>-840982.1303605858</v>
-      </c>
-      <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>80</v>
-      </c>
-      <c r="J297" t="n">
-        <v>79.78</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
-        <v>296</v>
-      </c>
-      <c r="B298" t="n">
-        <v>80.3</v>
-      </c>
-      <c r="C298" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="D298" t="n">
-        <v>80.3</v>
-      </c>
-      <c r="E298" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="F298" t="n">
-        <v>6348.8139</v>
-      </c>
-      <c r="G298" t="n">
-        <v>-847330.9442605857</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>79.78</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
-        <v>297</v>
-      </c>
-      <c r="B299" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="C299" t="n">
-        <v>79.79000000000001</v>
-      </c>
-      <c r="D299" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="E299" t="n">
-        <v>79.75</v>
-      </c>
-      <c r="F299" t="n">
-        <v>18735.116</v>
-      </c>
-      <c r="G299" t="n">
-        <v>-866066.0602605857</v>
-      </c>
-      <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="J299" t="n">
-        <v>79.78</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
-        <v>298</v>
-      </c>
-      <c r="B300" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="C300" t="n">
-        <v>79.75</v>
-      </c>
-      <c r="D300" t="n">
-        <v>79.8</v>
-      </c>
-      <c r="E300" t="n">
-        <v>79.75</v>
-      </c>
-      <c r="F300" t="n">
-        <v>4262.9629</v>
-      </c>
-      <c r="G300" t="n">
-        <v>-870329.0231605858</v>
-      </c>
-      <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
-        <v>79.79000000000001</v>
-      </c>
-      <c r="J300" t="n">
-        <v>79.78</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
-        <v>299</v>
-      </c>
-      <c r="B301" t="n">
-        <v>79.75</v>
-      </c>
-      <c r="C301" t="n">
-        <v>79.75</v>
-      </c>
-      <c r="D301" t="n">
-        <v>79.75</v>
-      </c>
-      <c r="E301" t="n">
-        <v>79.75</v>
-      </c>
-      <c r="F301" t="n">
-        <v>1200</v>
-      </c>
-      <c r="G301" t="n">
-        <v>-870329.0231605858</v>
-      </c>
-      <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>79.75</v>
-      </c>
-      <c r="J301" t="n">
-        <v>79.78</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="B302" t="n">
-        <v>79.75</v>
-      </c>
-      <c r="C302" t="n">
-        <v>79.75</v>
-      </c>
-      <c r="D302" t="n">
-        <v>79.75</v>
-      </c>
-      <c r="E302" t="n">
-        <v>79.75</v>
-      </c>
-      <c r="F302" t="n">
-        <v>787.9999</v>
-      </c>
-      <c r="G302" t="n">
-        <v>-870329.0231605858</v>
-      </c>
-      <c r="H302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I302" t="n">
-        <v>79.75</v>
-      </c>
-      <c r="J302" t="n">
-        <v>79.78</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
-        <v>301</v>
-      </c>
-      <c r="B303" t="n">
-        <v>79.75</v>
-      </c>
-      <c r="C303" t="n">
-        <v>79.75</v>
-      </c>
-      <c r="D303" t="n">
-        <v>79.75</v>
-      </c>
-      <c r="E303" t="n">
-        <v>79.75</v>
-      </c>
-      <c r="F303" t="n">
-        <v>11294.9999</v>
-      </c>
-      <c r="G303" t="n">
-        <v>-870329.0231605858</v>
-      </c>
-      <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>79.75</v>
-      </c>
-      <c r="J303" t="n">
-        <v>79.78</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
-        <v>302</v>
-      </c>
-      <c r="B304" t="n">
-        <v>79.75</v>
-      </c>
-      <c r="C304" t="n">
-        <v>79.72</v>
-      </c>
-      <c r="D304" t="n">
-        <v>79.75</v>
-      </c>
-      <c r="E304" t="n">
-        <v>79.72</v>
-      </c>
-      <c r="F304" t="n">
-        <v>19596.6241</v>
-      </c>
-      <c r="G304" t="n">
-        <v>-889925.6472605858</v>
-      </c>
-      <c r="H304" t="n">
-        <v>1</v>
-      </c>
-      <c r="I304" t="n">
-        <v>79.75</v>
-      </c>
-      <c r="J304" t="n">
-        <v>79.78</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
-    </row>
-    <row r="305">
-      <c r="A305" s="1" t="n">
-        <v>303</v>
-      </c>
-      <c r="B305" t="n">
-        <v>79.73</v>
-      </c>
-      <c r="C305" t="n">
-        <v>79.78</v>
-      </c>
-      <c r="D305" t="n">
-        <v>79.78</v>
-      </c>
-      <c r="E305" t="n">
-        <v>79.72</v>
-      </c>
-      <c r="F305" t="n">
-        <v>10261.4255</v>
-      </c>
-      <c r="G305" t="n">
-        <v>-879664.2217605858</v>
-      </c>
-      <c r="H305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I305" t="n">
-        <v>79.72</v>
-      </c>
-      <c r="J305" t="n">
-        <v>79.78</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10705,14 +10489,10 @@
         <v>-881988.3330605858</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
-      </c>
-      <c r="I306" t="n">
-        <v>79.78</v>
-      </c>
-      <c r="J306" t="n">
-        <v>79.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10746,14 +10526,10 @@
         <v>-881988.3330605858</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I307" t="n">
-        <v>79.72</v>
-      </c>
-      <c r="J307" t="n">
-        <v>79.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10765,6 +10541,6 @@
       <c r="M307" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest ENJ.xlsx
+++ b/BackTest/2020-01-15 BackTest ENJ.xlsx
@@ -451,7 +451,7 @@
         <v>-205555.0568</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-205555.0568</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-231808.1333</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-231773.1333</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-232297.1333</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-232297.1333</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-232146.0186</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-235932.0186</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-230042.0186</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-230042.0186</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-230042.0186</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-238802.0186</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-234014.5414</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-243182.2308</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-244752.2308</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-268739.811</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-282866.811</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-282866.811</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-547585.1884</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-544106.1446999999</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-544106.1446999999</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-414356.0962128333</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-414172.9856128333</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-409172.9856128333</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-403167.8118128333</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -9196,10 +9196,14 @@
         <v>-807304.2603605856</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>80.15000000000001</v>
+      </c>
+      <c r="J267" t="n">
+        <v>80.15000000000001</v>
+      </c>
       <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
@@ -9229,11 +9233,19 @@
         <v>-786539.2084605857</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>79.94</v>
+      </c>
+      <c r="J268" t="n">
+        <v>80.15000000000001</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9262,11 +9274,19 @@
         <v>-786539.2084605857</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>80.2</v>
+      </c>
+      <c r="J269" t="n">
+        <v>80.15000000000001</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9295,11 +9315,19 @@
         <v>-815560.0475605857</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>80.2</v>
+      </c>
+      <c r="J270" t="n">
+        <v>80.15000000000001</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9328,11 +9356,19 @@
         <v>-815553.0475605857</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="J271" t="n">
+        <v>80.15000000000001</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9361,11 +9397,19 @@
         <v>-818926.0475605857</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>80.2</v>
+      </c>
+      <c r="J272" t="n">
+        <v>80.15000000000001</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9394,11 +9438,19 @@
         <v>-818926.0475605857</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="J273" t="n">
+        <v>80.15000000000001</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9427,11 +9479,19 @@
         <v>-818957.1868605857</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="J274" t="n">
+        <v>80.15000000000001</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9460,11 +9520,19 @@
         <v>-818957.1868605857</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>79.78</v>
+      </c>
+      <c r="J275" t="n">
+        <v>80.15000000000001</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9493,11 +9561,19 @@
         <v>-818957.1868605857</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>79.78</v>
+      </c>
+      <c r="J276" t="n">
+        <v>80.15000000000001</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9526,11 +9602,19 @@
         <v>-818950.1868605857</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>79.78</v>
+      </c>
+      <c r="J277" t="n">
+        <v>80.15000000000001</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9559,11 +9643,19 @@
         <v>-834973.1868605857</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>80.2</v>
+      </c>
+      <c r="J278" t="n">
+        <v>80.15000000000001</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9592,11 +9684,19 @@
         <v>-834973.1868605857</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>79.77</v>
+      </c>
+      <c r="J279" t="n">
+        <v>80.15000000000001</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9625,11 +9725,19 @@
         <v>-834956.4690605857</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>79.77</v>
+      </c>
+      <c r="J280" t="n">
+        <v>80.15000000000001</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9658,11 +9766,19 @@
         <v>-844987.6804605857</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="J281" t="n">
+        <v>80.15000000000001</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9691,11 +9807,19 @@
         <v>-852016.1435605858</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>79.77</v>
+      </c>
+      <c r="J282" t="n">
+        <v>80.15000000000001</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9724,11 +9848,19 @@
         <v>-852016.1435605858</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>79.7</v>
+      </c>
+      <c r="J283" t="n">
+        <v>80.15000000000001</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9757,11 +9889,19 @@
         <v>-845756.7086605858</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>79.7</v>
+      </c>
+      <c r="J284" t="n">
+        <v>80.15000000000001</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9790,11 +9930,19 @@
         <v>-828643.9165605858</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>79.70999999999999</v>
+      </c>
+      <c r="J285" t="n">
+        <v>80.15000000000001</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9823,11 +9971,19 @@
         <v>-830583.2506605858</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>80.51000000000001</v>
+      </c>
+      <c r="J286" t="n">
+        <v>80.15000000000001</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9856,11 +10012,19 @@
         <v>-823541.7987605858</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>80</v>
+      </c>
+      <c r="J287" t="n">
+        <v>80.15000000000001</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9889,11 +10053,19 @@
         <v>-834492.0083605858</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>80.47</v>
+      </c>
+      <c r="J288" t="n">
+        <v>80.15000000000001</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9922,11 +10094,19 @@
         <v>-834492.0083605858</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>79.91</v>
+      </c>
+      <c r="J289" t="n">
+        <v>80.15000000000001</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9955,11 +10135,19 @@
         <v>-834992.0083605858</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>79.91</v>
+      </c>
+      <c r="J290" t="n">
+        <v>80.15000000000001</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -9988,11 +10176,19 @@
         <v>-834992.0083605858</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>79.78</v>
+      </c>
+      <c r="J291" t="n">
+        <v>80.15000000000001</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10021,11 +10217,19 @@
         <v>-834992.0083605858</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>79.78</v>
+      </c>
+      <c r="J292" t="n">
+        <v>80.15000000000001</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10054,11 +10258,19 @@
         <v>-824906.1318605858</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>79.78</v>
+      </c>
+      <c r="J293" t="n">
+        <v>80.15000000000001</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10087,11 +10299,19 @@
         <v>-824906.1318605858</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>80</v>
+      </c>
+      <c r="J294" t="n">
+        <v>80.15000000000001</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10120,11 +10340,19 @@
         <v>-824906.1318605858</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>80</v>
+      </c>
+      <c r="J295" t="n">
+        <v>80.15000000000001</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10153,11 +10381,19 @@
         <v>-824906.1318605858</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>80</v>
+      </c>
+      <c r="J296" t="n">
+        <v>80.15000000000001</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10186,11 +10422,19 @@
         <v>-840982.1303605858</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>80</v>
+      </c>
+      <c r="J297" t="n">
+        <v>80.15000000000001</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10219,11 +10463,19 @@
         <v>-847330.9442605857</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>79.83</v>
+      </c>
+      <c r="J298" t="n">
+        <v>80.15000000000001</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10252,11 +10504,19 @@
         <v>-866066.0602605857</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="J299" t="n">
+        <v>80.15000000000001</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10285,11 +10545,19 @@
         <v>-870329.0231605858</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>79.79000000000001</v>
+      </c>
+      <c r="J300" t="n">
+        <v>80.15000000000001</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10318,11 +10586,19 @@
         <v>-870329.0231605858</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>79.75</v>
+      </c>
+      <c r="J301" t="n">
+        <v>80.15000000000001</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10351,11 +10627,19 @@
         <v>-870329.0231605858</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>79.75</v>
+      </c>
+      <c r="J302" t="n">
+        <v>80.15000000000001</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10384,11 +10668,19 @@
         <v>-870329.0231605858</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>79.75</v>
+      </c>
+      <c r="J303" t="n">
+        <v>80.15000000000001</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10417,11 +10709,19 @@
         <v>-889925.6472605858</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>79.75</v>
+      </c>
+      <c r="J304" t="n">
+        <v>80.15000000000001</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10455,10 +10755,12 @@
       <c r="I305" t="n">
         <v>79.72</v>
       </c>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>80.15000000000001</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L305" t="n">
@@ -10489,10 +10791,14 @@
         <v>-881988.3330605858</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>79.78</v>
+      </c>
+      <c r="J306" t="n">
+        <v>80.15000000000001</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10526,10 +10832,14 @@
         <v>-881988.3330605858</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>79.72</v>
+      </c>
+      <c r="J307" t="n">
+        <v>80.15000000000001</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
